--- a/CAD_Mechanical/AARL_QR-Quadruped/AARL_QR_FR-Frame/InProgress/Haonan/AARL_QR_FR_LE_BI_BL-Back_Left_new/Adjustable Spiral Torsion Spring/3D Printed Torsion Spring Calculations.xlsx
+++ b/CAD_Mechanical/AARL_QR-Quadruped/AARL_QR_FR-Frame/InProgress/Haonan/AARL_QR_FR_LE_BI_BL-Back_Left_new/Adjustable Spiral Torsion Spring/3D Printed Torsion Spring Calculations.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Quadruped_Robot\CAD_Mechanical\AARL_QR-Quadruped\AARL_QR_FR-Frame\InProgress\Haonan\AARL_QR_FR_LE_BI_BL-Back_Left_new\Adjustable Spiral Torsion Spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBBA7AC5-8B2D-4D0F-A4A6-E9717DB35B5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB4374A-DC92-4829-82EA-B43C38F402C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Spring Table" sheetId="7" r:id="rId1"/>
+    <sheet name="Hip Spring Table" sheetId="7" r:id="rId1"/>
     <sheet name="Test Spring 3" sheetId="2" r:id="rId2"/>
     <sheet name="Test Spring 3 FG" sheetId="3" r:id="rId3"/>
     <sheet name="Test Spring 3 FG Set 2" sheetId="4" r:id="rId4"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="33">
   <si>
     <t>unloaded</t>
   </si>
@@ -142,6 +142,16 @@
     <t>Effective Leg Length
 (mm)</t>
   </si>
+  <si>
+    <t>Pitch
+(mm)</t>
+  </si>
+  <si>
+    <t>Revolutions</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
 </sst>
 </file>
 
@@ -164,7 +174,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -174,6 +184,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -190,10 +206,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -204,11 +229,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5665,10 +5687,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -5966,65 +5984,852 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21CEBFFD-D877-4251-A7C8-DAFF0369D5AB}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="21.85546875" customWidth="1"/>
-    <col min="8" max="10" width="21.28515625" customWidth="1"/>
-    <col min="11" max="12" width="20.140625" customWidth="1"/>
-    <col min="13" max="13" width="60" customWidth="1"/>
+    <col min="1" max="9" width="21.85546875" customWidth="1"/>
+    <col min="10" max="12" width="21.28515625" customWidth="1"/>
+    <col min="13" max="14" width="20.140625" customWidth="1"/>
+    <col min="15" max="15" width="60" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="H1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="I1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="J1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="K1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="L1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="M1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="N1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>54</v>
+      </c>
+      <c r="B2" s="8">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2">
+        <f>(A2-B2)/2</f>
+        <v>20</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2">
+        <v>2</v>
+      </c>
+      <c r="J2" s="8">
         <v>2.4</v>
       </c>
+      <c r="K2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>54</v>
+      </c>
+      <c r="B3" s="8">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2">
+        <f t="shared" ref="E3:E22" si="0">(A3-B3)/2</f>
+        <v>20</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2">
+        <v>4</v>
+      </c>
+      <c r="J3" s="8">
+        <v>2.4</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>54</v>
+      </c>
+      <c r="B4" s="8">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2">
+        <v>6</v>
+      </c>
+      <c r="J4" s="8">
+        <v>2.4</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>54</v>
+      </c>
+      <c r="B5" s="8">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>3</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2">
+        <v>2</v>
+      </c>
+      <c r="J5" s="8">
+        <v>2.4</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>54</v>
+      </c>
+      <c r="B6" s="8">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2">
+        <v>4</v>
+      </c>
+      <c r="J6" s="8">
+        <v>2.4</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>54</v>
+      </c>
+      <c r="B7" s="8">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2">
+        <v>6</v>
+      </c>
+      <c r="J7" s="8">
+        <v>2.4</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>54</v>
+      </c>
+      <c r="B8" s="8">
+        <v>14</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2">
+        <v>4</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2">
+        <v>2</v>
+      </c>
+      <c r="J8" s="8">
+        <v>2.4</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>54</v>
+      </c>
+      <c r="B9" s="8">
+        <v>14</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2">
+        <v>4</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2">
+        <v>4</v>
+      </c>
+      <c r="J9" s="8">
+        <v>2.4</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>54</v>
+      </c>
+      <c r="B10" s="8">
+        <v>14</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2">
+        <v>4</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2">
+        <v>6</v>
+      </c>
+      <c r="J10" s="8">
+        <v>2.4</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>54</v>
+      </c>
+      <c r="B11" s="8">
+        <v>14</v>
+      </c>
+      <c r="C11" s="2">
+        <v>2</v>
+      </c>
+      <c r="D11" s="2">
+        <v>6</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2">
+        <v>2</v>
+      </c>
+      <c r="J11" s="8">
+        <v>2.4</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>54</v>
+      </c>
+      <c r="B12" s="8">
+        <v>14</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2">
+        <v>6</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2">
+        <v>4</v>
+      </c>
+      <c r="J12" s="8">
+        <v>2.4</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>54</v>
+      </c>
+      <c r="B13" s="8">
+        <v>14</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2</v>
+      </c>
+      <c r="D13" s="2">
+        <v>6</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2">
+        <v>6</v>
+      </c>
+      <c r="J13" s="8">
+        <v>2.4</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>54</v>
+      </c>
+      <c r="B14" s="8">
+        <v>14</v>
+      </c>
+      <c r="C14" s="2">
+        <v>3</v>
+      </c>
+      <c r="D14" s="2">
+        <v>2</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2">
+        <v>2</v>
+      </c>
+      <c r="J14" s="8">
+        <v>2.4</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>54</v>
+      </c>
+      <c r="B15" s="8">
+        <v>14</v>
+      </c>
+      <c r="C15" s="2">
+        <v>3</v>
+      </c>
+      <c r="D15" s="2">
+        <v>2</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2">
+        <v>4</v>
+      </c>
+      <c r="J15" s="8">
+        <v>2.4</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <v>54</v>
+      </c>
+      <c r="B16" s="8">
+        <v>14</v>
+      </c>
+      <c r="C16" s="2">
+        <v>3</v>
+      </c>
+      <c r="D16" s="2">
+        <v>2</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2">
+        <v>6</v>
+      </c>
+      <c r="J16" s="8">
+        <v>2.4</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <v>54</v>
+      </c>
+      <c r="B17" s="8">
+        <v>14</v>
+      </c>
+      <c r="C17" s="2">
+        <v>3</v>
+      </c>
+      <c r="D17" s="2">
+        <v>3</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2">
+        <v>2</v>
+      </c>
+      <c r="J17" s="8">
+        <v>2.4</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <v>54</v>
+      </c>
+      <c r="B18" s="8">
+        <v>14</v>
+      </c>
+      <c r="C18" s="2">
+        <v>3</v>
+      </c>
+      <c r="D18" s="2">
+        <v>3</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2">
+        <v>4</v>
+      </c>
+      <c r="J18" s="8">
+        <v>2.4</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <v>54</v>
+      </c>
+      <c r="B19" s="8">
+        <v>14</v>
+      </c>
+      <c r="C19" s="2">
+        <v>3</v>
+      </c>
+      <c r="D19" s="2">
+        <v>3</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2">
+        <v>6</v>
+      </c>
+      <c r="J19" s="8">
+        <v>2.4</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <v>54</v>
+      </c>
+      <c r="B20" s="8">
+        <v>14</v>
+      </c>
+      <c r="C20" s="2">
+        <v>3</v>
+      </c>
+      <c r="D20" s="2">
+        <v>4</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2">
+        <v>2</v>
+      </c>
+      <c r="J20" s="8">
+        <v>2.4</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <v>54</v>
+      </c>
+      <c r="B21" s="8">
+        <v>14</v>
+      </c>
+      <c r="C21" s="2">
+        <v>3</v>
+      </c>
+      <c r="D21" s="2">
+        <v>4</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2">
+        <v>4</v>
+      </c>
+      <c r="J21" s="8">
+        <v>2.4</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <v>54</v>
+      </c>
+      <c r="B22" s="8">
+        <v>14</v>
+      </c>
+      <c r="C22" s="2">
+        <v>3</v>
+      </c>
+      <c r="D22" s="2">
+        <v>4</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F22" s="2">
+        <v>1</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2">
+        <v>6</v>
+      </c>
+      <c r="J22" s="8">
+        <v>2.4</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I25" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6045,16 +6850,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2" t="s">
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -6083,7 +6888,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="6">
         <v>10</v>
       </c>
       <c r="B3">
@@ -6113,7 +6918,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
+      <c r="A4" s="6"/>
       <c r="B4">
         <v>75</v>
       </c>
@@ -6141,7 +6946,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
+      <c r="A5" s="6"/>
       <c r="B5">
         <v>100</v>
       </c>
@@ -6199,7 +7004,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="6">
         <v>20</v>
       </c>
       <c r="B7">
@@ -6229,7 +7034,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
+      <c r="A8" s="6"/>
       <c r="B8">
         <v>75</v>
       </c>
@@ -6257,7 +7062,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
+      <c r="A9" s="6"/>
       <c r="B9">
         <v>100</v>
       </c>
@@ -6315,7 +7120,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="A11" s="6">
         <v>50</v>
       </c>
       <c r="B11">
@@ -6345,7 +7150,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
+      <c r="A12" s="6"/>
       <c r="B12">
         <v>75</v>
       </c>
@@ -6373,7 +7178,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
+      <c r="A13" s="6"/>
       <c r="B13">
         <v>100</v>
       </c>
@@ -6431,7 +7236,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+      <c r="A15" s="6">
         <v>100</v>
       </c>
       <c r="B15">
@@ -6461,7 +7266,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
+      <c r="A16" s="6"/>
       <c r="B16">
         <v>75</v>
       </c>
@@ -6489,7 +7294,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
+      <c r="A17" s="6"/>
       <c r="B17">
         <v>100</v>
       </c>
@@ -6627,16 +7432,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2" t="s">
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -6665,7 +7470,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="6">
         <v>50</v>
       </c>
       <c r="B3">
@@ -6695,7 +7500,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
+      <c r="A4" s="6"/>
       <c r="B4">
         <v>75</v>
       </c>
@@ -6723,7 +7528,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
+      <c r="A5" s="6"/>
       <c r="B5">
         <v>100</v>
       </c>
@@ -6781,7 +7586,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="6">
         <v>100</v>
       </c>
       <c r="B7">
@@ -6811,7 +7616,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
+      <c r="A8" s="6"/>
       <c r="B8">
         <v>75</v>
       </c>
@@ -6839,7 +7644,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
+      <c r="A9" s="6"/>
       <c r="B9">
         <v>100</v>
       </c>
@@ -6897,7 +7702,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="A11" s="6">
         <v>200</v>
       </c>
       <c r="B11">
@@ -6927,7 +7732,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
+      <c r="A12" s="6"/>
       <c r="B12">
         <v>75</v>
       </c>
@@ -6955,7 +7760,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
+      <c r="A13" s="6"/>
       <c r="B13">
         <v>100</v>
       </c>
@@ -7037,18 +7842,18 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
       <c r="J20" t="s">
         <v>9</v>
       </c>
@@ -7061,10 +7866,10 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
       <c r="J21" t="s">
         <v>10</v>
       </c>
@@ -7077,16 +7882,16 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
       <c r="J23" t="s">
         <v>12</v>
       </c>
@@ -7099,26 +7904,26 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
       <c r="L25">
         <f>L23*4</f>
         <v>14.438169924830838</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -7148,16 +7953,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2" t="s">
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -7186,7 +7991,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="6">
         <v>50</v>
       </c>
       <c r="B3">
@@ -7216,7 +8021,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
+      <c r="A4" s="6"/>
       <c r="B4">
         <v>75</v>
       </c>
@@ -7244,7 +8049,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
+      <c r="A5" s="6"/>
       <c r="B5">
         <v>100</v>
       </c>
@@ -7302,7 +8107,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="6">
         <v>100</v>
       </c>
       <c r="B7">
@@ -7332,7 +8137,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
+      <c r="A8" s="6"/>
       <c r="B8">
         <v>75</v>
       </c>
@@ -7360,7 +8165,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
+      <c r="A9" s="6"/>
       <c r="B9">
         <v>100</v>
       </c>
@@ -7418,7 +8223,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="A11" s="6">
         <v>200</v>
       </c>
       <c r="B11">
@@ -7448,7 +8253,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
+      <c r="A12" s="6"/>
       <c r="B12">
         <v>75</v>
       </c>
@@ -7476,7 +8281,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
+      <c r="A13" s="6"/>
       <c r="B13">
         <v>100</v>
       </c>
@@ -7558,18 +8363,18 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
       <c r="J20" t="s">
         <v>9</v>
       </c>
@@ -7582,10 +8387,10 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
       <c r="J21" t="s">
         <v>10</v>
       </c>
@@ -7598,16 +8403,16 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
       <c r="J23" t="s">
         <v>12</v>
       </c>
@@ -7620,22 +8425,22 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -7665,16 +8470,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2" t="s">
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -7703,7 +8508,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="6">
         <v>50</v>
       </c>
       <c r="B3">
@@ -7733,7 +8538,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
+      <c r="A4" s="6"/>
       <c r="B4">
         <v>75</v>
       </c>
@@ -7761,7 +8566,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
+      <c r="A5" s="6"/>
       <c r="B5">
         <v>100</v>
       </c>
@@ -7819,7 +8624,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="6">
         <v>100</v>
       </c>
       <c r="B7">
@@ -7849,7 +8654,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
+      <c r="A8" s="6"/>
       <c r="B8">
         <v>75</v>
       </c>
@@ -7877,7 +8682,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
+      <c r="A9" s="6"/>
       <c r="B9">
         <v>100</v>
       </c>
@@ -7935,7 +8740,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="A11" s="6">
         <v>200</v>
       </c>
       <c r="B11">
@@ -7965,7 +8770,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
+      <c r="A12" s="6"/>
       <c r="B12">
         <v>75</v>
       </c>
@@ -7993,7 +8798,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
+      <c r="A13" s="6"/>
       <c r="B13">
         <v>100</v>
       </c>
@@ -8051,7 +8856,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+      <c r="A15" s="6">
         <v>500</v>
       </c>
       <c r="B15">
@@ -8081,7 +8886,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
+      <c r="A16" s="6"/>
       <c r="B16">
         <v>75</v>
       </c>
@@ -8109,7 +8914,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
+      <c r="A17" s="6"/>
       <c r="B17">
         <v>100</v>
       </c>
@@ -8213,12 +9018,12 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
       <c r="J23" t="s">
         <v>12</v>
       </c>
@@ -8231,50 +9036,50 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
       <c r="L25">
         <f>L23*4</f>
         <v>5.6974317845977467</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/CAD_Mechanical/AARL_QR-Quadruped/AARL_QR_FR-Frame/InProgress/Haonan/AARL_QR_FR_LE_BI_BL-Back_Left_new/Adjustable Spiral Torsion Spring/3D Printed Torsion Spring Calculations.xlsx
+++ b/CAD_Mechanical/AARL_QR-Quadruped/AARL_QR_FR-Frame/InProgress/Haonan/AARL_QR_FR_LE_BI_BL-Back_Left_new/Adjustable Spiral Torsion Spring/3D Printed Torsion Spring Calculations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Quadruped_Robot\CAD_Mechanical\AARL_QR-Quadruped\AARL_QR_FR-Frame\InProgress\Haonan\AARL_QR_FR_LE_BI_BL-Back_Left_new\Adjustable Spiral Torsion Spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB4374A-DC92-4829-82EA-B43C38F402C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40547FC-6416-4F0D-BD77-B82291B6BE39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hip Spring Table" sheetId="7" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="51">
   <si>
     <t>unloaded</t>
   </si>
@@ -152,11 +152,68 @@
   <si>
     <t>N/A</t>
   </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>GPa</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>Le</t>
+  </si>
+  <si>
+    <t>pitch</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>mm/rad</t>
+  </si>
+  <si>
+    <t>theta1</t>
+  </si>
+  <si>
+    <t>theta2</t>
+  </si>
+  <si>
+    <t>rad</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="0.000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -206,7 +263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -220,6 +277,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -229,9 +289,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5986,8 +6044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21CEBFFD-D877-4251-A7C8-DAFF0369D5AB}">
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6046,10 +6104,10 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
+      <c r="A2" s="5">
         <v>54</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="5">
         <v>14</v>
       </c>
       <c r="C2" s="2">
@@ -6066,11 +6124,14 @@
         <v>1</v>
       </c>
       <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="H2" s="2">
+        <f>G2</f>
+        <v>0</v>
+      </c>
       <c r="I2" s="2">
         <v>2</v>
       </c>
-      <c r="J2" s="8">
+      <c r="J2" s="5">
         <v>2.4</v>
       </c>
       <c r="K2" s="2" t="s">
@@ -6080,13 +6141,16 @@
         <v>32</v>
       </c>
       <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
+      <c r="N2" s="2" t="e">
+        <f>C2*((J2*I2*D2^3)/(12*H2))</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+      <c r="A3" s="5">
         <v>54</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="5">
         <v>14</v>
       </c>
       <c r="C3" s="2">
@@ -6103,11 +6167,14 @@
         <v>1</v>
       </c>
       <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="H3" s="2">
+        <f t="shared" ref="H3:H22" si="1">G3</f>
+        <v>0</v>
+      </c>
       <c r="I3" s="2">
         <v>4</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="5">
         <v>2.4</v>
       </c>
       <c r="K3" s="2" t="s">
@@ -6120,10 +6187,10 @@
       <c r="N3" s="2"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+      <c r="A4" s="5">
         <v>54</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="5">
         <v>14</v>
       </c>
       <c r="C4" s="2">
@@ -6140,11 +6207,14 @@
         <v>1</v>
       </c>
       <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="H4" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I4" s="2">
         <v>6</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="5">
         <v>2.4</v>
       </c>
       <c r="K4" s="2" t="s">
@@ -6157,10 +6227,10 @@
       <c r="N4" s="2"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+      <c r="A5" s="5">
         <v>54</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="5">
         <v>14</v>
       </c>
       <c r="C5" s="2">
@@ -6177,11 +6247,14 @@
         <v>1</v>
       </c>
       <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="H5" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I5" s="2">
         <v>2</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="5">
         <v>2.4</v>
       </c>
       <c r="K5" s="2" t="s">
@@ -6194,10 +6267,10 @@
       <c r="N5" s="2"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+      <c r="A6" s="5">
         <v>54</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="5">
         <v>14</v>
       </c>
       <c r="C6" s="2">
@@ -6214,11 +6287,14 @@
         <v>1</v>
       </c>
       <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="H6" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I6" s="2">
         <v>4</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="5">
         <v>2.4</v>
       </c>
       <c r="K6" s="2" t="s">
@@ -6231,10 +6307,10 @@
       <c r="N6" s="2"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
+      <c r="A7" s="5">
         <v>54</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="5">
         <v>14</v>
       </c>
       <c r="C7" s="2">
@@ -6251,11 +6327,14 @@
         <v>1</v>
       </c>
       <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="H7" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I7" s="2">
         <v>6</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="5">
         <v>2.4</v>
       </c>
       <c r="K7" s="2" t="s">
@@ -6268,10 +6347,10 @@
       <c r="N7" s="2"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+      <c r="A8" s="5">
         <v>54</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="5">
         <v>14</v>
       </c>
       <c r="C8" s="2">
@@ -6288,11 +6367,14 @@
         <v>1</v>
       </c>
       <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="H8" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I8" s="2">
         <v>2</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="5">
         <v>2.4</v>
       </c>
       <c r="K8" s="2" t="s">
@@ -6305,10 +6387,10 @@
       <c r="N8" s="2"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
+      <c r="A9" s="5">
         <v>54</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="5">
         <v>14</v>
       </c>
       <c r="C9" s="2">
@@ -6325,11 +6407,14 @@
         <v>1</v>
       </c>
       <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="H9" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I9" s="2">
         <v>4</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="5">
         <v>2.4</v>
       </c>
       <c r="K9" s="2" t="s">
@@ -6342,10 +6427,10 @@
       <c r="N9" s="2"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
+      <c r="A10" s="5">
         <v>54</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="5">
         <v>14</v>
       </c>
       <c r="C10" s="2">
@@ -6362,11 +6447,14 @@
         <v>1</v>
       </c>
       <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="H10" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I10" s="2">
         <v>6</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="5">
         <v>2.4</v>
       </c>
       <c r="K10" s="2" t="s">
@@ -6379,10 +6467,10 @@
       <c r="N10" s="2"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
+      <c r="A11" s="5">
         <v>54</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="5">
         <v>14</v>
       </c>
       <c r="C11" s="2">
@@ -6399,11 +6487,14 @@
         <v>1</v>
       </c>
       <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="H11" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I11" s="2">
         <v>2</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="5">
         <v>2.4</v>
       </c>
       <c r="K11" s="2" t="s">
@@ -6416,10 +6507,10 @@
       <c r="N11" s="2"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
+      <c r="A12" s="5">
         <v>54</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="5">
         <v>14</v>
       </c>
       <c r="C12" s="2">
@@ -6436,11 +6527,14 @@
         <v>1</v>
       </c>
       <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="H12" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I12" s="2">
         <v>4</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J12" s="5">
         <v>2.4</v>
       </c>
       <c r="K12" s="2" t="s">
@@ -6453,10 +6547,10 @@
       <c r="N12" s="2"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
+      <c r="A13" s="5">
         <v>54</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="5">
         <v>14</v>
       </c>
       <c r="C13" s="2">
@@ -6473,11 +6567,14 @@
         <v>1</v>
       </c>
       <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="H13" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I13" s="2">
         <v>6</v>
       </c>
-      <c r="J13" s="8">
+      <c r="J13" s="5">
         <v>2.4</v>
       </c>
       <c r="K13" s="2" t="s">
@@ -6490,10 +6587,10 @@
       <c r="N13" s="2"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
+      <c r="A14" s="5">
         <v>54</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="5">
         <v>14</v>
       </c>
       <c r="C14" s="2">
@@ -6510,11 +6607,14 @@
         <v>1</v>
       </c>
       <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+      <c r="H14" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I14" s="2">
         <v>2</v>
       </c>
-      <c r="J14" s="8">
+      <c r="J14" s="5">
         <v>2.4</v>
       </c>
       <c r="K14" s="2" t="s">
@@ -6527,10 +6627,10 @@
       <c r="N14" s="2"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
+      <c r="A15" s="5">
         <v>54</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="5">
         <v>14</v>
       </c>
       <c r="C15" s="2">
@@ -6547,11 +6647,14 @@
         <v>1</v>
       </c>
       <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+      <c r="H15" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I15" s="2">
         <v>4</v>
       </c>
-      <c r="J15" s="8">
+      <c r="J15" s="5">
         <v>2.4</v>
       </c>
       <c r="K15" s="2" t="s">
@@ -6564,10 +6667,10 @@
       <c r="N15" s="2"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
+      <c r="A16" s="5">
         <v>54</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="5">
         <v>14</v>
       </c>
       <c r="C16" s="2">
@@ -6584,11 +6687,14 @@
         <v>1</v>
       </c>
       <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+      <c r="H16" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I16" s="2">
         <v>6</v>
       </c>
-      <c r="J16" s="8">
+      <c r="J16" s="5">
         <v>2.4</v>
       </c>
       <c r="K16" s="2" t="s">
@@ -6601,10 +6707,10 @@
       <c r="N16" s="2"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
+      <c r="A17" s="5">
         <v>54</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="5">
         <v>14</v>
       </c>
       <c r="C17" s="2">
@@ -6621,11 +6727,14 @@
         <v>1</v>
       </c>
       <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
+      <c r="H17" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I17" s="2">
         <v>2</v>
       </c>
-      <c r="J17" s="8">
+      <c r="J17" s="5">
         <v>2.4</v>
       </c>
       <c r="K17" s="2" t="s">
@@ -6638,10 +6747,10 @@
       <c r="N17" s="2"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
+      <c r="A18" s="5">
         <v>54</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="5">
         <v>14</v>
       </c>
       <c r="C18" s="2">
@@ -6658,11 +6767,14 @@
         <v>1</v>
       </c>
       <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
+      <c r="H18" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I18" s="2">
         <v>4</v>
       </c>
-      <c r="J18" s="8">
+      <c r="J18" s="5">
         <v>2.4</v>
       </c>
       <c r="K18" s="2" t="s">
@@ -6675,10 +6787,10 @@
       <c r="N18" s="2"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
+      <c r="A19" s="5">
         <v>54</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="5">
         <v>14</v>
       </c>
       <c r="C19" s="2">
@@ -6695,11 +6807,14 @@
         <v>1</v>
       </c>
       <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
+      <c r="H19" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I19" s="2">
         <v>6</v>
       </c>
-      <c r="J19" s="8">
+      <c r="J19" s="5">
         <v>2.4</v>
       </c>
       <c r="K19" s="2" t="s">
@@ -6712,10 +6827,10 @@
       <c r="N19" s="2"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
+      <c r="A20" s="5">
         <v>54</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="5">
         <v>14</v>
       </c>
       <c r="C20" s="2">
@@ -6732,11 +6847,14 @@
         <v>1</v>
       </c>
       <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
+      <c r="H20" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I20" s="2">
         <v>2</v>
       </c>
-      <c r="J20" s="8">
+      <c r="J20" s="5">
         <v>2.4</v>
       </c>
       <c r="K20" s="2" t="s">
@@ -6749,10 +6867,10 @@
       <c r="N20" s="2"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
+      <c r="A21" s="5">
         <v>54</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="5">
         <v>14</v>
       </c>
       <c r="C21" s="2">
@@ -6769,11 +6887,14 @@
         <v>1</v>
       </c>
       <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
+      <c r="H21" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I21" s="2">
         <v>4</v>
       </c>
-      <c r="J21" s="8">
+      <c r="J21" s="5">
         <v>2.4</v>
       </c>
       <c r="K21" s="2" t="s">
@@ -6786,10 +6907,10 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
+      <c r="A22" s="5">
         <v>54</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="5">
         <v>14</v>
       </c>
       <c r="C22" s="2">
@@ -6806,11 +6927,14 @@
         <v>1</v>
       </c>
       <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
+      <c r="H22" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I22" s="2">
         <v>6</v>
       </c>
-      <c r="J22" s="8">
+      <c r="J22" s="5">
         <v>2.4</v>
       </c>
       <c r="K22" s="2" t="s">
@@ -6838,10 +6962,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B90F1FC4-6CED-43A6-9F75-8078CCE7F8EB}">
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6850,16 +6974,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5" t="s">
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -6888,7 +7012,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="7">
         <v>10</v>
       </c>
       <c r="B3">
@@ -6918,7 +7042,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
+      <c r="A4" s="7"/>
       <c r="B4">
         <v>75</v>
       </c>
@@ -6946,7 +7070,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
+      <c r="A5" s="7"/>
       <c r="B5">
         <v>100</v>
       </c>
@@ -7004,7 +7128,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="7">
         <v>20</v>
       </c>
       <c r="B7">
@@ -7034,7 +7158,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
+      <c r="A8" s="7"/>
       <c r="B8">
         <v>75</v>
       </c>
@@ -7062,7 +7186,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
+      <c r="A9" s="7"/>
       <c r="B9">
         <v>100</v>
       </c>
@@ -7120,7 +7244,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="A11" s="7">
         <v>50</v>
       </c>
       <c r="B11">
@@ -7150,7 +7274,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
+      <c r="A12" s="7"/>
       <c r="B12">
         <v>75</v>
       </c>
@@ -7178,7 +7302,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
+      <c r="A13" s="7"/>
       <c r="B13">
         <v>100</v>
       </c>
@@ -7236,7 +7360,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+      <c r="A15" s="7">
         <v>100</v>
       </c>
       <c r="B15">
@@ -7266,7 +7390,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
+      <c r="A16" s="7"/>
       <c r="B16">
         <v>75</v>
       </c>
@@ -7294,7 +7418,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
+      <c r="A17" s="7"/>
       <c r="B17">
         <v>100</v>
       </c>
@@ -7402,6 +7526,153 @@
       </c>
       <c r="M23" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27">
+        <v>2.4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27">
+        <f>B31*((B27*B28*B29^3)/(12*B30))</f>
+        <v>1.7534246575342465</v>
+      </c>
+      <c r="F27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30">
+        <v>73</v>
+      </c>
+      <c r="C30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33">
+        <v>19</v>
+      </c>
+      <c r="C33" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" t="s">
+        <v>45</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33" t="s">
+        <v>47</v>
+      </c>
+      <c r="G33" t="s">
+        <v>48</v>
+      </c>
+      <c r="H33">
+        <f>($B$33/2)*((E33*SQRT(1+E33^2))+LN(ABS(E33+SQRT(1+E33^2))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="9">
+        <f>B33/(2*PI())</f>
+        <v>3.0239439187460113</v>
+      </c>
+      <c r="C34" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" t="s">
+        <v>46</v>
+      </c>
+      <c r="E34">
+        <f>(B36-B35)/B33</f>
+        <v>1.5789473684210527</v>
+      </c>
+      <c r="F34" t="s">
+        <v>47</v>
+      </c>
+      <c r="G34" t="s">
+        <v>49</v>
+      </c>
+      <c r="H34">
+        <f>($B$33/2)*(E34*SQRT(1+E34^2)+LN(ABS(E34+SQRT(1+E34^2))))</f>
+        <v>39.793491854802916</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35">
+        <v>14</v>
+      </c>
+      <c r="C35" t="s">
+        <v>37</v>
+      </c>
+      <c r="G35" t="s">
+        <v>50</v>
+      </c>
+      <c r="H35">
+        <f>H34-H33</f>
+        <v>39.793491854802916</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36">
+        <v>44</v>
+      </c>
+      <c r="C36" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -7432,16 +7703,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5" t="s">
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -7470,7 +7741,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="7">
         <v>50</v>
       </c>
       <c r="B3">
@@ -7500,7 +7771,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
+      <c r="A4" s="7"/>
       <c r="B4">
         <v>75</v>
       </c>
@@ -7528,7 +7799,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
+      <c r="A5" s="7"/>
       <c r="B5">
         <v>100</v>
       </c>
@@ -7586,7 +7857,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="7">
         <v>100</v>
       </c>
       <c r="B7">
@@ -7616,7 +7887,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
+      <c r="A8" s="7"/>
       <c r="B8">
         <v>75</v>
       </c>
@@ -7644,7 +7915,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
+      <c r="A9" s="7"/>
       <c r="B9">
         <v>100</v>
       </c>
@@ -7702,7 +7973,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="A11" s="7">
         <v>200</v>
       </c>
       <c r="B11">
@@ -7732,7 +8003,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
+      <c r="A12" s="7"/>
       <c r="B12">
         <v>75</v>
       </c>
@@ -7760,7 +8031,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
+      <c r="A13" s="7"/>
       <c r="B13">
         <v>100</v>
       </c>
@@ -7842,18 +8113,18 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
       <c r="J20" t="s">
         <v>9</v>
       </c>
@@ -7866,10 +8137,10 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
       <c r="J21" t="s">
         <v>10</v>
       </c>
@@ -7882,16 +8153,16 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
       <c r="J23" t="s">
         <v>12</v>
       </c>
@@ -7904,26 +8175,26 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
       <c r="L25">
         <f>L23*4</f>
         <v>14.438169924830838</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -7953,16 +8224,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5" t="s">
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -7991,7 +8262,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="7">
         <v>50</v>
       </c>
       <c r="B3">
@@ -8021,7 +8292,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
+      <c r="A4" s="7"/>
       <c r="B4">
         <v>75</v>
       </c>
@@ -8049,7 +8320,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
+      <c r="A5" s="7"/>
       <c r="B5">
         <v>100</v>
       </c>
@@ -8107,7 +8378,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="7">
         <v>100</v>
       </c>
       <c r="B7">
@@ -8137,7 +8408,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
+      <c r="A8" s="7"/>
       <c r="B8">
         <v>75</v>
       </c>
@@ -8165,7 +8436,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
+      <c r="A9" s="7"/>
       <c r="B9">
         <v>100</v>
       </c>
@@ -8223,7 +8494,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="A11" s="7">
         <v>200</v>
       </c>
       <c r="B11">
@@ -8253,7 +8524,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
+      <c r="A12" s="7"/>
       <c r="B12">
         <v>75</v>
       </c>
@@ -8281,7 +8552,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
+      <c r="A13" s="7"/>
       <c r="B13">
         <v>100</v>
       </c>
@@ -8363,18 +8634,18 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
       <c r="J20" t="s">
         <v>9</v>
       </c>
@@ -8387,10 +8658,10 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
       <c r="J21" t="s">
         <v>10</v>
       </c>
@@ -8403,16 +8674,16 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
       <c r="J23" t="s">
         <v>12</v>
       </c>
@@ -8425,22 +8696,22 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -8470,16 +8741,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5" t="s">
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -8508,7 +8779,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="7">
         <v>50</v>
       </c>
       <c r="B3">
@@ -8538,7 +8809,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
+      <c r="A4" s="7"/>
       <c r="B4">
         <v>75</v>
       </c>
@@ -8566,7 +8837,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
+      <c r="A5" s="7"/>
       <c r="B5">
         <v>100</v>
       </c>
@@ -8624,7 +8895,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="7">
         <v>100</v>
       </c>
       <c r="B7">
@@ -8654,7 +8925,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
+      <c r="A8" s="7"/>
       <c r="B8">
         <v>75</v>
       </c>
@@ -8682,7 +8953,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
+      <c r="A9" s="7"/>
       <c r="B9">
         <v>100</v>
       </c>
@@ -8740,7 +9011,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="A11" s="7">
         <v>200</v>
       </c>
       <c r="B11">
@@ -8770,7 +9041,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
+      <c r="A12" s="7"/>
       <c r="B12">
         <v>75</v>
       </c>
@@ -8798,7 +9069,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
+      <c r="A13" s="7"/>
       <c r="B13">
         <v>100</v>
       </c>
@@ -8856,7 +9127,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+      <c r="A15" s="7">
         <v>500</v>
       </c>
       <c r="B15">
@@ -8886,7 +9157,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
+      <c r="A16" s="7"/>
       <c r="B16">
         <v>75</v>
       </c>
@@ -8914,7 +9185,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
+      <c r="A17" s="7"/>
       <c r="B17">
         <v>100</v>
       </c>
@@ -9018,12 +9289,12 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
       <c r="J23" t="s">
         <v>12</v>
       </c>
@@ -9036,50 +9307,50 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
       <c r="L25">
         <f>L23*4</f>
         <v>5.6974317845977467</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/CAD_Mechanical/AARL_QR-Quadruped/AARL_QR_FR-Frame/InProgress/Haonan/AARL_QR_FR_LE_BI_BL-Back_Left_new/Adjustable Spiral Torsion Spring/3D Printed Torsion Spring Calculations.xlsx
+++ b/CAD_Mechanical/AARL_QR-Quadruped/AARL_QR_FR-Frame/InProgress/Haonan/AARL_QR_FR_LE_BI_BL-Back_Left_new/Adjustable Spiral Torsion Spring/3D Printed Torsion Spring Calculations.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Quadruped_Robot\CAD_Mechanical\AARL_QR-Quadruped\AARL_QR_FR-Frame\InProgress\Haonan\AARL_QR_FR_LE_BI_BL-Back_Left_new\Adjustable Spiral Torsion Spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40547FC-6416-4F0D-BD77-B82291B6BE39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7806DD8-FC38-44E9-9D2C-BB2D34DA01E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hip Spring Table" sheetId="7" r:id="rId1"/>
-    <sheet name="Test Spring 3" sheetId="2" r:id="rId2"/>
-    <sheet name="Test Spring 3 FG" sheetId="3" r:id="rId3"/>
-    <sheet name="Test Spring 3 FG Set 2" sheetId="4" r:id="rId4"/>
-    <sheet name="Test Spring 3 Kevlar" sheetId="6" r:id="rId5"/>
+    <sheet name="2L4LT4ST" sheetId="8" r:id="rId2"/>
+    <sheet name="4L3LT6ST" sheetId="9" r:id="rId3"/>
+    <sheet name="Test Spring 3" sheetId="2" r:id="rId4"/>
+    <sheet name="Test Spring 3 FG" sheetId="3" r:id="rId5"/>
+    <sheet name="Test Spring 3 FG Set 2" sheetId="4" r:id="rId6"/>
+    <sheet name="Test Spring 3 Kevlar" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="62">
   <si>
     <t>unloaded</t>
   </si>
@@ -206,15 +208,48 @@
   <si>
     <t>L</t>
   </si>
+  <si>
+    <t>2 Leg - 4mm Leg Thickness - 4mm Spring Thickness</t>
+  </si>
+  <si>
+    <t>Mass (g)</t>
+  </si>
+  <si>
+    <t>Arm (mm)</t>
+  </si>
+  <si>
+    <t>Deflection (°)</t>
+  </si>
+  <si>
+    <t>Deflection (rad)</t>
+  </si>
+  <si>
+    <t>Torque (N-m)</t>
+  </si>
+  <si>
+    <t>Clockwise Spring Rate:</t>
+  </si>
+  <si>
+    <t>Counter-Clockwise Spring Rate:</t>
+  </si>
+  <si>
+    <t>Average Spring Rate:</t>
+  </si>
+  <si>
+    <t>(N-m)/rad</t>
+  </si>
+  <si>
+    <t>4 Legs - 3mm Leg Thickness - 6mm Spring Thickness</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,8 +265,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -240,13 +283,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="-0.249977111117893"/>
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
+        <fgColor theme="8" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -263,7 +312,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -271,14 +320,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -289,7 +368,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -308,6 +386,1446 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>2L4LT4ST</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2L4LT4ST'!$C$2:$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Clockwise Torque</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.18687554680664917"/>
+                  <c:y val="0.11237897346165063"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('2L4LT4ST'!$E$4:$E$6,'2L4LT4ST'!$E$8:$E$10,'2L4LT4ST'!$E$12:$E$14,'2L4LT4ST'!$E$16:$E$18)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2.4478731813167329E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6433940601870246E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.830779049081451E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.8248810216524878E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.1760811231413812E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.4069935899568899E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.4770604819796309E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.13748650388249045</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.17558612174631733</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.22580395916107299</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.31605560558627294</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.39012785871956218</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('2L4LT4ST'!$D$4:$D$6,'2L4LT4ST'!$D$8:$D$10,'2L4LT4ST'!$D$12:$D$14,'2L4LT4ST'!$D$16:$D$18)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>6.1435589670200401E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1387536755335492</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1741838593490341</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.18099064343181195</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.22252947962927702</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.28763026072866554</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.26127578902355114</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.36442474781641598</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.46251225177849731</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.40090212918309748</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.53721234376385463</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.65118234391908436</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B0D9-4C16-93F3-01929BB02B17}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2L4LT4ST'!$F$2:$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Counter-Clockwise Torque</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.20049650043744532"/>
+                  <c:y val="-5.3285578885972587E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('2L4LT4ST'!$H$4:$H$6,'2L4LT4ST'!$H$8:$H$10,'2L4LT4ST'!$H$12:$H$14,'2L4LT4ST'!$H$16:$H$18)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2.4518491777246961E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6739080044916821E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.887869035435715E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.8941024317508623E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.2972089150952948E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.63719909355958E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.6642167138899948E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14145673546477402</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.17512533758030702</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.22826326061013963</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.31739464422754232</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.38285463499208666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('2L4LT4ST'!$G$4:$G$6,'2L4LT4ST'!$G$8:$G$10,'2L4LT4ST'!$G$12:$G$14,'2L4LT4ST'!$G$16:$G$18)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2.3038346126325149E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.1312680008633288E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.3601271170528388E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.667157742618339E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.12810716709638378</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.18797196043978928</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.17261306302223919</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.27907814739389331</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.4677482395344803</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.37437312455278365</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.53005649383067788</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.67526788759660605</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B0D9-4C16-93F3-01929BB02B17}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="369439439"/>
+        <c:axId val="285172559"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="369439439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Deflection</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (rad)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="285172559"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="285172559"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Torque</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (N-m)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="369439439"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>2L4LT4ST</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'4L3LT6ST'!$C$2:$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Clockwise Torque</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.18687554680664917"/>
+                  <c:y val="0.11237897346165063"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('4L3LT6ST'!$E$4:$E$6,'4L3LT6ST'!$E$8:$E$10,'4L3LT6ST'!$E$12:$E$14,'4L3LT6ST'!$E$16:$E$18)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2.4517679036883518E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.675708575744803E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8971111440837961E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.8930516665244374E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.3162497904713381E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.7166623582192094E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.7381243732693801E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14447576357230818</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.18956772019747242</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.23748102019998255</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.34218315266747384</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.43606290789875374</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('4L3LT6ST'!$D$4:$D$6,'4L3LT6ST'!$D$8:$D$10,'4L3LT6ST'!$D$12:$D$14,'4L3LT6ST'!$D$16:$D$18)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2.4434609527920613E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0666171571467881E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.6723200689815713E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.9813170079773182E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1059414855960558</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.13805554383275148</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.12112585008840648</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.19093902016817965</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.26075219024795282</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.25237460983838006</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.37594392087957856</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.4756022211684548</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A3BB-490C-A967-38F2C098B259}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'4L3LT6ST'!$F$2:$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Counter-Clockwise Torque</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.20049650043744532"/>
+                  <c:y val="-5.3285578885972587E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('4L3LT6ST'!$H$4:$H$6,'4L3LT6ST'!$H$8:$H$10,'4L3LT6ST'!$H$12:$H$14,'4L3LT6ST'!$H$16:$H$18)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2.4524969743500227E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6781322802909036E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9022174863480636E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9034293602782872E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.34470140020268E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.753541808130764E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.7604694765865543E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14478785869422364</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.18843825608030276</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.23752371585186985</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.34147126371540037</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.41377547368569079</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('4L3LT6ST'!$G$4:$G$6,'4L3LT6ST'!$G$8:$G$10,'4L3LT6ST'!$G$12:$G$14,'4L3LT6ST'!$G$16:$G$18)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.5707963267948964E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8325957145940461E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.368485456349056E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5307274153917779E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.8992128717408339E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.10733774899765128</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.10053096491487337</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.17941984710501707</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.28221974004748313</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.25167647813758232</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.38117990863556156</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.56688294104775816</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A3BB-490C-A967-38F2C098B259}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="369439439"/>
+        <c:axId val="285172559"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="369439439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Deflection</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (rad)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="285172559"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="285172559"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Torque</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (N-m)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="369439439"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1092,7 +2610,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1829,7 +3347,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2566,7 +4084,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3511,6 +5029,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -5575,7 +7173,1123 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>14286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33FEC5E8-196A-1ABD-4FAC-43E2C9360224}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>14286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB3C8876-37CC-4619-9857-C682186FE44D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5616,7 +8330,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5659,7 +8373,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5702,7 +8416,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5746,9 +8460,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5786,7 +8500,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -5892,7 +8606,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6034,7 +8748,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6044,8 +8758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21CEBFFD-D877-4251-A7C8-DAFF0369D5AB}">
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6057,57 +8771,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+      <c r="A2" s="3">
         <v>54</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="3">
         <v>14</v>
       </c>
       <c r="C2" s="2">
@@ -6131,7 +8845,7 @@
       <c r="I2" s="2">
         <v>2</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="3">
         <v>2.4</v>
       </c>
       <c r="K2" s="2" t="s">
@@ -6147,10 +8861,10 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="A3" s="3">
         <v>54</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="3">
         <v>14</v>
       </c>
       <c r="C3" s="2">
@@ -6174,7 +8888,7 @@
       <c r="I3" s="2">
         <v>4</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="3">
         <v>2.4</v>
       </c>
       <c r="K3" s="2" t="s">
@@ -6187,10 +8901,10 @@
       <c r="N3" s="2"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="3">
         <v>54</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="3">
         <v>14</v>
       </c>
       <c r="C4" s="2">
@@ -6214,7 +8928,7 @@
       <c r="I4" s="2">
         <v>6</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="3">
         <v>2.4</v>
       </c>
       <c r="K4" s="2" t="s">
@@ -6227,10 +8941,10 @@
       <c r="N4" s="2"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="3">
         <v>54</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="3">
         <v>14</v>
       </c>
       <c r="C5" s="2">
@@ -6254,7 +8968,7 @@
       <c r="I5" s="2">
         <v>2</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="3">
         <v>2.4</v>
       </c>
       <c r="K5" s="2" t="s">
@@ -6267,10 +8981,10 @@
       <c r="N5" s="2"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="3">
         <v>54</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="3">
         <v>14</v>
       </c>
       <c r="C6" s="2">
@@ -6294,7 +9008,7 @@
       <c r="I6" s="2">
         <v>4</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="3">
         <v>2.4</v>
       </c>
       <c r="K6" s="2" t="s">
@@ -6307,10 +9021,10 @@
       <c r="N6" s="2"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="A7" s="3">
         <v>54</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="3">
         <v>14</v>
       </c>
       <c r="C7" s="2">
@@ -6334,7 +9048,7 @@
       <c r="I7" s="2">
         <v>6</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="3">
         <v>2.4</v>
       </c>
       <c r="K7" s="2" t="s">
@@ -6347,10 +9061,10 @@
       <c r="N7" s="2"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="3">
         <v>54</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="3">
         <v>14</v>
       </c>
       <c r="C8" s="2">
@@ -6374,7 +9088,7 @@
       <c r="I8" s="2">
         <v>2</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="3">
         <v>2.4</v>
       </c>
       <c r="K8" s="2" t="s">
@@ -6387,10 +9101,10 @@
       <c r="N8" s="2"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="A9" s="3">
         <v>54</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="3">
         <v>14</v>
       </c>
       <c r="C9" s="2">
@@ -6414,7 +9128,7 @@
       <c r="I9" s="2">
         <v>4</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="3">
         <v>2.4</v>
       </c>
       <c r="K9" s="2" t="s">
@@ -6427,10 +9141,10 @@
       <c r="N9" s="2"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="A10" s="3">
         <v>54</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="3">
         <v>14</v>
       </c>
       <c r="C10" s="2">
@@ -6454,7 +9168,7 @@
       <c r="I10" s="2">
         <v>6</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="3">
         <v>2.4</v>
       </c>
       <c r="K10" s="2" t="s">
@@ -6467,10 +9181,10 @@
       <c r="N10" s="2"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="A11" s="3">
         <v>54</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="3">
         <v>14</v>
       </c>
       <c r="C11" s="2">
@@ -6494,7 +9208,7 @@
       <c r="I11" s="2">
         <v>2</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="3">
         <v>2.4</v>
       </c>
       <c r="K11" s="2" t="s">
@@ -6507,10 +9221,10 @@
       <c r="N11" s="2"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="A12" s="3">
         <v>54</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="3">
         <v>14</v>
       </c>
       <c r="C12" s="2">
@@ -6534,7 +9248,7 @@
       <c r="I12" s="2">
         <v>4</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="3">
         <v>2.4</v>
       </c>
       <c r="K12" s="2" t="s">
@@ -6547,10 +9261,10 @@
       <c r="N12" s="2"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+      <c r="A13" s="3">
         <v>54</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="3">
         <v>14</v>
       </c>
       <c r="C13" s="2">
@@ -6574,7 +9288,7 @@
       <c r="I13" s="2">
         <v>6</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="3">
         <v>2.4</v>
       </c>
       <c r="K13" s="2" t="s">
@@ -6587,10 +9301,10 @@
       <c r="N13" s="2"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+      <c r="A14" s="3">
         <v>54</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="3">
         <v>14</v>
       </c>
       <c r="C14" s="2">
@@ -6614,7 +9328,7 @@
       <c r="I14" s="2">
         <v>2</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="3">
         <v>2.4</v>
       </c>
       <c r="K14" s="2" t="s">
@@ -6627,10 +9341,10 @@
       <c r="N14" s="2"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+      <c r="A15" s="3">
         <v>54</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="3">
         <v>14</v>
       </c>
       <c r="C15" s="2">
@@ -6654,7 +9368,7 @@
       <c r="I15" s="2">
         <v>4</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="3">
         <v>2.4</v>
       </c>
       <c r="K15" s="2" t="s">
@@ -6667,10 +9381,10 @@
       <c r="N15" s="2"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+      <c r="A16" s="3">
         <v>54</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="3">
         <v>14</v>
       </c>
       <c r="C16" s="2">
@@ -6694,7 +9408,7 @@
       <c r="I16" s="2">
         <v>6</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16" s="3">
         <v>2.4</v>
       </c>
       <c r="K16" s="2" t="s">
@@ -6707,10 +9421,10 @@
       <c r="N16" s="2"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+      <c r="A17" s="3">
         <v>54</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="3">
         <v>14</v>
       </c>
       <c r="C17" s="2">
@@ -6734,7 +9448,7 @@
       <c r="I17" s="2">
         <v>2</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="3">
         <v>2.4</v>
       </c>
       <c r="K17" s="2" t="s">
@@ -6747,10 +9461,10 @@
       <c r="N17" s="2"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+      <c r="A18" s="3">
         <v>54</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="3">
         <v>14</v>
       </c>
       <c r="C18" s="2">
@@ -6774,7 +9488,7 @@
       <c r="I18" s="2">
         <v>4</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18" s="3">
         <v>2.4</v>
       </c>
       <c r="K18" s="2" t="s">
@@ -6787,10 +9501,10 @@
       <c r="N18" s="2"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
+      <c r="A19" s="3">
         <v>54</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="3">
         <v>14</v>
       </c>
       <c r="C19" s="2">
@@ -6814,7 +9528,7 @@
       <c r="I19" s="2">
         <v>6</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J19" s="3">
         <v>2.4</v>
       </c>
       <c r="K19" s="2" t="s">
@@ -6827,10 +9541,10 @@
       <c r="N19" s="2"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
+      <c r="A20" s="3">
         <v>54</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="3">
         <v>14</v>
       </c>
       <c r="C20" s="2">
@@ -6854,7 +9568,7 @@
       <c r="I20" s="2">
         <v>2</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J20" s="3">
         <v>2.4</v>
       </c>
       <c r="K20" s="2" t="s">
@@ -6867,10 +9581,10 @@
       <c r="N20" s="2"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
+      <c r="A21" s="3">
         <v>54</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="3">
         <v>14</v>
       </c>
       <c r="C21" s="2">
@@ -6894,7 +9608,7 @@
       <c r="I21" s="2">
         <v>4</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J21" s="3">
         <v>2.4</v>
       </c>
       <c r="K21" s="2" t="s">
@@ -6907,10 +9621,10 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
+      <c r="A22" s="3">
         <v>54</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="3">
         <v>14</v>
       </c>
       <c r="C22" s="2">
@@ -6934,7 +9648,7 @@
       <c r="I22" s="2">
         <v>6</v>
       </c>
-      <c r="J22" s="5">
+      <c r="J22" s="3">
         <v>2.4</v>
       </c>
       <c r="K22" s="2" t="s">
@@ -6961,11 +9675,1219 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFA74A3D-8B14-45D1-B319-AB4200826715}">
+  <dimension ref="A1:N30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="8" width="17.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="17">
+        <v>50</v>
+      </c>
+      <c r="B4" s="2">
+        <v>50</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3.52</v>
+      </c>
+      <c r="D4" s="7">
+        <f>RADIANS(C4)</f>
+        <v>6.1435589670200401E-2</v>
+      </c>
+      <c r="E4" s="7">
+        <f>(A$4*9.81*COS(D4)*B4)/(1000*1000)</f>
+        <v>2.4478731813167329E-2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1.32</v>
+      </c>
+      <c r="G4" s="7">
+        <f>RADIANS(F4)</f>
+        <v>2.3038346126325149E-2</v>
+      </c>
+      <c r="H4" s="7">
+        <f>(A$4*9.81*COS(G4)*B4)/(1000*1000)</f>
+        <v>2.4518491777246961E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="17"/>
+      <c r="B5" s="2">
+        <v>75</v>
+      </c>
+      <c r="C5" s="2">
+        <v>7.95</v>
+      </c>
+      <c r="D5" s="7">
+        <f t="shared" ref="D5:D21" si="0">RADIANS(C5)</f>
+        <v>0.1387536755335492</v>
+      </c>
+      <c r="E5" s="7">
+        <f t="shared" ref="E5:E7" si="1">(A$4*9.81*COS(D5)*B5)/(1000*1000)</f>
+        <v>3.6433940601870246E-2</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2.94</v>
+      </c>
+      <c r="G5" s="7">
+        <f t="shared" ref="G5:G21" si="2">RADIANS(F5)</f>
+        <v>5.1312680008633288E-2</v>
+      </c>
+      <c r="H5" s="7">
+        <f>(A$4*9.81*COS(G5)*B5)/(1000*1000)</f>
+        <v>3.6739080044916821E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
+      <c r="B6" s="2">
+        <v>100</v>
+      </c>
+      <c r="C6" s="2">
+        <v>9.98</v>
+      </c>
+      <c r="D6" s="7">
+        <f t="shared" si="0"/>
+        <v>0.1741838593490341</v>
+      </c>
+      <c r="E6" s="7">
+        <f t="shared" si="1"/>
+        <v>4.830779049081451E-2</v>
+      </c>
+      <c r="F6" s="2">
+        <v>4.79</v>
+      </c>
+      <c r="G6" s="7">
+        <f t="shared" si="2"/>
+        <v>8.3601271170528388E-2</v>
+      </c>
+      <c r="H6" s="7">
+        <f>(A$4*9.81*COS(G6)*B6)/(1000*1000)</f>
+        <v>4.887869035435715E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>4.57</v>
+      </c>
+      <c r="D7" s="7">
+        <f t="shared" si="0"/>
+        <v>7.9761546816140866E-2</v>
+      </c>
+      <c r="E7" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1.49</v>
+      </c>
+      <c r="G7" s="7">
+        <f t="shared" si="2"/>
+        <v>2.6005405854715509E-2</v>
+      </c>
+      <c r="H7" s="7">
+        <f>(A$4*9.81*COS(G7)*B7)/(1000*1000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="17">
+        <v>100</v>
+      </c>
+      <c r="B8" s="2">
+        <v>50</v>
+      </c>
+      <c r="C8" s="2">
+        <v>10.37</v>
+      </c>
+      <c r="D8" s="7">
+        <f t="shared" si="0"/>
+        <v>0.18099064343181195</v>
+      </c>
+      <c r="E8" s="7">
+        <f>(A$8*9.81*COS(D8)*B8)/(1000*1000)</f>
+        <v>4.8248810216524878E-2</v>
+      </c>
+      <c r="F8" s="2">
+        <v>3.82</v>
+      </c>
+      <c r="G8" s="7">
+        <f t="shared" si="2"/>
+        <v>6.667157742618339E-2</v>
+      </c>
+      <c r="H8" s="7">
+        <f>(A$8*9.81*COS(G8)*B8)/(1000*1000)</f>
+        <v>4.8941024317508623E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="17"/>
+      <c r="B9" s="2">
+        <v>75</v>
+      </c>
+      <c r="C9" s="2">
+        <v>12.75</v>
+      </c>
+      <c r="D9" s="7">
+        <f t="shared" si="0"/>
+        <v>0.22252947962927702</v>
+      </c>
+      <c r="E9" s="7">
+        <f t="shared" ref="E9:E11" si="3">(A$8*9.81*COS(D9)*B9)/(1000*1000)</f>
+        <v>7.1760811231413812E-2</v>
+      </c>
+      <c r="F9" s="2">
+        <v>7.34</v>
+      </c>
+      <c r="G9" s="7">
+        <f t="shared" si="2"/>
+        <v>0.12810716709638378</v>
+      </c>
+      <c r="H9" s="7">
+        <f t="shared" ref="H9:H11" si="4">(A$8*9.81*COS(G9)*B9)/(1000*1000)</f>
+        <v>7.2972089150952948E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="17"/>
+      <c r="B10" s="2">
+        <v>100</v>
+      </c>
+      <c r="C10" s="2">
+        <v>16.48</v>
+      </c>
+      <c r="D10" s="7">
+        <f t="shared" si="0"/>
+        <v>0.28763026072866554</v>
+      </c>
+      <c r="E10" s="7">
+        <f t="shared" si="3"/>
+        <v>9.4069935899568899E-2</v>
+      </c>
+      <c r="F10" s="2">
+        <v>10.77</v>
+      </c>
+      <c r="G10" s="7">
+        <f t="shared" si="2"/>
+        <v>0.18797196043978928</v>
+      </c>
+      <c r="H10" s="7">
+        <f t="shared" si="4"/>
+        <v>9.63719909355958E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>4.13</v>
+      </c>
+      <c r="D11" s="7">
+        <f t="shared" si="0"/>
+        <v>7.2082098107365808E-2</v>
+      </c>
+      <c r="E11" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.92</v>
+      </c>
+      <c r="G11" s="7">
+        <f t="shared" si="2"/>
+        <v>1.6057029118347832E-2</v>
+      </c>
+      <c r="H11" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="17">
+        <v>200</v>
+      </c>
+      <c r="B12" s="2">
+        <v>50</v>
+      </c>
+      <c r="C12" s="2">
+        <v>14.97</v>
+      </c>
+      <c r="D12" s="7">
+        <f t="shared" si="0"/>
+        <v>0.26127578902355114</v>
+      </c>
+      <c r="E12" s="7">
+        <f>(A$12*9.81*COS(D12)*B12)/(1000*1000)</f>
+        <v>9.4770604819796309E-2</v>
+      </c>
+      <c r="F12" s="2">
+        <v>9.89</v>
+      </c>
+      <c r="G12" s="7">
+        <f t="shared" si="2"/>
+        <v>0.17261306302223919</v>
+      </c>
+      <c r="H12" s="7">
+        <f>(A$12*9.81*COS(G12)*B12)/(1000*1000)</f>
+        <v>9.6642167138899948E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="17"/>
+      <c r="B13" s="2">
+        <v>75</v>
+      </c>
+      <c r="C13" s="2">
+        <v>20.88</v>
+      </c>
+      <c r="D13" s="7">
+        <f t="shared" si="0"/>
+        <v>0.36442474781641598</v>
+      </c>
+      <c r="E13" s="7">
+        <f t="shared" ref="E13:E15" si="5">(A$12*9.81*COS(D13)*B13)/(1000*1000)</f>
+        <v>0.13748650388249045</v>
+      </c>
+      <c r="F13" s="2">
+        <v>15.99</v>
+      </c>
+      <c r="G13" s="7">
+        <f t="shared" si="2"/>
+        <v>0.27907814739389331</v>
+      </c>
+      <c r="H13" s="7">
+        <f t="shared" ref="H13:H14" si="6">(A$12*9.81*COS(G13)*B13)/(1000*1000)</f>
+        <v>0.14145673546477402</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="17"/>
+      <c r="B14" s="2">
+        <v>100</v>
+      </c>
+      <c r="C14" s="2">
+        <v>26.5</v>
+      </c>
+      <c r="D14" s="7">
+        <f t="shared" si="0"/>
+        <v>0.46251225177849731</v>
+      </c>
+      <c r="E14" s="7">
+        <f t="shared" si="5"/>
+        <v>0.17558612174631733</v>
+      </c>
+      <c r="F14" s="2">
+        <v>26.8</v>
+      </c>
+      <c r="G14" s="7">
+        <f t="shared" si="2"/>
+        <v>0.4677482395344803</v>
+      </c>
+      <c r="H14" s="7">
+        <f t="shared" si="6"/>
+        <v>0.17512533758030702</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2">
+        <v>5.8</v>
+      </c>
+      <c r="D15" s="7">
+        <f t="shared" si="0"/>
+        <v>0.10122909661567112</v>
+      </c>
+      <c r="E15" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>-0.66</v>
+      </c>
+      <c r="G15" s="7">
+        <f t="shared" si="2"/>
+        <v>-1.1519173063162575E-2</v>
+      </c>
+      <c r="H15" s="7">
+        <f>(A$12*9.81*COS(G15)*B15)/(1000*1000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="17">
+        <v>500</v>
+      </c>
+      <c r="B16" s="2">
+        <v>50</v>
+      </c>
+      <c r="C16" s="2">
+        <v>22.97</v>
+      </c>
+      <c r="D16" s="7">
+        <f t="shared" si="0"/>
+        <v>0.40090212918309748</v>
+      </c>
+      <c r="E16" s="7">
+        <f>(A$16*9.81*COS(D16)*B16)/(1000*1000)</f>
+        <v>0.22580395916107299</v>
+      </c>
+      <c r="F16" s="2">
+        <v>21.45</v>
+      </c>
+      <c r="G16" s="7">
+        <f t="shared" si="2"/>
+        <v>0.37437312455278365</v>
+      </c>
+      <c r="H16" s="7">
+        <f>(A$16*9.81*COS(G16)*B16)/(1000*1000)</f>
+        <v>0.22826326061013963</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="17"/>
+      <c r="B17" s="2">
+        <v>75</v>
+      </c>
+      <c r="C17" s="2">
+        <v>30.78</v>
+      </c>
+      <c r="D17" s="7">
+        <f t="shared" si="0"/>
+        <v>0.53721234376385463</v>
+      </c>
+      <c r="E17" s="7">
+        <f t="shared" ref="E17:E19" si="7">(A$16*9.81*COS(D17)*B17)/(1000*1000)</f>
+        <v>0.31605560558627294</v>
+      </c>
+      <c r="F17" s="2">
+        <v>30.37</v>
+      </c>
+      <c r="G17" s="7">
+        <f t="shared" si="2"/>
+        <v>0.53005649383067788</v>
+      </c>
+      <c r="H17" s="7">
+        <f t="shared" ref="H17:H19" si="8">(A$16*9.81*COS(G17)*B17)/(1000*1000)</f>
+        <v>0.31739464422754232</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="17"/>
+      <c r="B18" s="2">
+        <v>100</v>
+      </c>
+      <c r="C18" s="2">
+        <v>37.31</v>
+      </c>
+      <c r="D18" s="7">
+        <f t="shared" si="0"/>
+        <v>0.65118234391908436</v>
+      </c>
+      <c r="E18" s="7">
+        <f t="shared" si="7"/>
+        <v>0.39012785871956218</v>
+      </c>
+      <c r="F18" s="2">
+        <v>38.69</v>
+      </c>
+      <c r="G18" s="7">
+        <f t="shared" si="2"/>
+        <v>0.67526788759660605</v>
+      </c>
+      <c r="H18" s="7">
+        <f t="shared" si="8"/>
+        <v>0.38285463499208666</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2">
+        <v>7.34</v>
+      </c>
+      <c r="D19" s="7">
+        <f t="shared" si="0"/>
+        <v>0.12810716709638378</v>
+      </c>
+      <c r="E19" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="G19" s="7">
+        <f t="shared" si="2"/>
+        <v>-3.8397243543875255E-2</v>
+      </c>
+      <c r="H19" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2">
+        <v>43</v>
+      </c>
+      <c r="D21" s="8">
+        <f t="shared" si="0"/>
+        <v>0.75049157835756175</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2">
+        <v>43</v>
+      </c>
+      <c r="G21" s="8">
+        <f t="shared" si="2"/>
+        <v>0.75049157835756175</v>
+      </c>
+      <c r="L21" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="M21">
+        <v>1.7829999999999999</v>
+      </c>
+      <c r="N21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L22" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="M22">
+        <v>1.4379999999999999</v>
+      </c>
+      <c r="N22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L23" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="M23" s="13">
+        <f>AVERAGE(M21:M22)</f>
+        <v>1.6105</v>
+      </c>
+      <c r="N23" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G29">
+        <f>2*5*(4^3)</f>
+        <v>640</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G30">
+        <f>4*6*(3^3)</f>
+        <v>648</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A8:A10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76B2740F-38F5-465B-9AB1-2A355D2F4BF6}">
+  <dimension ref="A1:N23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="8" width="17.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="17">
+        <v>50</v>
+      </c>
+      <c r="B4" s="2">
+        <v>50</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="D4" s="7">
+        <f>RADIANS(C4)</f>
+        <v>2.4434609527920613E-2</v>
+      </c>
+      <c r="E4" s="7">
+        <f>(A$4*9.81*COS(D4)*B4)/(1000*1000)</f>
+        <v>2.4517679036883518E-2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="G4" s="7">
+        <f>RADIANS(F4)</f>
+        <v>1.5707963267948964E-3</v>
+      </c>
+      <c r="H4" s="7">
+        <f>(A$4*9.81*COS(G4)*B4)/(1000*1000)</f>
+        <v>2.4524969743500227E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="17"/>
+      <c r="B5" s="2">
+        <v>75</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2.33</v>
+      </c>
+      <c r="D5" s="7">
+        <f t="shared" ref="D5:D21" si="0">RADIANS(C5)</f>
+        <v>4.0666171571467881E-2</v>
+      </c>
+      <c r="E5" s="7">
+        <f t="shared" ref="E5:E7" si="1">(A$4*9.81*COS(D5)*B5)/(1000*1000)</f>
+        <v>3.675708575744803E-2</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1.05</v>
+      </c>
+      <c r="G5" s="7">
+        <f t="shared" ref="G5:G21" si="2">RADIANS(F5)</f>
+        <v>1.8325957145940461E-2</v>
+      </c>
+      <c r="H5" s="7">
+        <f>(A$4*9.81*COS(G5)*B5)/(1000*1000)</f>
+        <v>3.6781322802909036E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
+      <c r="B6" s="2">
+        <v>100</v>
+      </c>
+      <c r="C6" s="2">
+        <v>3.25</v>
+      </c>
+      <c r="D6" s="7">
+        <f t="shared" si="0"/>
+        <v>5.6723200689815713E-2</v>
+      </c>
+      <c r="E6" s="7">
+        <f t="shared" si="1"/>
+        <v>4.8971111440837961E-2</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1.93</v>
+      </c>
+      <c r="G6" s="7">
+        <f t="shared" si="2"/>
+        <v>3.368485456349056E-2</v>
+      </c>
+      <c r="H6" s="7">
+        <f>(A$4*9.81*COS(G6)*B6)/(1000*1000)</f>
+        <v>4.9022174863480636E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1.41</v>
+      </c>
+      <c r="D7" s="7">
+        <f t="shared" si="0"/>
+        <v>2.4609142453120045E-2</v>
+      </c>
+      <c r="E7" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G7" s="7">
+        <f t="shared" si="2"/>
+        <v>9.948376736367677E-3</v>
+      </c>
+      <c r="H7" s="7">
+        <f>(A$4*9.81*COS(G7)*B7)/(1000*1000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="17">
+        <v>100</v>
+      </c>
+      <c r="B8" s="2">
+        <v>50</v>
+      </c>
+      <c r="C8" s="2">
+        <v>4</v>
+      </c>
+      <c r="D8" s="7">
+        <f t="shared" si="0"/>
+        <v>6.9813170079773182E-2</v>
+      </c>
+      <c r="E8" s="7">
+        <f>(A$8*9.81*COS(D8)*B8)/(1000*1000)</f>
+        <v>4.8930516665244374E-2</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1.45</v>
+      </c>
+      <c r="G8" s="7">
+        <f t="shared" si="2"/>
+        <v>2.5307274153917779E-2</v>
+      </c>
+      <c r="H8" s="7">
+        <f>(A$8*9.81*COS(G8)*B8)/(1000*1000)</f>
+        <v>4.9034293602782872E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="17"/>
+      <c r="B9" s="2">
+        <v>75</v>
+      </c>
+      <c r="C9" s="2">
+        <v>6.07</v>
+      </c>
+      <c r="D9" s="7">
+        <f t="shared" si="0"/>
+        <v>0.1059414855960558</v>
+      </c>
+      <c r="E9" s="7">
+        <f t="shared" ref="E9:E11" si="3">(A$8*9.81*COS(D9)*B9)/(1000*1000)</f>
+        <v>7.3162497904713381E-2</v>
+      </c>
+      <c r="F9" s="2">
+        <v>3.38</v>
+      </c>
+      <c r="G9" s="7">
+        <f t="shared" si="2"/>
+        <v>5.8992128717408339E-2</v>
+      </c>
+      <c r="H9" s="7">
+        <f t="shared" ref="H9:H11" si="4">(A$8*9.81*COS(G9)*B9)/(1000*1000)</f>
+        <v>7.34470140020268E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="17"/>
+      <c r="B10" s="2">
+        <v>100</v>
+      </c>
+      <c r="C10" s="2">
+        <v>7.91</v>
+      </c>
+      <c r="D10" s="7">
+        <f t="shared" si="0"/>
+        <v>0.13805554383275148</v>
+      </c>
+      <c r="E10" s="7">
+        <f t="shared" si="3"/>
+        <v>9.7166623582192094E-2</v>
+      </c>
+      <c r="F10" s="2">
+        <v>6.15</v>
+      </c>
+      <c r="G10" s="7">
+        <f t="shared" si="2"/>
+        <v>0.10733774899765128</v>
+      </c>
+      <c r="H10" s="7">
+        <f t="shared" si="4"/>
+        <v>9.753541808130764E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>2.33</v>
+      </c>
+      <c r="D11" s="7">
+        <f t="shared" si="0"/>
+        <v>4.0666171571467881E-2</v>
+      </c>
+      <c r="E11" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="17">
+        <v>200</v>
+      </c>
+      <c r="B12" s="2">
+        <v>50</v>
+      </c>
+      <c r="C12" s="2">
+        <v>6.94</v>
+      </c>
+      <c r="D12" s="7">
+        <f t="shared" si="0"/>
+        <v>0.12112585008840648</v>
+      </c>
+      <c r="E12" s="7">
+        <f>(A$12*9.81*COS(D12)*B12)/(1000*1000)</f>
+        <v>9.7381243732693801E-2</v>
+      </c>
+      <c r="F12" s="2">
+        <v>5.76</v>
+      </c>
+      <c r="G12" s="7">
+        <f t="shared" si="2"/>
+        <v>0.10053096491487337</v>
+      </c>
+      <c r="H12" s="7">
+        <f>(A$12*9.81*COS(G12)*B12)/(1000*1000)</f>
+        <v>9.7604694765865543E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="17"/>
+      <c r="B13" s="2">
+        <v>75</v>
+      </c>
+      <c r="C13" s="2">
+        <v>10.94</v>
+      </c>
+      <c r="D13" s="7">
+        <f t="shared" si="0"/>
+        <v>0.19093902016817965</v>
+      </c>
+      <c r="E13" s="7">
+        <f t="shared" ref="E13:E15" si="5">(A$12*9.81*COS(D13)*B13)/(1000*1000)</f>
+        <v>0.14447576357230818</v>
+      </c>
+      <c r="F13" s="2">
+        <v>10.28</v>
+      </c>
+      <c r="G13" s="7">
+        <f t="shared" si="2"/>
+        <v>0.17941984710501707</v>
+      </c>
+      <c r="H13" s="7">
+        <f t="shared" ref="H13:H14" si="6">(A$12*9.81*COS(G13)*B13)/(1000*1000)</f>
+        <v>0.14478785869422364</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="17"/>
+      <c r="B14" s="2">
+        <v>100</v>
+      </c>
+      <c r="C14" s="2">
+        <v>14.94</v>
+      </c>
+      <c r="D14" s="7">
+        <f t="shared" si="0"/>
+        <v>0.26075219024795282</v>
+      </c>
+      <c r="E14" s="7">
+        <f t="shared" si="5"/>
+        <v>0.18956772019747242</v>
+      </c>
+      <c r="F14" s="2">
+        <v>16.170000000000002</v>
+      </c>
+      <c r="G14" s="7">
+        <f t="shared" si="2"/>
+        <v>0.28221974004748313</v>
+      </c>
+      <c r="H14" s="7">
+        <f t="shared" si="6"/>
+        <v>0.18843825608030276</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2">
+        <v>3.56</v>
+      </c>
+      <c r="D15" s="7">
+        <f t="shared" si="0"/>
+        <v>6.2133721370998131E-2</v>
+      </c>
+      <c r="E15" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1.93</v>
+      </c>
+      <c r="G15" s="7">
+        <f t="shared" si="2"/>
+        <v>3.368485456349056E-2</v>
+      </c>
+      <c r="H15" s="7">
+        <f>(A$12*9.81*COS(G15)*B15)/(1000*1000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="17">
+        <v>500</v>
+      </c>
+      <c r="B16" s="2">
+        <v>50</v>
+      </c>
+      <c r="C16" s="2">
+        <v>14.46</v>
+      </c>
+      <c r="D16" s="7">
+        <f t="shared" si="0"/>
+        <v>0.25237460983838006</v>
+      </c>
+      <c r="E16" s="7">
+        <f>(A$16*9.81*COS(D16)*B16)/(1000*1000)</f>
+        <v>0.23748102019998255</v>
+      </c>
+      <c r="F16" s="2">
+        <v>14.42</v>
+      </c>
+      <c r="G16" s="7">
+        <f t="shared" si="2"/>
+        <v>0.25167647813758232</v>
+      </c>
+      <c r="H16" s="7">
+        <f>(A$16*9.81*COS(G16)*B16)/(1000*1000)</f>
+        <v>0.23752371585186985</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="17"/>
+      <c r="B17" s="2">
+        <v>75</v>
+      </c>
+      <c r="C17" s="2">
+        <v>21.54</v>
+      </c>
+      <c r="D17" s="7">
+        <f t="shared" si="0"/>
+        <v>0.37594392087957856</v>
+      </c>
+      <c r="E17" s="7">
+        <f t="shared" ref="E17:E19" si="7">(A$16*9.81*COS(D17)*B17)/(1000*1000)</f>
+        <v>0.34218315266747384</v>
+      </c>
+      <c r="F17" s="2">
+        <v>21.84</v>
+      </c>
+      <c r="G17" s="7">
+        <f t="shared" si="2"/>
+        <v>0.38117990863556156</v>
+      </c>
+      <c r="H17" s="7">
+        <f t="shared" ref="H17:H19" si="8">(A$16*9.81*COS(G17)*B17)/(1000*1000)</f>
+        <v>0.34147126371540037</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="17"/>
+      <c r="B18" s="2">
+        <v>100</v>
+      </c>
+      <c r="C18" s="2">
+        <v>27.25</v>
+      </c>
+      <c r="D18" s="7">
+        <f t="shared" si="0"/>
+        <v>0.4756022211684548</v>
+      </c>
+      <c r="E18" s="7">
+        <f t="shared" si="7"/>
+        <v>0.43606290789875374</v>
+      </c>
+      <c r="F18" s="2">
+        <v>32.479999999999997</v>
+      </c>
+      <c r="G18" s="7">
+        <f t="shared" si="2"/>
+        <v>0.56688294104775816</v>
+      </c>
+      <c r="H18" s="7">
+        <f t="shared" si="8"/>
+        <v>0.41377547368569079</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2">
+        <v>4.66</v>
+      </c>
+      <c r="D19" s="7">
+        <f t="shared" si="0"/>
+        <v>8.1332343142935762E-2</v>
+      </c>
+      <c r="E19" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="G19" s="7">
+        <f t="shared" si="2"/>
+        <v>7.52236907609556E-2</v>
+      </c>
+      <c r="H19" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2">
+        <v>33</v>
+      </c>
+      <c r="D21" s="8">
+        <f t="shared" si="0"/>
+        <v>0.57595865315812877</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2">
+        <v>35</v>
+      </c>
+      <c r="G21" s="8">
+        <f t="shared" si="2"/>
+        <v>0.6108652381980153</v>
+      </c>
+      <c r="L21" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="M21">
+        <v>1.3588</v>
+      </c>
+      <c r="N21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L22" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="M22">
+        <v>1.0692999999999999</v>
+      </c>
+      <c r="N22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L23" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="M23" s="13">
+        <f>AVERAGE(M21:M22)</f>
+        <v>1.2140499999999999</v>
+      </c>
+      <c r="N23" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A12:A14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B90F1FC4-6CED-43A6-9F75-8078CCE7F8EB}">
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6974,16 +10896,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6" t="s">
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -7012,7 +10934,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="19">
         <v>10</v>
       </c>
       <c r="B3">
@@ -7042,7 +10964,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
+      <c r="A4" s="19"/>
       <c r="B4">
         <v>75</v>
       </c>
@@ -7070,7 +10992,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
+      <c r="A5" s="19"/>
       <c r="B5">
         <v>100</v>
       </c>
@@ -7128,7 +11050,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="A7" s="19">
         <v>20</v>
       </c>
       <c r="B7">
@@ -7158,7 +11080,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
+      <c r="A8" s="19"/>
       <c r="B8">
         <v>75</v>
       </c>
@@ -7186,7 +11108,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
+      <c r="A9" s="19"/>
       <c r="B9">
         <v>100</v>
       </c>
@@ -7244,7 +11166,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+      <c r="A11" s="19">
         <v>50</v>
       </c>
       <c r="B11">
@@ -7274,7 +11196,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
+      <c r="A12" s="19"/>
       <c r="B12">
         <v>75</v>
       </c>
@@ -7302,7 +11224,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
+      <c r="A13" s="19"/>
       <c r="B13">
         <v>100</v>
       </c>
@@ -7360,7 +11282,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
+      <c r="A15" s="19">
         <v>100</v>
       </c>
       <c r="B15">
@@ -7390,7 +11312,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
+      <c r="A16" s="19"/>
       <c r="B16">
         <v>75</v>
       </c>
@@ -7418,7 +11340,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
+      <c r="A17" s="19"/>
       <c r="B17">
         <v>100</v>
       </c>
@@ -7621,7 +11543,7 @@
       <c r="A34" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="9">
+      <c r="B34" s="4">
         <f>B33/(2*PI())</f>
         <v>3.0239439187460113</v>
       </c>
@@ -7689,7 +11611,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CDA47AA-D9B0-4A8D-A01C-E20429437D7C}">
   <dimension ref="A1:M26"/>
   <sheetViews>
@@ -7703,16 +11625,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6" t="s">
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -7741,7 +11663,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="19">
         <v>50</v>
       </c>
       <c r="B3">
@@ -7771,7 +11693,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
+      <c r="A4" s="19"/>
       <c r="B4">
         <v>75</v>
       </c>
@@ -7799,7 +11721,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
+      <c r="A5" s="19"/>
       <c r="B5">
         <v>100</v>
       </c>
@@ -7857,7 +11779,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="A7" s="19">
         <v>100</v>
       </c>
       <c r="B7">
@@ -7887,7 +11809,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
+      <c r="A8" s="19"/>
       <c r="B8">
         <v>75</v>
       </c>
@@ -7915,7 +11837,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
+      <c r="A9" s="19"/>
       <c r="B9">
         <v>100</v>
       </c>
@@ -7973,7 +11895,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+      <c r="A11" s="19">
         <v>200</v>
       </c>
       <c r="B11">
@@ -8003,7 +11925,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
+      <c r="A12" s="19"/>
       <c r="B12">
         <v>75</v>
       </c>
@@ -8031,7 +11953,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
+      <c r="A13" s="19"/>
       <c r="B13">
         <v>100</v>
       </c>
@@ -8113,18 +12035,18 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
       <c r="J20" t="s">
         <v>9</v>
       </c>
@@ -8137,10 +12059,10 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
+      <c r="A21" s="20"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
       <c r="J21" t="s">
         <v>10</v>
       </c>
@@ -8153,16 +12075,16 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
+      <c r="A22" s="20"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
       <c r="J23" t="s">
         <v>12</v>
       </c>
@@ -8175,26 +12097,26 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
       <c r="L25">
         <f>L23*4</f>
         <v>14.438169924830838</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -8210,7 +12132,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B3929C0-B96D-4F9B-8D10-24FEEFAD81E6}">
   <dimension ref="A1:M26"/>
   <sheetViews>
@@ -8224,16 +12146,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6" t="s">
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -8262,7 +12184,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="19">
         <v>50</v>
       </c>
       <c r="B3">
@@ -8292,7 +12214,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
+      <c r="A4" s="19"/>
       <c r="B4">
         <v>75</v>
       </c>
@@ -8320,7 +12242,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
+      <c r="A5" s="19"/>
       <c r="B5">
         <v>100</v>
       </c>
@@ -8378,7 +12300,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="A7" s="19">
         <v>100</v>
       </c>
       <c r="B7">
@@ -8408,7 +12330,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
+      <c r="A8" s="19"/>
       <c r="B8">
         <v>75</v>
       </c>
@@ -8436,7 +12358,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
+      <c r="A9" s="19"/>
       <c r="B9">
         <v>100</v>
       </c>
@@ -8494,7 +12416,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+      <c r="A11" s="19">
         <v>200</v>
       </c>
       <c r="B11">
@@ -8524,7 +12446,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
+      <c r="A12" s="19"/>
       <c r="B12">
         <v>75</v>
       </c>
@@ -8552,7 +12474,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
+      <c r="A13" s="19"/>
       <c r="B13">
         <v>100</v>
       </c>
@@ -8634,18 +12556,18 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
       <c r="J20" t="s">
         <v>9</v>
       </c>
@@ -8658,10 +12580,10 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
+      <c r="A21" s="20"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
       <c r="J21" t="s">
         <v>10</v>
       </c>
@@ -8674,16 +12596,16 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
+      <c r="A22" s="20"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
       <c r="J23" t="s">
         <v>12</v>
       </c>
@@ -8696,22 +12618,22 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -8727,7 +12649,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF22B8A3-95C2-4791-94DF-9E76D33A34B1}">
   <dimension ref="A1:M30"/>
   <sheetViews>
@@ -8741,16 +12663,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6" t="s">
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -8779,7 +12701,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="19">
         <v>50</v>
       </c>
       <c r="B3">
@@ -8809,7 +12731,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
+      <c r="A4" s="19"/>
       <c r="B4">
         <v>75</v>
       </c>
@@ -8837,7 +12759,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
+      <c r="A5" s="19"/>
       <c r="B5">
         <v>100</v>
       </c>
@@ -8895,7 +12817,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="A7" s="19">
         <v>100</v>
       </c>
       <c r="B7">
@@ -8925,7 +12847,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
+      <c r="A8" s="19"/>
       <c r="B8">
         <v>75</v>
       </c>
@@ -8953,7 +12875,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
+      <c r="A9" s="19"/>
       <c r="B9">
         <v>100</v>
       </c>
@@ -9011,7 +12933,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+      <c r="A11" s="19">
         <v>200</v>
       </c>
       <c r="B11">
@@ -9041,7 +12963,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
+      <c r="A12" s="19"/>
       <c r="B12">
         <v>75</v>
       </c>
@@ -9069,7 +12991,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
+      <c r="A13" s="19"/>
       <c r="B13">
         <v>100</v>
       </c>
@@ -9127,7 +13049,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
+      <c r="A15" s="19">
         <v>500</v>
       </c>
       <c r="B15">
@@ -9157,7 +13079,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
+      <c r="A16" s="19"/>
       <c r="B16">
         <v>75</v>
       </c>
@@ -9185,7 +13107,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
+      <c r="A17" s="19"/>
       <c r="B17">
         <v>100</v>
       </c>
@@ -9289,12 +13211,12 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
       <c r="J23" t="s">
         <v>12</v>
       </c>
@@ -9307,50 +13229,50 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
       <c r="L25">
         <f>L23*4</f>
         <v>5.6974317845977467</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
+      <c r="A28" s="20"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
+      <c r="A29" s="20"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
+      <c r="A30" s="20"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/CAD_Mechanical/AARL_QR-Quadruped/AARL_QR_FR-Frame/InProgress/Haonan/AARL_QR_FR_LE_BI_BL-Back_Left_new/Adjustable Spiral Torsion Spring/3D Printed Torsion Spring Calculations.xlsx
+++ b/CAD_Mechanical/AARL_QR-Quadruped/AARL_QR_FR-Frame/InProgress/Haonan/AARL_QR_FR_LE_BI_BL-Back_Left_new/Adjustable Spiral Torsion Spring/3D Printed Torsion Spring Calculations.xlsx
@@ -1,25 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Quadruped_Robot\CAD_Mechanical\AARL_QR-Quadruped\AARL_QR_FR-Frame\InProgress\Haonan\AARL_QR_FR_LE_BI_BL-Back_Left_new\Adjustable Spiral Torsion Spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7806DD8-FC38-44E9-9D2C-BB2D34DA01E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F749005-36CB-43BA-A16A-55B0D1E76F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hip Spring Table" sheetId="7" r:id="rId1"/>
-    <sheet name="2L4LT4ST" sheetId="8" r:id="rId2"/>
-    <sheet name="4L3LT6ST" sheetId="9" r:id="rId3"/>
-    <sheet name="Test Spring 3" sheetId="2" r:id="rId4"/>
-    <sheet name="Test Spring 3 FG" sheetId="3" r:id="rId5"/>
-    <sheet name="Test Spring 3 FG Set 2" sheetId="4" r:id="rId6"/>
-    <sheet name="Test Spring 3 Kevlar" sheetId="6" r:id="rId7"/>
+    <sheet name="2L6LT4ST" sheetId="8" r:id="rId2"/>
+    <sheet name="3L4LT4ST O1" sheetId="12" r:id="rId3"/>
+    <sheet name="3L4LT4ST M2" sheetId="10" r:id="rId4"/>
+    <sheet name="4L3LT6ST" sheetId="9" r:id="rId5"/>
+    <sheet name="4L3LT6ST+3L4LT4ST" sheetId="11" r:id="rId6"/>
+    <sheet name="Test Spring 3" sheetId="2" r:id="rId7"/>
+    <sheet name="Test Spring 3 FG" sheetId="3" r:id="rId8"/>
+    <sheet name="Test Spring 3 FG Set 2" sheetId="4" r:id="rId9"/>
+    <sheet name="Test Spring 3 Kevlar" sheetId="6" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="65">
   <si>
     <t>unloaded</t>
   </si>
@@ -241,6 +244,15 @@
   <si>
     <t>4 Legs - 3mm Leg Thickness - 6mm Spring Thickness</t>
   </si>
+  <si>
+    <t>3 Leg - 4mm Leg Thickness - 4mm Spring Thickness</t>
+  </si>
+  <si>
+    <t>4 Leg - 3mm Leg Thickness - 6mm Spring Thickness</t>
+  </si>
+  <si>
+    <t>2 Leg - 6mm Leg Thickness - 4mm Spring Thickness</t>
+  </si>
 </sst>
 </file>
 
@@ -312,7 +324,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -350,14 +362,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -420,7 +435,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>2L4LT4ST</a:t>
+              <a:t>2L6LT4ST</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -465,7 +480,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2L4LT4ST'!$C$2:$E$2</c:f>
+              <c:f>'2L6LT4ST'!$C$2:$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -512,8 +527,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.18687554680664917"/>
-                  <c:y val="0.11237897346165063"/>
+                  <c:x val="-0.15836224573490815"/>
+                  <c:y val="0.40512224936501673"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -548,7 +563,52 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>('2L4LT4ST'!$E$4:$E$6,'2L4LT4ST'!$E$8:$E$10,'2L4LT4ST'!$E$12:$E$14,'2L4LT4ST'!$E$16:$E$18)</c:f>
+              <c:f>('2L6LT4ST'!$D$4:$D$6,'2L6LT4ST'!$D$8:$D$10,'2L6LT4ST'!$D$12:$D$14,'2L6LT4ST'!$D$16:$D$18)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>6.1435589670200401E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1387536755335492</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1741838593490341</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.18099064343181195</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.22252947962927702</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.28763026072866554</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.26127578902355114</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.36442474781641598</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.46251225177849731</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.40090212918309748</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.53721234376385463</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.65118234391908436</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('2L6LT4ST'!$E$4:$E$6,'2L6LT4ST'!$E$8:$E$10,'2L6LT4ST'!$E$12:$E$14,'2L6LT4ST'!$E$16:$E$18)</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="12"/>
@@ -587,51 +647,6 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.39012785871956218</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>('2L4LT4ST'!$D$4:$D$6,'2L4LT4ST'!$D$8:$D$10,'2L4LT4ST'!$D$12:$D$14,'2L4LT4ST'!$D$16:$D$18)</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>6.1435589670200401E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1387536755335492</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1741838593490341</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.18099064343181195</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.22252947962927702</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.28763026072866554</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.26127578902355114</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.36442474781641598</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.46251225177849731</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.40090212918309748</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.53721234376385463</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.65118234391908436</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -648,7 +663,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2L4LT4ST'!$F$2:$H$2</c:f>
+              <c:f>'2L6LT4ST'!$F$2:$H$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -695,8 +710,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.20049650043744532"/>
-                  <c:y val="-5.3285578885972587E-2"/>
+                  <c:x val="-0.40161827427821523"/>
+                  <c:y val="0.23591199743260663"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -731,7 +746,52 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>('2L4LT4ST'!$H$4:$H$6,'2L4LT4ST'!$H$8:$H$10,'2L4LT4ST'!$H$12:$H$14,'2L4LT4ST'!$H$16:$H$18)</c:f>
+              <c:f>('2L6LT4ST'!$G$4:$G$6,'2L6LT4ST'!$G$8:$G$10,'2L6LT4ST'!$G$12:$G$14,'2L6LT4ST'!$G$16:$G$18)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2.3038346126325149E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.1312680008633288E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.3601271170528388E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.667157742618339E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.12810716709638378</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.18797196043978928</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.17261306302223919</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.27907814739389331</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.4677482395344803</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.37437312455278365</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.53005649383067788</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.67526788759660605</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('2L6LT4ST'!$H$4:$H$6,'2L6LT4ST'!$H$8:$H$10,'2L6LT4ST'!$H$12:$H$14,'2L6LT4ST'!$H$16:$H$18)</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="12"/>
@@ -770,51 +830,6 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.38285463499208666</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>('2L4LT4ST'!$G$4:$G$6,'2L4LT4ST'!$G$8:$G$10,'2L4LT4ST'!$G$12:$G$14,'2L4LT4ST'!$G$16:$G$18)</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>2.3038346126325149E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.1312680008633288E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.3601271170528388E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.667157742618339E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.12810716709638378</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.18797196043978928</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.17261306302223919</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.27907814739389331</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.4677482395344803</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.37437312455278365</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.53005649383067788</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.67526788759660605</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1061,6 +1076,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1140,7 +1186,1510 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>2L4LT4ST</a:t>
+              <a:t>3L4LT4ST Onyx One</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3L4LT4ST O1'!$C$2:$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Clockwise Torque</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.36145300196850394"/>
+                  <c:y val="0.41647248026676925"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('3L4LT4ST O1'!$D$4:$D$6,'3L4LT4ST O1'!$D$8:$D$10,'3L4LT4ST O1'!$D$12:$D$14,'3L4LT4ST O1'!$D$16:$D$18)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>3.1415926535897929E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8397243543875251E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.9813170079773184E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1415926535897929E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.1086523819801532E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.948376736367677E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.377580409572781E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.3038346126325149E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.9968039870670144E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5204027626653133E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.10053096491487337</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.14730578886832141</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('3L4LT4ST O1'!$E$4:$E$6,'3L4LT4ST O1'!$E$8:$E$10,'3L4LT4ST O1'!$E$12:$E$14,'3L4LT4ST O1'!$E$16:$E$18)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2.4524878974075574E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6787228812390591E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9048804686099609E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9049757948151147E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.3573627255385771E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.8095145551742605E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.8096557502118945E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14711095066348176</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.19604331158297392</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.24499947023604926</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.36601760537199585</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.48518793733557797</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4E74-4167-B1F7-4622ABC87B2C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3L4LT4ST O1'!$F$2:$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Counter-Clockwise Torque</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.41278850885826773"/>
+                  <c:y val="0.20995292095085644"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('3L4LT4ST O1'!$G$4:$G$6,'3L4LT4ST O1'!$G$8:$G$10,'3L4LT4ST O1'!$G$12:$G$14,'3L4LT4ST O1'!$G$16:$G$18)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>6.9813170079773186E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2689280275926286E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1415926535897929E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.9813170079773186E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2689280275926286E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.377580409572781E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.4105206811824215E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.3038346126325149E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.6128315516282622E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.3038346126325149E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.4299402871326118E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.13124875974997358</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('3L4LT4ST O1'!$H$4:$H$6,'3L4LT4ST O1'!$H$8:$H$10,'3L4LT4ST O1'!$H$12:$H$14,'3L4LT4ST O1'!$H$16:$H$18)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2.4524994023406466E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6787405308382981E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9049757948151147E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9049988046812931E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.3574810616765962E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.8096557502118945E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.8098564126848059E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14711095066348176</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.19607196839371022</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.24518491777246956</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.36656864241239406</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.4862813266000936</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4E74-4167-B1F7-4622ABC87B2C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="369439439"/>
+        <c:axId val="285172559"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="369439439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Deflection</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (rad)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="285172559"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="285172559"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Torque</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (N-m)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="369439439"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>3L4LT4ST Mark Two</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3L4LT4ST M2'!$C$2:$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Clockwise Torque</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.25528153707349083"/>
+                  <c:y val="0.42533464735648074"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('3L4LT4ST M2'!$D$4:$D$6,'3L4LT4ST M2'!$D$8:$D$10,'3L4LT4ST M2'!$D$12:$D$14,'3L4LT4ST M2'!$D$16:$D$18)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>3.1415926535897934E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.2185344634630454E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0511301780570912E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.4402649398590764E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1096066770252439</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.15498523757709648</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14032447186034408</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.21868975527488949</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.29984756549262581</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.29234264970905022</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.4356341812977847</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.5068436147791533</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('3L4LT4ST M2'!$E$4:$E$6,'3L4LT4ST M2'!$E$8:$E$10,'3L4LT4ST M2'!$E$12:$E$14,'3L4LT4ST M2'!$E$16:$E$18)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2.4512898392969568E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6737419480054385E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8928116045331246E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.8948312781495106E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.3133491095815045E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.6924154730676809E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.7135742361427496E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14364526161148561</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.18744585530375152</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.23484437623738072</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.33351643491714661</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.42883484671722177</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-68E9-4EE5-AC29-4B4E5E82AE63}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3L4LT4ST M2'!$F$2:$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Counter-Clockwise Torque</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.47576094980314959"/>
+                  <c:y val="0.29644933600317097"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('3L4LT4ST M2'!$G$4:$G$6,'3L4LT4ST M2'!$G$8:$G$10,'3L4LT4ST M2'!$G$12:$G$14,'3L4LT4ST M2'!$G$16:$G$18)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>-2.2165681500327987E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9095375244672985E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.8293997016610602E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.9095375244672985E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.2903139469730658E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.13805554383275148</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.11972958668681101</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.19093902016817965</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.29530970943744062</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.26808257310632899</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.39950586578150205</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.56705747397295769</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('3L4LT4ST M2'!$H$4:$H$6,'3L4LT4ST M2'!$H$8:$H$10,'3L4LT4ST M2'!$H$12:$H$14,'3L4LT4ST M2'!$H$16:$H$18)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2.4518975466605718E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6759389683580931E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8966682986017869E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9012519578107899E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.3322306846272792E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.7166623582192094E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.7397699287406533E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14447576357230818</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.18770690451584252</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.23648980793321431</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.33890606011993341</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.41372949522991614</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-68E9-4EE5-AC29-4B4E5E82AE63}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="369439439"/>
+        <c:axId val="285172559"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="369439439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Deflection</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (rad)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="285172559"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="285172559"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Torque</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (N-m)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="369439439"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>4L3LT6ST</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1232,8 +2781,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.18687554680664917"/>
-                  <c:y val="0.11237897346165063"/>
+                  <c:x val="-0.25201730643044618"/>
+                  <c:y val="0.45369691055701838"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1268,6 +2817,51 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
+              <c:f>('4L3LT6ST'!$D$4:$D$6,'4L3LT6ST'!$D$8:$D$10,'4L3LT6ST'!$D$12:$D$14,'4L3LT6ST'!$D$16:$D$18)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2.4434609527920613E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0666171571467881E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.6723200689815713E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.9813170079773182E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1059414855960558</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.13805554383275148</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.12112585008840648</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.19093902016817965</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.26075219024795282</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.25237460983838006</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.37594392087957856</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.4756022211684548</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
               <c:f>('4L3LT6ST'!$E$4:$E$6,'4L3LT6ST'!$E$8:$E$10,'4L3LT6ST'!$E$12:$E$14,'4L3LT6ST'!$E$16:$E$18)</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
@@ -1307,51 +2901,6 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.43606290789875374</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>('4L3LT6ST'!$D$4:$D$6,'4L3LT6ST'!$D$8:$D$10,'4L3LT6ST'!$D$12:$D$14,'4L3LT6ST'!$D$16:$D$18)</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>2.4434609527920613E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.0666171571467881E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.6723200689815713E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.9813170079773182E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.1059414855960558</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.13805554383275148</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.12112585008840648</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.19093902016817965</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.26075219024795282</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.25237460983838006</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.37594392087957856</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.4756022211684548</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1415,8 +2964,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.20049650043744532"/>
-                  <c:y val="-5.3285578885972587E-2"/>
+                  <c:x val="-0.51726644520997378"/>
+                  <c:y val="0.31568148678039271"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1451,6 +3000,51 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
+              <c:f>('4L3LT6ST'!$G$4:$G$6,'4L3LT6ST'!$G$8:$G$10,'4L3LT6ST'!$G$12:$G$14,'4L3LT6ST'!$G$16:$G$18)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.5707963267948964E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8325957145940461E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.368485456349056E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5307274153917779E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.8992128717408339E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.10733774899765128</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.10053096491487337</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.17941984710501707</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.28221974004748313</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.25167647813758232</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.38117990863556156</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.56688294104775816</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
               <c:f>('4L3LT6ST'!$H$4:$H$6,'4L3LT6ST'!$H$8:$H$10,'4L3LT6ST'!$H$12:$H$14,'4L3LT6ST'!$H$16:$H$18)</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
@@ -1490,51 +3084,6 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.41377547368569079</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>('4L3LT6ST'!$G$4:$G$6,'4L3LT6ST'!$G$8:$G$10,'4L3LT6ST'!$G$12:$G$14,'4L3LT6ST'!$G$16:$G$18)</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1.5707963267948964E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.8325957145940461E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.368485456349056E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.5307274153917779E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.8992128717408339E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.10733774899765128</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.10053096491487337</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.17941984710501707</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.28221974004748313</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.25167647813758232</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.38117990863556156</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.56688294104775816</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1781,6 +3330,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1825,7 +3405,758 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>4L3LT6ST</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'4L3LT6ST+3L4LT4ST'!$C$2:$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Clockwise Torque</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.35133284120734909"/>
+                  <c:y val="0.38918061152004058"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('4L3LT6ST+3L4LT4ST'!$D$4:$D$6,'4L3LT6ST+3L4LT4ST'!$D$8:$D$10,'4L3LT6ST+3L4LT4ST'!$D$12:$D$14,'4L3LT6ST+3L4LT4ST'!$D$16:$D$18)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>3.1415926535897929E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8397243543875251E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.948376736367677E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.250245035569947E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8448866807507571E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.1312680008633288E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.4505895925855403E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.674286382411818E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.14416419621473162</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.17034413499464657</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.26005405854715513</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.35534903570604548</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('4L3LT6ST+3L4LT4ST'!$E$4:$E$6,'4L3LT6ST+3L4LT4ST'!$E$8:$E$10,'4L3LT6ST+3L4LT4ST'!$E$12:$E$14,'4L3LT6ST+3L4LT4ST'!$E$16:$E$18)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2.4524878974075574E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6787228812390591E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9047572775871302E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9047901483474043E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.354522848550861E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.7970880119778184E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.8002859033544873E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14659674486695054</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.19416468546717078</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.24170037093259616</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.355505600180334</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.45985606658176659</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A2BA-4B44-82A4-A753B74E08D0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'4L3LT6ST+3L4LT4ST'!$F$2:$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Counter-Clockwise Torque</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.46863270997375328"/>
+                  <c:y val="0.27476268392463915"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('4L3LT6ST+3L4LT4ST'!$G$4:$G$6,'4L3LT6ST+3L4LT4ST'!$G$8:$G$10,'4L3LT6ST+3L4LT4ST'!$G$12:$G$14,'4L3LT6ST+3L4LT4ST'!$G$16:$G$18)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>6.9813170079773186E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0821041362364843E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4660765716752368E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.6794487087750501E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.7576202181510408E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.8345620280242932E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.9095375244672985E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.9761546816140866E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.13124875974997358</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.13508848410436111</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.21781709064889235</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.35744343080843871</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('4L3LT6ST+3L4LT4ST'!$H$4:$H$6,'4L3LT6ST+3L4LT4ST'!$H$8:$H$10,'4L3LT6ST+3L4LT4ST'!$H$12:$H$14,'4L3LT6ST+3L4LT4ST'!$H$16:$H$18)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2.4524994023406466E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6785346206034554E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9044728738706612E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9048553671414148E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.3547026831425236E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.7985377812172592E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.8025039156215799E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14668217098994463</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.19451253064003743</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.24301562981902858</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.35918266531122112</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.4594976422215985</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A2BA-4B44-82A4-A753B74E08D0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="369439439"/>
+        <c:axId val="285172559"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="369439439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Deflection</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (rad)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="285172559"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="285172559"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Torque</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (N-m)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="369439439"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2610,7 +4941,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3347,7 +5678,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4084,7 +6415,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5109,6 +7440,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -7690,6 +10141,1554 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8266,6 +12265,92 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CB2DD3C-8D7F-4E12-B9BA-E459A9D51F9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>14286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89611277-AECD-449C-B288-5C0426796727}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>14286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB3C8876-37CC-4619-9857-C682186FE44D}"/>
             </a:ext>
           </a:extLst>
@@ -8289,7 +12374,50 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>14286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76505583-DF74-4FAA-B069-39F82B1950AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8330,7 +12458,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8373,7 +12501,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8416,7 +12544,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8758,8 +12886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21CEBFFD-D877-4251-A7C8-DAFF0369D5AB}">
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9674,12 +13802,652 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF22B8A3-95C2-4791-94DF-9E76D33A34B1}">
+  <dimension ref="A1:M30"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="8" width="15.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C1" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="20">
+        <v>50</v>
+      </c>
+      <c r="B3">
+        <v>50</v>
+      </c>
+      <c r="C3">
+        <v>0.79</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D20" si="0">RADIANS(C3)</f>
+        <v>1.3788101090755204E-2</v>
+      </c>
+      <c r="E3">
+        <f>(A$3*9.81*COS(D3)*B3)/(1000*1000)</f>
+        <v>2.4522668791823018E-2</v>
+      </c>
+      <c r="F3">
+        <v>0.62</v>
+      </c>
+      <c r="G3">
+        <f>RADIANS(F3)</f>
+        <v>1.0821041362364843E-2</v>
+      </c>
+      <c r="H3">
+        <f>(A$3*9.81*COS(G3)*B3)/(1000*1000)</f>
+        <v>2.4523564137356367E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="20"/>
+      <c r="B4">
+        <v>75</v>
+      </c>
+      <c r="C4">
+        <v>1.36</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>2.3736477827122883E-2</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E6" si="1">(A$3*9.81*COS(D4)*B4)/(1000*1000)</f>
+        <v>3.6777137072962776E-2</v>
+      </c>
+      <c r="F4">
+        <v>1.19</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G14" si="2">RADIANS(F4)</f>
+        <v>2.076941809873252E-2</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H6" si="3">(A$3*9.81*COS(G4)*B4)/(1000*1000)</f>
+        <v>3.6779565796676489E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="20"/>
+      <c r="B5">
+        <v>100</v>
+      </c>
+      <c r="C5">
+        <v>1.76</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>3.07177948351002E-2</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>4.9026860448491472E-2</v>
+      </c>
+      <c r="F5">
+        <v>1.41</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>2.4609142453120045E-2</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="3"/>
+        <v>4.903514816694933E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0.44</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>7.6794487087750501E-3</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.26</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>4.5378560551852572E-3</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="20">
+        <v>100</v>
+      </c>
+      <c r="B7">
+        <v>50</v>
+      </c>
+      <c r="C7">
+        <v>1.71</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>2.9845130209103034E-2</v>
+      </c>
+      <c r="E7">
+        <f>(A$7*9.81*COS(D7)*B7)/(1000*1000)</f>
+        <v>4.9028156424143231E-2</v>
+      </c>
+      <c r="F7">
+        <v>1.41</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>2.4609142453120045E-2</v>
+      </c>
+      <c r="H7">
+        <f>(A$7*9.81*COS(G7)*B7)/(1000*1000)</f>
+        <v>4.903514816694933E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="20"/>
+      <c r="B8">
+        <v>75</v>
+      </c>
+      <c r="C8">
+        <v>2.68</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>4.6774823953448036E-2</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ref="E8:E10" si="4">(A$7*9.81*COS(D8)*B8)/(1000*1000)</f>
+        <v>7.3494527885192965E-2</v>
+      </c>
+      <c r="F8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>3.8397243543875255E-2</v>
+      </c>
+      <c r="H8">
+        <f t="shared" ref="H8:H9" si="5">(A$7*9.81*COS(G8)*B8)/(1000*1000)</f>
+        <v>7.3520769074911452E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="20"/>
+      <c r="B9">
+        <v>100</v>
+      </c>
+      <c r="C9">
+        <v>3.74</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>6.527531402458793E-2</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="4"/>
+        <v>9.7891078690199168E-2</v>
+      </c>
+      <c r="F9">
+        <v>3.12</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>5.4454272662223087E-2</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="5"/>
+        <v>9.7954589550933682E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0.92</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>1.6057029118347832E-2</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0.4</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>6.9813170079773184E-3</v>
+      </c>
+      <c r="H10">
+        <f>(A$7*9.81*COS(G10)*B10)/(1000*1000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="20">
+        <v>200</v>
+      </c>
+      <c r="B11">
+        <v>50</v>
+      </c>
+      <c r="C11">
+        <v>3.82</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>6.667157742618339E-2</v>
+      </c>
+      <c r="E11">
+        <f>(A$11*9.81*COS(D11)*B11)/(1000*1000)</f>
+        <v>9.7882048635017246E-2</v>
+      </c>
+      <c r="F11">
+        <v>3.03</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>5.2883476335428184E-2</v>
+      </c>
+      <c r="H11">
+        <f>(A$11*9.81*COS(G11)*B11)/(1000*1000)</f>
+        <v>9.7962855692160053E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="20"/>
+      <c r="B12">
+        <v>75</v>
+      </c>
+      <c r="C12">
+        <v>5.89</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>0.102799892942466</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ref="E12:E14" si="6">(A$11*9.81*COS(D12)*B12)/(1000*1000)</f>
+        <v>0.14637315728080433</v>
+      </c>
+      <c r="F12">
+        <v>5.05</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>8.813912722571364E-2</v>
+      </c>
+      <c r="H12">
+        <f t="shared" ref="H12:H14" si="7">(A$11*9.81*COS(G12)*B12)/(1000*1000)</f>
+        <v>0.14657880211276461</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="20"/>
+      <c r="B13">
+        <v>100</v>
+      </c>
+      <c r="C13">
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>0.14032447186034408</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="6"/>
+        <v>0.19427148472285499</v>
+      </c>
+      <c r="F13">
+        <v>7.6</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>0.13264502315156904</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="7"/>
+        <v>0.19447648899735248</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>2.11</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>3.6826447217080352E-2</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1.01</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>1.7627825445142728E-2</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="20">
+        <v>500</v>
+      </c>
+      <c r="B15">
+        <v>50</v>
+      </c>
+      <c r="C15">
+        <v>9.67</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ref="D15:D18" si="8">RADIANS(C15)</f>
+        <v>0.16877333866785166</v>
+      </c>
+      <c r="E15">
+        <f>(A$15*9.81*COS(D15)*B15)/(1000*1000)</f>
+        <v>0.24176537881459353</v>
+      </c>
+      <c r="F15">
+        <v>8.66</v>
+      </c>
+      <c r="G15">
+        <f t="shared" ref="G15:G18" si="9">RADIANS(F15)</f>
+        <v>0.15114551322270894</v>
+      </c>
+      <c r="H15">
+        <f>(A$15*9.81*COS(G15)*B15)/(1000*1000)</f>
+        <v>0.24245396505301486</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="20"/>
+      <c r="B16">
+        <v>75</v>
+      </c>
+      <c r="C16">
+        <v>14.33</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="8"/>
+        <v>0.25010568181078741</v>
+      </c>
+      <c r="E16">
+        <f>(A$15*9.81*COS(D16)*B16)/(1000*1000)</f>
+        <v>0.35642903665040032</v>
+      </c>
+      <c r="F16">
+        <v>13.72</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="9"/>
+        <v>0.23945917337362202</v>
+      </c>
+      <c r="H16">
+        <f>(A$15*9.81*COS(G16)*B16)/(1000*1000)</f>
+        <v>0.35737819774312474</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="20"/>
+      <c r="B17">
+        <v>100</v>
+      </c>
+      <c r="C17">
+        <v>20.88</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="8"/>
+        <v>0.36442474781641598</v>
+      </c>
+      <c r="E17">
+        <f>(A$15*9.81*COS(D17)*B17)/(1000*1000)</f>
+        <v>0.45828834627496817</v>
+      </c>
+      <c r="F17">
+        <v>21.11</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="9"/>
+        <v>0.36843900509600297</v>
+      </c>
+      <c r="H17">
+        <f>(A$15*9.81*COS(G17)*B17)/(1000*1000)</f>
+        <v>0.45758288311152356</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>7.12</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="8"/>
+        <v>0.12426744274199626</v>
+      </c>
+      <c r="E18">
+        <f>(A$15*9.81*COS(D18)*B18)/(1000*1000)</f>
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>2.46</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="9"/>
+        <v>4.2935099599060507E-2</v>
+      </c>
+      <c r="H18">
+        <f t="shared" ref="H18" si="10">(A$11*9.81*COS(G18)*B18)/(1000*1000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20">
+        <v>60</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>1.0471975511965976</v>
+      </c>
+      <c r="F20">
+        <v>56</v>
+      </c>
+      <c r="G20">
+        <f t="shared" ref="G20" si="11">RADIANS(F20)</f>
+        <v>0.97738438111682457</v>
+      </c>
+      <c r="J20" t="s">
+        <v>9</v>
+      </c>
+      <c r="L20">
+        <f>1/0.6842</f>
+        <v>1.4615609470914936</v>
+      </c>
+      <c r="M20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J21" t="s">
+        <v>10</v>
+      </c>
+      <c r="L21">
+        <f>1/0.7209</f>
+        <v>1.3871549452073797</v>
+      </c>
+      <c r="M21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="J23" t="s">
+        <v>12</v>
+      </c>
+      <c r="L23">
+        <f>AVERAGE(L20,L21)</f>
+        <v>1.4243579461494367</v>
+      </c>
+      <c r="M23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="L25">
+        <f>L23*4</f>
+        <v>5.6974317845977467</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="21"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="21"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="21"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="21"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="21"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A23:D30"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A11:A13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFA74A3D-8B14-45D1-B319-AB4200826715}">
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9689,30 +14457,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
+      <c r="A1" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16" t="s">
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
@@ -9741,10 +14509,10 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="17">
+      <c r="A4" s="16">
         <v>50</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>50</v>
       </c>
       <c r="C4" s="2">
@@ -9771,8 +14539,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="2">
+      <c r="A5" s="16"/>
+      <c r="B5" s="3">
         <v>75</v>
       </c>
       <c r="C5" s="2">
@@ -9799,8 +14567,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-      <c r="B6" s="2">
+      <c r="A6" s="16"/>
+      <c r="B6" s="3">
         <v>100</v>
       </c>
       <c r="C6" s="2">
@@ -9827,10 +14595,10 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="3">
         <v>0</v>
       </c>
       <c r="C7" s="2">
@@ -9857,10 +14625,10 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="17">
+      <c r="A8" s="16">
         <v>100</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="3">
         <v>50</v>
       </c>
       <c r="C8" s="2">
@@ -9887,8 +14655,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="B9" s="2">
+      <c r="A9" s="16"/>
+      <c r="B9" s="3">
         <v>75</v>
       </c>
       <c r="C9" s="2">
@@ -9915,8 +14683,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="2">
+      <c r="A10" s="16"/>
+      <c r="B10" s="3">
         <v>100</v>
       </c>
       <c r="C10" s="2">
@@ -9943,10 +14711,10 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="3">
         <v>0</v>
       </c>
       <c r="C11" s="2">
@@ -9973,10 +14741,10 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="17">
+      <c r="A12" s="16">
         <v>200</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="3">
         <v>50</v>
       </c>
       <c r="C12" s="2">
@@ -10003,8 +14771,8 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="2">
+      <c r="A13" s="16"/>
+      <c r="B13" s="3">
         <v>75</v>
       </c>
       <c r="C13" s="2">
@@ -10031,8 +14799,8 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
-      <c r="B14" s="2">
+      <c r="A14" s="16"/>
+      <c r="B14" s="3">
         <v>100</v>
       </c>
       <c r="C14" s="2">
@@ -10059,10 +14827,10 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="3">
         <v>0</v>
       </c>
       <c r="C15" s="2">
@@ -10089,10 +14857,10 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="17">
+      <c r="A16" s="16">
         <v>500</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="3">
         <v>50</v>
       </c>
       <c r="C16" s="2">
@@ -10119,8 +14887,8 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
-      <c r="B17" s="2">
+      <c r="A17" s="16"/>
+      <c r="B17" s="3">
         <v>75</v>
       </c>
       <c r="C17" s="2">
@@ -10147,8 +14915,8 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
-      <c r="B18" s="2">
+      <c r="A18" s="16"/>
+      <c r="B18" s="3">
         <v>100</v>
       </c>
       <c r="C18" s="2">
@@ -10175,10 +14943,10 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="3">
         <v>0</v>
       </c>
       <c r="C19" s="2">
@@ -10228,7 +14996,7 @@
         <v>57</v>
       </c>
       <c r="M21">
-        <v>1.7829999999999999</v>
+        <v>0.64390000000000003</v>
       </c>
       <c r="N21" t="s">
         <v>60</v>
@@ -10239,7 +15007,7 @@
         <v>58</v>
       </c>
       <c r="M22">
-        <v>1.4379999999999999</v>
+        <v>0.52910000000000001</v>
       </c>
       <c r="N22" t="s">
         <v>60</v>
@@ -10251,7 +15019,7 @@
       </c>
       <c r="M23" s="13">
         <f>AVERAGE(M21:M22)</f>
-        <v>1.6105</v>
+        <v>0.58650000000000002</v>
       </c>
       <c r="N23" s="13" t="s">
         <v>60</v>
@@ -10285,11 +15053,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76B2740F-38F5-465B-9AB1-2A355D2F4BF6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27BFBEE9-465E-4F2C-8228-998CAC6DC9BC}">
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10299,30 +15067,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
+      <c r="A1" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16" t="s">
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
@@ -10351,115 +15119,115 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="17">
+      <c r="A4" s="16">
         <v>50</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>50</v>
       </c>
       <c r="C4" s="2">
-        <v>1.4</v>
+        <v>0.18</v>
       </c>
       <c r="D4" s="7">
         <f>RADIANS(C4)</f>
-        <v>2.4434609527920613E-2</v>
+        <v>3.1415926535897929E-3</v>
       </c>
       <c r="E4" s="7">
         <f>(A$4*9.81*COS(D4)*B4)/(1000*1000)</f>
-        <v>2.4517679036883518E-2</v>
+        <v>2.4524878974075574E-2</v>
       </c>
       <c r="F4" s="2">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
       <c r="G4" s="7">
         <f>RADIANS(F4)</f>
-        <v>1.5707963267948964E-3</v>
+        <v>6.9813170079773186E-4</v>
       </c>
       <c r="H4" s="7">
         <f>(A$4*9.81*COS(G4)*B4)/(1000*1000)</f>
-        <v>2.4524969743500227E-2</v>
+        <v>2.4524994023406466E-2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="2">
+      <c r="A5" s="16"/>
+      <c r="B5" s="3">
         <v>75</v>
       </c>
       <c r="C5" s="2">
-        <v>2.33</v>
+        <v>0.22</v>
       </c>
       <c r="D5" s="7">
         <f t="shared" ref="D5:D21" si="0">RADIANS(C5)</f>
-        <v>4.0666171571467881E-2</v>
+        <v>3.8397243543875251E-3</v>
       </c>
       <c r="E5" s="7">
         <f t="shared" ref="E5:E7" si="1">(A$4*9.81*COS(D5)*B5)/(1000*1000)</f>
-        <v>3.675708575744803E-2</v>
+        <v>3.6787228812390591E-2</v>
       </c>
       <c r="F5" s="2">
-        <v>1.05</v>
+        <v>0.13</v>
       </c>
       <c r="G5" s="7">
         <f t="shared" ref="G5:G21" si="2">RADIANS(F5)</f>
-        <v>1.8325957145940461E-2</v>
+        <v>2.2689280275926286E-3</v>
       </c>
       <c r="H5" s="7">
         <f>(A$4*9.81*COS(G5)*B5)/(1000*1000)</f>
-        <v>3.6781322802909036E-2</v>
+        <v>3.6787405308382981E-2</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-      <c r="B6" s="2">
+      <c r="A6" s="16"/>
+      <c r="B6" s="3">
         <v>100</v>
       </c>
       <c r="C6" s="2">
-        <v>3.25</v>
+        <v>0.4</v>
       </c>
       <c r="D6" s="7">
         <f t="shared" si="0"/>
-        <v>5.6723200689815713E-2</v>
+        <v>6.9813170079773184E-3</v>
       </c>
       <c r="E6" s="7">
         <f t="shared" si="1"/>
-        <v>4.8971111440837961E-2</v>
+        <v>4.9048804686099609E-2</v>
       </c>
       <c r="F6" s="2">
-        <v>1.93</v>
+        <v>0.18</v>
       </c>
       <c r="G6" s="7">
         <f t="shared" si="2"/>
-        <v>3.368485456349056E-2</v>
+        <v>3.1415926535897929E-3</v>
       </c>
       <c r="H6" s="7">
         <f>(A$4*9.81*COS(G6)*B6)/(1000*1000)</f>
-        <v>4.9022174863480636E-2</v>
+        <v>4.9049757948151147E-2</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="3">
         <v>0</v>
       </c>
       <c r="C7" s="2">
-        <v>1.41</v>
+        <v>0.22</v>
       </c>
       <c r="D7" s="7">
         <f t="shared" si="0"/>
-        <v>2.4609142453120045E-2</v>
+        <v>3.8397243543875251E-3</v>
       </c>
       <c r="E7" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F7" s="2">
-        <v>0.56999999999999995</v>
+        <v>0.13</v>
       </c>
       <c r="G7" s="7">
         <f t="shared" si="2"/>
-        <v>9.948376736367677E-3</v>
+        <v>2.2689280275926286E-3</v>
       </c>
       <c r="H7" s="7">
         <f>(A$4*9.81*COS(G7)*B7)/(1000*1000)</f>
@@ -10467,115 +15235,115 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="17">
+      <c r="A8" s="16">
         <v>100</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="3">
         <v>50</v>
       </c>
       <c r="C8" s="2">
-        <v>4</v>
+        <v>0.18</v>
       </c>
       <c r="D8" s="7">
-        <f t="shared" si="0"/>
-        <v>6.9813170079773182E-2</v>
+        <f>RADIANS(C8)</f>
+        <v>3.1415926535897929E-3</v>
       </c>
       <c r="E8" s="7">
         <f>(A$8*9.81*COS(D8)*B8)/(1000*1000)</f>
-        <v>4.8930516665244374E-2</v>
+        <v>4.9049757948151147E-2</v>
       </c>
       <c r="F8" s="2">
-        <v>1.45</v>
+        <v>0.04</v>
       </c>
       <c r="G8" s="7">
-        <f t="shared" si="2"/>
-        <v>2.5307274153917779E-2</v>
+        <f>RADIANS(F8)</f>
+        <v>6.9813170079773186E-4</v>
       </c>
       <c r="H8" s="7">
         <f>(A$8*9.81*COS(G8)*B8)/(1000*1000)</f>
-        <v>4.9034293602782872E-2</v>
+        <v>4.9049988046812931E-2</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="B9" s="2">
+      <c r="A9" s="16"/>
+      <c r="B9" s="3">
         <v>75</v>
       </c>
       <c r="C9" s="2">
-        <v>6.07</v>
+        <v>0.35</v>
       </c>
       <c r="D9" s="7">
-        <f t="shared" si="0"/>
-        <v>0.1059414855960558</v>
+        <f>RADIANS(C9)</f>
+        <v>6.1086523819801532E-3</v>
       </c>
       <c r="E9" s="7">
         <f t="shared" ref="E9:E11" si="3">(A$8*9.81*COS(D9)*B9)/(1000*1000)</f>
-        <v>7.3162497904713381E-2</v>
+        <v>7.3573627255385771E-2</v>
       </c>
       <c r="F9" s="2">
-        <v>3.38</v>
+        <v>0.13</v>
       </c>
       <c r="G9" s="7">
-        <f t="shared" si="2"/>
-        <v>5.8992128717408339E-2</v>
+        <f>RADIANS(F9)</f>
+        <v>2.2689280275926286E-3</v>
       </c>
       <c r="H9" s="7">
         <f t="shared" ref="H9:H11" si="4">(A$8*9.81*COS(G9)*B9)/(1000*1000)</f>
-        <v>7.34470140020268E-2</v>
+        <v>7.3574810616765962E-2</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="2">
+      <c r="A10" s="16"/>
+      <c r="B10" s="3">
         <v>100</v>
       </c>
       <c r="C10" s="2">
-        <v>7.91</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="D10" s="7">
-        <f t="shared" si="0"/>
-        <v>0.13805554383275148</v>
+        <f>RADIANS(C10)</f>
+        <v>9.948376736367677E-3</v>
       </c>
       <c r="E10" s="7">
         <f t="shared" si="3"/>
-        <v>9.7166623582192094E-2</v>
+        <v>9.8095145551742605E-2</v>
       </c>
       <c r="F10" s="2">
-        <v>6.15</v>
+        <v>0.48</v>
       </c>
       <c r="G10" s="7">
-        <f t="shared" si="2"/>
-        <v>0.10733774899765128</v>
+        <f>RADIANS(F10)</f>
+        <v>8.377580409572781E-3</v>
       </c>
       <c r="H10" s="7">
         <f t="shared" si="4"/>
-        <v>9.753541808130764E-2</v>
+        <v>9.8096557502118945E-2</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="3">
         <v>0</v>
       </c>
       <c r="C11" s="2">
-        <v>2.33</v>
+        <v>0.18</v>
       </c>
       <c r="D11" s="7">
-        <f t="shared" si="0"/>
-        <v>4.0666171571467881E-2</v>
+        <f>RADIANS(C11)</f>
+        <v>3.1415926535897929E-3</v>
       </c>
       <c r="E11" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F11" s="2">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="G11" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>RADIANS(F11)</f>
+        <v>5.4105206811824215E-3</v>
       </c>
       <c r="H11" s="7">
         <f t="shared" si="4"/>
@@ -10583,115 +15351,115 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="17">
+      <c r="A12" s="16">
         <v>200</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="3">
         <v>50</v>
       </c>
       <c r="C12" s="2">
-        <v>6.94</v>
+        <v>0.48</v>
       </c>
       <c r="D12" s="7">
         <f t="shared" si="0"/>
-        <v>0.12112585008840648</v>
+        <v>8.377580409572781E-3</v>
       </c>
       <c r="E12" s="7">
         <f>(A$12*9.81*COS(D12)*B12)/(1000*1000)</f>
-        <v>9.7381243732693801E-2</v>
+        <v>9.8096557502118945E-2</v>
       </c>
       <c r="F12" s="2">
-        <v>5.76</v>
+        <v>0.31</v>
       </c>
       <c r="G12" s="7">
         <f t="shared" si="2"/>
-        <v>0.10053096491487337</v>
+        <v>5.4105206811824215E-3</v>
       </c>
       <c r="H12" s="7">
         <f>(A$12*9.81*COS(G12)*B12)/(1000*1000)</f>
-        <v>9.7604694765865543E-2</v>
+        <v>9.8098564126848059E-2</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="2">
+      <c r="A13" s="16"/>
+      <c r="B13" s="3">
         <v>75</v>
       </c>
       <c r="C13" s="2">
-        <v>10.94</v>
+        <v>1.32</v>
       </c>
       <c r="D13" s="7">
         <f t="shared" si="0"/>
-        <v>0.19093902016817965</v>
+        <v>2.3038346126325149E-2</v>
       </c>
       <c r="E13" s="7">
         <f t="shared" ref="E13:E15" si="5">(A$12*9.81*COS(D13)*B13)/(1000*1000)</f>
-        <v>0.14447576357230818</v>
+        <v>0.14711095066348176</v>
       </c>
       <c r="F13" s="2">
-        <v>10.28</v>
+        <v>1.32</v>
       </c>
       <c r="G13" s="7">
         <f t="shared" si="2"/>
-        <v>0.17941984710501707</v>
+        <v>2.3038346126325149E-2</v>
       </c>
       <c r="H13" s="7">
         <f t="shared" ref="H13:H14" si="6">(A$12*9.81*COS(G13)*B13)/(1000*1000)</f>
-        <v>0.14478785869422364</v>
+        <v>0.14711095066348176</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
-      <c r="B14" s="2">
+      <c r="A14" s="16"/>
+      <c r="B14" s="3">
         <v>100</v>
       </c>
       <c r="C14" s="2">
-        <v>14.94</v>
+        <v>2.29</v>
       </c>
       <c r="D14" s="7">
         <f t="shared" si="0"/>
-        <v>0.26075219024795282</v>
+        <v>3.9968039870670144E-2</v>
       </c>
       <c r="E14" s="7">
         <f t="shared" si="5"/>
-        <v>0.18956772019747242</v>
+        <v>0.19604331158297392</v>
       </c>
       <c r="F14" s="2">
-        <v>16.170000000000002</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="G14" s="7">
         <f t="shared" si="2"/>
-        <v>0.28221974004748313</v>
+        <v>3.6128315516282622E-2</v>
       </c>
       <c r="H14" s="7">
         <f t="shared" si="6"/>
-        <v>0.18843825608030276</v>
+        <v>0.19607196839371022</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="3">
         <v>0</v>
       </c>
       <c r="C15" s="2">
-        <v>3.56</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="D15" s="7">
         <f t="shared" si="0"/>
-        <v>6.2133721370998131E-2</v>
+        <v>1.9896753472735354E-2</v>
       </c>
       <c r="E15" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F15" s="2">
-        <v>1.93</v>
+        <v>1.27</v>
       </c>
       <c r="G15" s="7">
         <f t="shared" si="2"/>
-        <v>3.368485456349056E-2</v>
+        <v>2.2165681500327987E-2</v>
       </c>
       <c r="H15" s="7">
         <f>(A$12*9.81*COS(G15)*B15)/(1000*1000)</f>
@@ -10699,115 +15467,115 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="17">
+      <c r="A16" s="16">
         <v>500</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="3">
         <v>50</v>
       </c>
       <c r="C16" s="2">
-        <v>14.46</v>
+        <v>2.59</v>
       </c>
       <c r="D16" s="7">
         <f t="shared" si="0"/>
-        <v>0.25237460983838006</v>
+        <v>4.5204027626653133E-2</v>
       </c>
       <c r="E16" s="7">
         <f>(A$16*9.81*COS(D16)*B16)/(1000*1000)</f>
-        <v>0.23748102019998255</v>
+        <v>0.24499947023604926</v>
       </c>
       <c r="F16" s="2">
-        <v>14.42</v>
+        <v>1.32</v>
       </c>
       <c r="G16" s="7">
         <f t="shared" si="2"/>
-        <v>0.25167647813758232</v>
+        <v>2.3038346126325149E-2</v>
       </c>
       <c r="H16" s="7">
         <f>(A$16*9.81*COS(G16)*B16)/(1000*1000)</f>
-        <v>0.23752371585186985</v>
+        <v>0.24518491777246956</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
-      <c r="B17" s="2">
+      <c r="A17" s="16"/>
+      <c r="B17" s="3">
         <v>75</v>
       </c>
       <c r="C17" s="2">
-        <v>21.54</v>
+        <v>5.76</v>
       </c>
       <c r="D17" s="7">
         <f t="shared" si="0"/>
-        <v>0.37594392087957856</v>
+        <v>0.10053096491487337</v>
       </c>
       <c r="E17" s="7">
         <f t="shared" ref="E17:E19" si="7">(A$16*9.81*COS(D17)*B17)/(1000*1000)</f>
-        <v>0.34218315266747384</v>
+        <v>0.36601760537199585</v>
       </c>
       <c r="F17" s="2">
-        <v>21.84</v>
+        <v>4.83</v>
       </c>
       <c r="G17" s="7">
         <f t="shared" si="2"/>
-        <v>0.38117990863556156</v>
+        <v>8.4299402871326118E-2</v>
       </c>
       <c r="H17" s="7">
         <f t="shared" ref="H17:H19" si="8">(A$16*9.81*COS(G17)*B17)/(1000*1000)</f>
-        <v>0.34147126371540037</v>
+        <v>0.36656864241239406</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
-      <c r="B18" s="2">
+      <c r="A18" s="16"/>
+      <c r="B18" s="3">
         <v>100</v>
       </c>
       <c r="C18" s="2">
-        <v>27.25</v>
+        <v>8.44</v>
       </c>
       <c r="D18" s="7">
         <f t="shared" si="0"/>
-        <v>0.4756022211684548</v>
+        <v>0.14730578886832141</v>
       </c>
       <c r="E18" s="7">
         <f t="shared" si="7"/>
-        <v>0.43606290789875374</v>
+        <v>0.48518793733557797</v>
       </c>
       <c r="F18" s="2">
-        <v>32.479999999999997</v>
+        <v>7.52</v>
       </c>
       <c r="G18" s="7">
         <f t="shared" si="2"/>
-        <v>0.56688294104775816</v>
+        <v>0.13124875974997358</v>
       </c>
       <c r="H18" s="7">
         <f t="shared" si="8"/>
-        <v>0.41377547368569079</v>
+        <v>0.4862813266000936</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="3">
         <v>0</v>
       </c>
       <c r="C19" s="2">
-        <v>4.66</v>
+        <v>2.81</v>
       </c>
       <c r="D19" s="7">
         <f t="shared" si="0"/>
-        <v>8.1332343142935762E-2</v>
+        <v>4.9043751981040662E-2</v>
       </c>
       <c r="E19" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F19" s="2">
-        <v>4.3099999999999996</v>
+        <v>2.63</v>
       </c>
       <c r="G19" s="7">
         <f t="shared" si="2"/>
-        <v>7.52236907609556E-2</v>
+        <v>4.5902159327450863E-2</v>
       </c>
       <c r="H19" s="7">
         <f t="shared" si="8"/>
@@ -10820,25 +15588,25 @@
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D21" s="8">
         <f t="shared" si="0"/>
-        <v>0.57595865315812877</v>
+        <v>0.4014257279586958</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G21" s="8">
         <f t="shared" si="2"/>
-        <v>0.6108652381980153</v>
+        <v>0.43633231299858238</v>
       </c>
       <c r="L21" s="14" t="s">
         <v>57</v>
       </c>
       <c r="M21">
-        <v>1.3588</v>
+        <v>3.1013000000000002</v>
       </c>
       <c r="N21" t="s">
         <v>60</v>
@@ -10849,7 +15617,7 @@
         <v>58</v>
       </c>
       <c r="M22">
-        <v>1.0692999999999999</v>
+        <v>3.4339</v>
       </c>
       <c r="N22" t="s">
         <v>60</v>
@@ -10861,7 +15629,7 @@
       </c>
       <c r="M23" s="13">
         <f>AVERAGE(M21:M22)</f>
-        <v>1.2140499999999999</v>
+        <v>3.2675999999999998</v>
       </c>
       <c r="N23" s="13" t="s">
         <v>60</v>
@@ -10883,11 +15651,1802 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1E6D04F-DDA3-4D38-BAAD-DF6A01F783DA}">
+  <dimension ref="A1:N23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="8" width="17.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="16">
+        <v>50</v>
+      </c>
+      <c r="B4" s="3">
+        <v>50</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="D4" s="7">
+        <f>RADIANS(C4)</f>
+        <v>3.1415926535897934E-2</v>
+      </c>
+      <c r="E4" s="7">
+        <f>(A$4*9.81*COS(D4)*B4)/(1000*1000)</f>
+        <v>2.4512898392969568E-2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>-1.27</v>
+      </c>
+      <c r="G4" s="7">
+        <f>RADIANS(F4)</f>
+        <v>-2.2165681500327987E-2</v>
+      </c>
+      <c r="H4" s="7">
+        <f>(A$4*9.81*COS(G4)*B4)/(1000*1000)</f>
+        <v>2.4518975466605718E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="16"/>
+      <c r="B5" s="3">
+        <v>75</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2.99</v>
+      </c>
+      <c r="D5" s="7">
+        <f t="shared" ref="D5:D21" si="0">RADIANS(C5)</f>
+        <v>5.2185344634630454E-2</v>
+      </c>
+      <c r="E5" s="7">
+        <f t="shared" ref="E5:E7" si="1">(A$4*9.81*COS(D5)*B5)/(1000*1000)</f>
+        <v>3.6737419480054385E-2</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="G5" s="7">
+        <f t="shared" ref="G5:G21" si="2">RADIANS(F5)</f>
+        <v>3.9095375244672985E-2</v>
+      </c>
+      <c r="H5" s="7">
+        <f>(A$4*9.81*COS(G5)*B5)/(1000*1000)</f>
+        <v>3.6759389683580931E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="16"/>
+      <c r="B6" s="3">
+        <v>100</v>
+      </c>
+      <c r="C6" s="2">
+        <v>4.04</v>
+      </c>
+      <c r="D6" s="7">
+        <f t="shared" si="0"/>
+        <v>7.0511301780570912E-2</v>
+      </c>
+      <c r="E6" s="7">
+        <f t="shared" si="1"/>
+        <v>4.8928116045331246E-2</v>
+      </c>
+      <c r="F6" s="2">
+        <v>3.34</v>
+      </c>
+      <c r="G6" s="7">
+        <f t="shared" si="2"/>
+        <v>5.8293997016610602E-2</v>
+      </c>
+      <c r="H6" s="7">
+        <f>(A$4*9.81*COS(G6)*B6)/(1000*1000)</f>
+        <v>4.8966682986017869E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.97</v>
+      </c>
+      <c r="D7" s="7">
+        <f t="shared" si="0"/>
+        <v>1.6929693744344994E-2</v>
+      </c>
+      <c r="E7" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>-0.26</v>
+      </c>
+      <c r="G7" s="7">
+        <f t="shared" si="2"/>
+        <v>-4.5378560551852572E-3</v>
+      </c>
+      <c r="H7" s="7">
+        <f>(A$4*9.81*COS(G7)*B7)/(1000*1000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="16">
+        <v>100</v>
+      </c>
+      <c r="B8" s="3">
+        <v>50</v>
+      </c>
+      <c r="C8" s="2">
+        <v>3.69</v>
+      </c>
+      <c r="D8" s="7">
+        <f t="shared" si="0"/>
+        <v>6.4402649398590764E-2</v>
+      </c>
+      <c r="E8" s="7">
+        <f>(A$8*9.81*COS(D8)*B8)/(1000*1000)</f>
+        <v>4.8948312781495106E-2</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="G8" s="7">
+        <f t="shared" si="2"/>
+        <v>3.9095375244672985E-2</v>
+      </c>
+      <c r="H8" s="7">
+        <f>(A$8*9.81*COS(G8)*B8)/(1000*1000)</f>
+        <v>4.9012519578107899E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="16"/>
+      <c r="B9" s="3">
+        <v>75</v>
+      </c>
+      <c r="C9" s="2">
+        <v>6.28</v>
+      </c>
+      <c r="D9" s="7">
+        <f t="shared" si="0"/>
+        <v>0.1096066770252439</v>
+      </c>
+      <c r="E9" s="7">
+        <f t="shared" ref="E9:E11" si="3">(A$8*9.81*COS(D9)*B9)/(1000*1000)</f>
+        <v>7.3133491095815045E-2</v>
+      </c>
+      <c r="F9" s="2">
+        <v>4.75</v>
+      </c>
+      <c r="G9" s="7">
+        <f t="shared" si="2"/>
+        <v>8.2903139469730658E-2</v>
+      </c>
+      <c r="H9" s="7">
+        <f t="shared" ref="H9:H11" si="4">(A$8*9.81*COS(G9)*B9)/(1000*1000)</f>
+        <v>7.3322306846272792E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="16"/>
+      <c r="B10" s="3">
+        <v>100</v>
+      </c>
+      <c r="C10" s="2">
+        <v>8.8800000000000008</v>
+      </c>
+      <c r="D10" s="7">
+        <f t="shared" si="0"/>
+        <v>0.15498523757709648</v>
+      </c>
+      <c r="E10" s="7">
+        <f t="shared" si="3"/>
+        <v>9.6924154730676809E-2</v>
+      </c>
+      <c r="F10" s="2">
+        <v>7.91</v>
+      </c>
+      <c r="G10" s="7">
+        <f t="shared" si="2"/>
+        <v>0.13805554383275148</v>
+      </c>
+      <c r="H10" s="7">
+        <f t="shared" si="4"/>
+        <v>9.7166623582192094E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1.23</v>
+      </c>
+      <c r="D11" s="7">
+        <f t="shared" si="0"/>
+        <v>2.1467549799530253E-2</v>
+      </c>
+      <c r="E11" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>-1.1399999999999999</v>
+      </c>
+      <c r="G11" s="7">
+        <f t="shared" si="2"/>
+        <v>-1.9896753472735354E-2</v>
+      </c>
+      <c r="H11" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="16">
+        <v>200</v>
+      </c>
+      <c r="B12" s="3">
+        <v>50</v>
+      </c>
+      <c r="C12" s="2">
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="D12" s="7">
+        <f t="shared" si="0"/>
+        <v>0.14032447186034408</v>
+      </c>
+      <c r="E12" s="7">
+        <f>(A$12*9.81*COS(D12)*B12)/(1000*1000)</f>
+        <v>9.7135742361427496E-2</v>
+      </c>
+      <c r="F12" s="2">
+        <v>6.86</v>
+      </c>
+      <c r="G12" s="7">
+        <f t="shared" si="2"/>
+        <v>0.11972958668681101</v>
+      </c>
+      <c r="H12" s="7">
+        <f>(A$12*9.81*COS(G12)*B12)/(1000*1000)</f>
+        <v>9.7397699287406533E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="16"/>
+      <c r="B13" s="3">
+        <v>75</v>
+      </c>
+      <c r="C13" s="2">
+        <v>12.53</v>
+      </c>
+      <c r="D13" s="7">
+        <f t="shared" si="0"/>
+        <v>0.21868975527488949</v>
+      </c>
+      <c r="E13" s="7">
+        <f t="shared" ref="E13:E15" si="5">(A$12*9.81*COS(D13)*B13)/(1000*1000)</f>
+        <v>0.14364526161148561</v>
+      </c>
+      <c r="F13" s="2">
+        <v>10.94</v>
+      </c>
+      <c r="G13" s="7">
+        <f t="shared" si="2"/>
+        <v>0.19093902016817965</v>
+      </c>
+      <c r="H13" s="7">
+        <f t="shared" ref="H13:H14" si="6">(A$12*9.81*COS(G13)*B13)/(1000*1000)</f>
+        <v>0.14447576357230818</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="16"/>
+      <c r="B14" s="3">
+        <v>100</v>
+      </c>
+      <c r="C14" s="2">
+        <v>17.18</v>
+      </c>
+      <c r="D14" s="7">
+        <f t="shared" si="0"/>
+        <v>0.29984756549262581</v>
+      </c>
+      <c r="E14" s="7">
+        <f t="shared" si="5"/>
+        <v>0.18744585530375152</v>
+      </c>
+      <c r="F14" s="2">
+        <v>16.920000000000002</v>
+      </c>
+      <c r="G14" s="7">
+        <f t="shared" si="2"/>
+        <v>0.29530970943744062</v>
+      </c>
+      <c r="H14" s="7">
+        <f t="shared" si="6"/>
+        <v>0.18770690451584252</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="D15" s="7">
+        <f t="shared" si="0"/>
+        <v>4.4505895925855403E-2</v>
+      </c>
+      <c r="E15" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>-2.33</v>
+      </c>
+      <c r="G15" s="7">
+        <f t="shared" si="2"/>
+        <v>-4.0666171571467881E-2</v>
+      </c>
+      <c r="H15" s="7">
+        <f>(A$12*9.81*COS(G15)*B15)/(1000*1000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="16">
+        <v>500</v>
+      </c>
+      <c r="B16" s="3">
+        <v>50</v>
+      </c>
+      <c r="C16" s="2">
+        <v>16.75</v>
+      </c>
+      <c r="D16" s="7">
+        <f t="shared" si="0"/>
+        <v>0.29234264970905022</v>
+      </c>
+      <c r="E16" s="7">
+        <f>(A$16*9.81*COS(D16)*B16)/(1000*1000)</f>
+        <v>0.23484437623738072</v>
+      </c>
+      <c r="F16" s="2">
+        <v>15.36</v>
+      </c>
+      <c r="G16" s="7">
+        <f t="shared" si="2"/>
+        <v>0.26808257310632899</v>
+      </c>
+      <c r="H16" s="7">
+        <f>(A$16*9.81*COS(G16)*B16)/(1000*1000)</f>
+        <v>0.23648980793321431</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="16"/>
+      <c r="B17" s="3">
+        <v>75</v>
+      </c>
+      <c r="C17" s="2">
+        <v>24.96</v>
+      </c>
+      <c r="D17" s="7">
+        <f t="shared" si="0"/>
+        <v>0.4356341812977847</v>
+      </c>
+      <c r="E17" s="7">
+        <f t="shared" ref="E17:E19" si="7">(A$16*9.81*COS(D17)*B17)/(1000*1000)</f>
+        <v>0.33351643491714661</v>
+      </c>
+      <c r="F17" s="2">
+        <v>22.89</v>
+      </c>
+      <c r="G17" s="7">
+        <f t="shared" si="2"/>
+        <v>0.39950586578150205</v>
+      </c>
+      <c r="H17" s="7">
+        <f t="shared" ref="H17:H19" si="8">(A$16*9.81*COS(G17)*B17)/(1000*1000)</f>
+        <v>0.33890606011993341</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="16"/>
+      <c r="B18" s="3">
+        <v>100</v>
+      </c>
+      <c r="C18" s="2">
+        <v>29.04</v>
+      </c>
+      <c r="D18" s="7">
+        <f t="shared" si="0"/>
+        <v>0.5068436147791533</v>
+      </c>
+      <c r="E18" s="7">
+        <f t="shared" si="7"/>
+        <v>0.42883484671722177</v>
+      </c>
+      <c r="F18" s="2">
+        <v>32.49</v>
+      </c>
+      <c r="G18" s="7">
+        <f t="shared" si="2"/>
+        <v>0.56705747397295769</v>
+      </c>
+      <c r="H18" s="7">
+        <f t="shared" si="8"/>
+        <v>0.41372949522991614</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2">
+        <v>4.09</v>
+      </c>
+      <c r="D19" s="7">
+        <f t="shared" si="0"/>
+        <v>7.1383966406568078E-2</v>
+      </c>
+      <c r="E19" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
+        <f>-5.23</f>
+        <v>-5.23</v>
+      </c>
+      <c r="G19" s="7">
+        <f t="shared" si="2"/>
+        <v>-9.1280719879303446E-2</v>
+      </c>
+      <c r="H19" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2">
+        <v>34</v>
+      </c>
+      <c r="D21" s="8">
+        <f t="shared" si="0"/>
+        <v>0.59341194567807209</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2">
+        <v>33</v>
+      </c>
+      <c r="G21" s="8">
+        <f t="shared" si="2"/>
+        <v>0.57595865315812877</v>
+      </c>
+      <c r="L21" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="M21">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="N21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L22" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="M22">
+        <v>0.71709999999999996</v>
+      </c>
+      <c r="N22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L23" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="M23" s="13">
+        <f>AVERAGE(M21:M22)</f>
+        <v>0.76455000000000006</v>
+      </c>
+      <c r="N23" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A12:A14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76B2740F-38F5-465B-9AB1-2A355D2F4BF6}">
+  <dimension ref="A1:N23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="8" width="17.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="16">
+        <v>50</v>
+      </c>
+      <c r="B4" s="3">
+        <v>50</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="D4" s="7">
+        <f>RADIANS(C4)</f>
+        <v>2.4434609527920613E-2</v>
+      </c>
+      <c r="E4" s="7">
+        <f>(A$4*9.81*COS(D4)*B4)/(1000*1000)</f>
+        <v>2.4517679036883518E-2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="G4" s="7">
+        <f>RADIANS(F4)</f>
+        <v>1.5707963267948964E-3</v>
+      </c>
+      <c r="H4" s="7">
+        <f>(A$4*9.81*COS(G4)*B4)/(1000*1000)</f>
+        <v>2.4524969743500227E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="16"/>
+      <c r="B5" s="3">
+        <v>75</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2.33</v>
+      </c>
+      <c r="D5" s="7">
+        <f t="shared" ref="D5:D21" si="0">RADIANS(C5)</f>
+        <v>4.0666171571467881E-2</v>
+      </c>
+      <c r="E5" s="7">
+        <f t="shared" ref="E5:E7" si="1">(A$4*9.81*COS(D5)*B5)/(1000*1000)</f>
+        <v>3.675708575744803E-2</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1.05</v>
+      </c>
+      <c r="G5" s="7">
+        <f t="shared" ref="G5:G21" si="2">RADIANS(F5)</f>
+        <v>1.8325957145940461E-2</v>
+      </c>
+      <c r="H5" s="7">
+        <f>(A$4*9.81*COS(G5)*B5)/(1000*1000)</f>
+        <v>3.6781322802909036E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="16"/>
+      <c r="B6" s="3">
+        <v>100</v>
+      </c>
+      <c r="C6" s="2">
+        <v>3.25</v>
+      </c>
+      <c r="D6" s="7">
+        <f t="shared" si="0"/>
+        <v>5.6723200689815713E-2</v>
+      </c>
+      <c r="E6" s="7">
+        <f t="shared" si="1"/>
+        <v>4.8971111440837961E-2</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1.93</v>
+      </c>
+      <c r="G6" s="7">
+        <f t="shared" si="2"/>
+        <v>3.368485456349056E-2</v>
+      </c>
+      <c r="H6" s="7">
+        <f>(A$4*9.81*COS(G6)*B6)/(1000*1000)</f>
+        <v>4.9022174863480636E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1.41</v>
+      </c>
+      <c r="D7" s="7">
+        <f t="shared" si="0"/>
+        <v>2.4609142453120045E-2</v>
+      </c>
+      <c r="E7" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G7" s="7">
+        <f t="shared" si="2"/>
+        <v>9.948376736367677E-3</v>
+      </c>
+      <c r="H7" s="7">
+        <f>(A$4*9.81*COS(G7)*B7)/(1000*1000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="16">
+        <v>100</v>
+      </c>
+      <c r="B8" s="3">
+        <v>50</v>
+      </c>
+      <c r="C8" s="2">
+        <v>4</v>
+      </c>
+      <c r="D8" s="7">
+        <f t="shared" si="0"/>
+        <v>6.9813170079773182E-2</v>
+      </c>
+      <c r="E8" s="7">
+        <f>(A$8*9.81*COS(D8)*B8)/(1000*1000)</f>
+        <v>4.8930516665244374E-2</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1.45</v>
+      </c>
+      <c r="G8" s="7">
+        <f t="shared" si="2"/>
+        <v>2.5307274153917779E-2</v>
+      </c>
+      <c r="H8" s="7">
+        <f>(A$8*9.81*COS(G8)*B8)/(1000*1000)</f>
+        <v>4.9034293602782872E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="16"/>
+      <c r="B9" s="3">
+        <v>75</v>
+      </c>
+      <c r="C9" s="2">
+        <v>6.07</v>
+      </c>
+      <c r="D9" s="7">
+        <f t="shared" si="0"/>
+        <v>0.1059414855960558</v>
+      </c>
+      <c r="E9" s="7">
+        <f t="shared" ref="E9:E11" si="3">(A$8*9.81*COS(D9)*B9)/(1000*1000)</f>
+        <v>7.3162497904713381E-2</v>
+      </c>
+      <c r="F9" s="2">
+        <v>3.38</v>
+      </c>
+      <c r="G9" s="7">
+        <f t="shared" si="2"/>
+        <v>5.8992128717408339E-2</v>
+      </c>
+      <c r="H9" s="7">
+        <f t="shared" ref="H9:H11" si="4">(A$8*9.81*COS(G9)*B9)/(1000*1000)</f>
+        <v>7.34470140020268E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="16"/>
+      <c r="B10" s="3">
+        <v>100</v>
+      </c>
+      <c r="C10" s="2">
+        <v>7.91</v>
+      </c>
+      <c r="D10" s="7">
+        <f t="shared" si="0"/>
+        <v>0.13805554383275148</v>
+      </c>
+      <c r="E10" s="7">
+        <f t="shared" si="3"/>
+        <v>9.7166623582192094E-2</v>
+      </c>
+      <c r="F10" s="2">
+        <v>6.15</v>
+      </c>
+      <c r="G10" s="7">
+        <f t="shared" si="2"/>
+        <v>0.10733774899765128</v>
+      </c>
+      <c r="H10" s="7">
+        <f t="shared" si="4"/>
+        <v>9.753541808130764E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>2.33</v>
+      </c>
+      <c r="D11" s="7">
+        <f t="shared" si="0"/>
+        <v>4.0666171571467881E-2</v>
+      </c>
+      <c r="E11" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="16">
+        <v>200</v>
+      </c>
+      <c r="B12" s="3">
+        <v>50</v>
+      </c>
+      <c r="C12" s="2">
+        <v>6.94</v>
+      </c>
+      <c r="D12" s="7">
+        <f t="shared" si="0"/>
+        <v>0.12112585008840648</v>
+      </c>
+      <c r="E12" s="7">
+        <f>(A$12*9.81*COS(D12)*B12)/(1000*1000)</f>
+        <v>9.7381243732693801E-2</v>
+      </c>
+      <c r="F12" s="2">
+        <v>5.76</v>
+      </c>
+      <c r="G12" s="7">
+        <f t="shared" si="2"/>
+        <v>0.10053096491487337</v>
+      </c>
+      <c r="H12" s="7">
+        <f>(A$12*9.81*COS(G12)*B12)/(1000*1000)</f>
+        <v>9.7604694765865543E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="16"/>
+      <c r="B13" s="3">
+        <v>75</v>
+      </c>
+      <c r="C13" s="2">
+        <v>10.94</v>
+      </c>
+      <c r="D13" s="7">
+        <f t="shared" si="0"/>
+        <v>0.19093902016817965</v>
+      </c>
+      <c r="E13" s="7">
+        <f t="shared" ref="E13:E15" si="5">(A$12*9.81*COS(D13)*B13)/(1000*1000)</f>
+        <v>0.14447576357230818</v>
+      </c>
+      <c r="F13" s="2">
+        <v>10.28</v>
+      </c>
+      <c r="G13" s="7">
+        <f t="shared" si="2"/>
+        <v>0.17941984710501707</v>
+      </c>
+      <c r="H13" s="7">
+        <f t="shared" ref="H13:H14" si="6">(A$12*9.81*COS(G13)*B13)/(1000*1000)</f>
+        <v>0.14478785869422364</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="16"/>
+      <c r="B14" s="3">
+        <v>100</v>
+      </c>
+      <c r="C14" s="2">
+        <v>14.94</v>
+      </c>
+      <c r="D14" s="7">
+        <f t="shared" si="0"/>
+        <v>0.26075219024795282</v>
+      </c>
+      <c r="E14" s="7">
+        <f t="shared" si="5"/>
+        <v>0.18956772019747242</v>
+      </c>
+      <c r="F14" s="2">
+        <v>16.170000000000002</v>
+      </c>
+      <c r="G14" s="7">
+        <f t="shared" si="2"/>
+        <v>0.28221974004748313</v>
+      </c>
+      <c r="H14" s="7">
+        <f t="shared" si="6"/>
+        <v>0.18843825608030276</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2">
+        <v>3.56</v>
+      </c>
+      <c r="D15" s="7">
+        <f t="shared" si="0"/>
+        <v>6.2133721370998131E-2</v>
+      </c>
+      <c r="E15" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1.93</v>
+      </c>
+      <c r="G15" s="7">
+        <f t="shared" si="2"/>
+        <v>3.368485456349056E-2</v>
+      </c>
+      <c r="H15" s="7">
+        <f>(A$12*9.81*COS(G15)*B15)/(1000*1000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="16">
+        <v>500</v>
+      </c>
+      <c r="B16" s="3">
+        <v>50</v>
+      </c>
+      <c r="C16" s="2">
+        <v>14.46</v>
+      </c>
+      <c r="D16" s="7">
+        <f t="shared" si="0"/>
+        <v>0.25237460983838006</v>
+      </c>
+      <c r="E16" s="7">
+        <f>(A$16*9.81*COS(D16)*B16)/(1000*1000)</f>
+        <v>0.23748102019998255</v>
+      </c>
+      <c r="F16" s="2">
+        <v>14.42</v>
+      </c>
+      <c r="G16" s="7">
+        <f t="shared" si="2"/>
+        <v>0.25167647813758232</v>
+      </c>
+      <c r="H16" s="7">
+        <f>(A$16*9.81*COS(G16)*B16)/(1000*1000)</f>
+        <v>0.23752371585186985</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="16"/>
+      <c r="B17" s="3">
+        <v>75</v>
+      </c>
+      <c r="C17" s="2">
+        <v>21.54</v>
+      </c>
+      <c r="D17" s="7">
+        <f t="shared" si="0"/>
+        <v>0.37594392087957856</v>
+      </c>
+      <c r="E17" s="7">
+        <f t="shared" ref="E17:E19" si="7">(A$16*9.81*COS(D17)*B17)/(1000*1000)</f>
+        <v>0.34218315266747384</v>
+      </c>
+      <c r="F17" s="2">
+        <v>21.84</v>
+      </c>
+      <c r="G17" s="7">
+        <f t="shared" si="2"/>
+        <v>0.38117990863556156</v>
+      </c>
+      <c r="H17" s="7">
+        <f t="shared" ref="H17:H19" si="8">(A$16*9.81*COS(G17)*B17)/(1000*1000)</f>
+        <v>0.34147126371540037</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="16"/>
+      <c r="B18" s="3">
+        <v>100</v>
+      </c>
+      <c r="C18" s="2">
+        <v>27.25</v>
+      </c>
+      <c r="D18" s="7">
+        <f t="shared" si="0"/>
+        <v>0.4756022211684548</v>
+      </c>
+      <c r="E18" s="7">
+        <f t="shared" si="7"/>
+        <v>0.43606290789875374</v>
+      </c>
+      <c r="F18" s="2">
+        <v>32.479999999999997</v>
+      </c>
+      <c r="G18" s="7">
+        <f t="shared" si="2"/>
+        <v>0.56688294104775816</v>
+      </c>
+      <c r="H18" s="7">
+        <f t="shared" si="8"/>
+        <v>0.41377547368569079</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2">
+        <v>4.66</v>
+      </c>
+      <c r="D19" s="7">
+        <f t="shared" si="0"/>
+        <v>8.1332343142935762E-2</v>
+      </c>
+      <c r="E19" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="G19" s="7">
+        <f t="shared" si="2"/>
+        <v>7.52236907609556E-2</v>
+      </c>
+      <c r="H19" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2">
+        <v>33</v>
+      </c>
+      <c r="D21" s="8">
+        <f t="shared" si="0"/>
+        <v>0.57595865315812877</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2">
+        <v>35</v>
+      </c>
+      <c r="G21" s="8">
+        <f t="shared" si="2"/>
+        <v>0.6108652381980153</v>
+      </c>
+      <c r="L21" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="M21">
+        <v>0.91949999999999998</v>
+      </c>
+      <c r="N21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L22" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="M22">
+        <v>0.71550000000000002</v>
+      </c>
+      <c r="N22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L23" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="M23" s="13">
+        <f>AVERAGE(M21:M22)</f>
+        <v>0.8175</v>
+      </c>
+      <c r="N23" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A12:A14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A152C52-9BEF-4539-A232-585D88C97E4C}">
+  <dimension ref="A1:N23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="8" width="17.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="16">
+        <v>50</v>
+      </c>
+      <c r="B4" s="3">
+        <v>50</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="D4" s="7">
+        <f>RADIANS(C4)</f>
+        <v>3.1415926535897929E-3</v>
+      </c>
+      <c r="E4" s="7">
+        <f>(A$4*9.81*COS(D4)*B4)/(1000*1000)</f>
+        <v>2.4524878974075574E-2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="G4" s="7">
+        <f>RADIANS(F4)</f>
+        <v>6.9813170079773186E-4</v>
+      </c>
+      <c r="H4" s="7">
+        <f>(A$4*9.81*COS(G4)*B4)/(1000*1000)</f>
+        <v>2.4524994023406466E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="16"/>
+      <c r="B5" s="3">
+        <v>75</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="D5" s="7">
+        <f t="shared" ref="D5:D21" si="0">RADIANS(C5)</f>
+        <v>3.8397243543875251E-3</v>
+      </c>
+      <c r="E5" s="7">
+        <f t="shared" ref="E5:E7" si="1">(A$4*9.81*COS(D5)*B5)/(1000*1000)</f>
+        <v>3.6787228812390591E-2</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.62</v>
+      </c>
+      <c r="G5" s="7">
+        <f t="shared" ref="G5:G21" si="2">RADIANS(F5)</f>
+        <v>1.0821041362364843E-2</v>
+      </c>
+      <c r="H5" s="7">
+        <f>(A$4*9.81*COS(G5)*B5)/(1000*1000)</f>
+        <v>3.6785346206034554E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="16"/>
+      <c r="B6" s="3">
+        <v>100</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D6" s="7">
+        <f t="shared" si="0"/>
+        <v>9.948376736367677E-3</v>
+      </c>
+      <c r="E6" s="7">
+        <f t="shared" si="1"/>
+        <v>4.9047572775871302E-2</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.84</v>
+      </c>
+      <c r="G6" s="7">
+        <f t="shared" si="2"/>
+        <v>1.4660765716752368E-2</v>
+      </c>
+      <c r="H6" s="7">
+        <f>(A$4*9.81*COS(G6)*B6)/(1000*1000)</f>
+        <v>4.9044728738706612E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="D7" s="7">
+        <f t="shared" si="0"/>
+        <v>9.250245035569947E-3</v>
+      </c>
+      <c r="E7" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>-0.75</v>
+      </c>
+      <c r="G7" s="7">
+        <f t="shared" si="2"/>
+        <v>-1.3089969389957472E-2</v>
+      </c>
+      <c r="H7" s="7">
+        <f>(A$4*9.81*COS(G7)*B7)/(1000*1000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="16">
+        <v>100</v>
+      </c>
+      <c r="B8" s="3">
+        <v>50</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="D8" s="7">
+        <f t="shared" si="0"/>
+        <v>9.250245035569947E-3</v>
+      </c>
+      <c r="E8" s="7">
+        <f>(A$8*9.81*COS(D8)*B8)/(1000*1000)</f>
+        <v>4.9047901483474043E-2</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.44</v>
+      </c>
+      <c r="G8" s="7">
+        <f t="shared" si="2"/>
+        <v>7.6794487087750501E-3</v>
+      </c>
+      <c r="H8" s="7">
+        <f>(A$8*9.81*COS(G8)*B8)/(1000*1000)</f>
+        <v>4.9048553671414148E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="16"/>
+      <c r="B9" s="3">
+        <v>75</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1.63</v>
+      </c>
+      <c r="D9" s="7">
+        <f t="shared" si="0"/>
+        <v>2.8448866807507571E-2</v>
+      </c>
+      <c r="E9" s="7">
+        <f t="shared" ref="E9:E11" si="3">(A$8*9.81*COS(D9)*B9)/(1000*1000)</f>
+        <v>7.354522848550861E-2</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1.58</v>
+      </c>
+      <c r="G9" s="7">
+        <f t="shared" si="2"/>
+        <v>2.7576202181510408E-2</v>
+      </c>
+      <c r="H9" s="7">
+        <f t="shared" ref="H9:H11" si="4">(A$8*9.81*COS(G9)*B9)/(1000*1000)</f>
+        <v>7.3547026831425236E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="16"/>
+      <c r="B10" s="3">
+        <v>100</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2.94</v>
+      </c>
+      <c r="D10" s="7">
+        <f t="shared" si="0"/>
+        <v>5.1312680008633288E-2</v>
+      </c>
+      <c r="E10" s="7">
+        <f t="shared" si="3"/>
+        <v>9.7970880119778184E-2</v>
+      </c>
+      <c r="F10" s="2">
+        <v>2.77</v>
+      </c>
+      <c r="G10" s="7">
+        <f t="shared" si="2"/>
+        <v>4.8345620280242932E-2</v>
+      </c>
+      <c r="H10" s="7">
+        <f t="shared" si="4"/>
+        <v>9.7985377812172592E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1.71</v>
+      </c>
+      <c r="D11" s="7">
+        <f t="shared" si="0"/>
+        <v>2.9845130209103034E-2</v>
+      </c>
+      <c r="E11" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1.41</v>
+      </c>
+      <c r="G11" s="7">
+        <f t="shared" si="2"/>
+        <v>2.4609142453120045E-2</v>
+      </c>
+      <c r="H11" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="16">
+        <v>200</v>
+      </c>
+      <c r="B12" s="3">
+        <v>50</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="D12" s="7">
+        <f t="shared" si="0"/>
+        <v>4.4505895925855403E-2</v>
+      </c>
+      <c r="E12" s="7">
+        <f>(A$12*9.81*COS(D12)*B12)/(1000*1000)</f>
+        <v>9.8002859033544873E-2</v>
+      </c>
+      <c r="F12" s="2">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="G12" s="7">
+        <f t="shared" si="2"/>
+        <v>3.9095375244672985E-2</v>
+      </c>
+      <c r="H12" s="7">
+        <f>(A$12*9.81*COS(G12)*B12)/(1000*1000)</f>
+        <v>9.8025039156215799E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="16"/>
+      <c r="B13" s="3">
+        <v>75</v>
+      </c>
+      <c r="C13" s="2">
+        <v>4.97</v>
+      </c>
+      <c r="D13" s="7">
+        <f t="shared" si="0"/>
+        <v>8.674286382411818E-2</v>
+      </c>
+      <c r="E13" s="7">
+        <f t="shared" ref="E13:E15" si="5">(A$12*9.81*COS(D13)*B13)/(1000*1000)</f>
+        <v>0.14659674486695054</v>
+      </c>
+      <c r="F13" s="2">
+        <v>4.57</v>
+      </c>
+      <c r="G13" s="7">
+        <f t="shared" si="2"/>
+        <v>7.9761546816140866E-2</v>
+      </c>
+      <c r="H13" s="7">
+        <f t="shared" ref="H13:H14" si="6">(A$12*9.81*COS(G13)*B13)/(1000*1000)</f>
+        <v>0.14668217098994463</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="16"/>
+      <c r="B14" s="3">
+        <v>100</v>
+      </c>
+      <c r="C14" s="2">
+        <v>8.26</v>
+      </c>
+      <c r="D14" s="7">
+        <f t="shared" si="0"/>
+        <v>0.14416419621473162</v>
+      </c>
+      <c r="E14" s="7">
+        <f t="shared" si="5"/>
+        <v>0.19416468546717078</v>
+      </c>
+      <c r="F14" s="2">
+        <v>7.52</v>
+      </c>
+      <c r="G14" s="7">
+        <f t="shared" si="2"/>
+        <v>0.13124875974997358</v>
+      </c>
+      <c r="H14" s="7">
+        <f t="shared" si="6"/>
+        <v>0.19451253064003743</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2">
+        <v>2.99</v>
+      </c>
+      <c r="D15" s="7">
+        <f t="shared" si="0"/>
+        <v>5.2185344634630454E-2</v>
+      </c>
+      <c r="E15" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="G15" s="7">
+        <f t="shared" si="2"/>
+        <v>3.9095375244672985E-2</v>
+      </c>
+      <c r="H15" s="7">
+        <f>(A$12*9.81*COS(G15)*B15)/(1000*1000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="16">
+        <v>500</v>
+      </c>
+      <c r="B16" s="3">
+        <v>50</v>
+      </c>
+      <c r="C16" s="2">
+        <v>9.76</v>
+      </c>
+      <c r="D16" s="7">
+        <f t="shared" si="0"/>
+        <v>0.17034413499464657</v>
+      </c>
+      <c r="E16" s="7">
+        <f>(A$16*9.81*COS(D16)*B16)/(1000*1000)</f>
+        <v>0.24170037093259616</v>
+      </c>
+      <c r="F16" s="2">
+        <v>7.74</v>
+      </c>
+      <c r="G16" s="7">
+        <f t="shared" si="2"/>
+        <v>0.13508848410436111</v>
+      </c>
+      <c r="H16" s="7">
+        <f>(A$16*9.81*COS(G16)*B16)/(1000*1000)</f>
+        <v>0.24301562981902858</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="16"/>
+      <c r="B17" s="3">
+        <v>75</v>
+      </c>
+      <c r="C17" s="2">
+        <v>14.9</v>
+      </c>
+      <c r="D17" s="7">
+        <f t="shared" si="0"/>
+        <v>0.26005405854715513</v>
+      </c>
+      <c r="E17" s="7">
+        <f t="shared" ref="E17:E19" si="7">(A$16*9.81*COS(D17)*B17)/(1000*1000)</f>
+        <v>0.355505600180334</v>
+      </c>
+      <c r="F17" s="2">
+        <v>12.48</v>
+      </c>
+      <c r="G17" s="7">
+        <f t="shared" si="2"/>
+        <v>0.21781709064889235</v>
+      </c>
+      <c r="H17" s="7">
+        <f t="shared" ref="H17:H19" si="8">(A$16*9.81*COS(G17)*B17)/(1000*1000)</f>
+        <v>0.35918266531122112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="16"/>
+      <c r="B18" s="3">
+        <v>100</v>
+      </c>
+      <c r="C18" s="2">
+        <v>20.36</v>
+      </c>
+      <c r="D18" s="7">
+        <f t="shared" si="0"/>
+        <v>0.35534903570604548</v>
+      </c>
+      <c r="E18" s="7">
+        <f t="shared" si="7"/>
+        <v>0.45985606658176659</v>
+      </c>
+      <c r="F18" s="2">
+        <v>20.48</v>
+      </c>
+      <c r="G18" s="7">
+        <f t="shared" si="2"/>
+        <v>0.35744343080843871</v>
+      </c>
+      <c r="H18" s="7">
+        <f t="shared" si="8"/>
+        <v>0.4594976422215985</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2">
+        <v>5.01</v>
+      </c>
+      <c r="D19" s="7">
+        <f t="shared" si="0"/>
+        <v>8.744099552491591E-2</v>
+      </c>
+      <c r="E19" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
+        <v>-3.46</v>
+      </c>
+      <c r="G19" s="7">
+        <f t="shared" si="2"/>
+        <v>-6.0388392119003799E-2</v>
+      </c>
+      <c r="H19" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="M21">
+        <v>1.2737000000000001</v>
+      </c>
+      <c r="N21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L22" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="M22">
+        <v>1.2049000000000001</v>
+      </c>
+      <c r="N22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L23" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="M23" s="13">
+        <f>AVERAGE(M21:M22)</f>
+        <v>1.2393000000000001</v>
+      </c>
+      <c r="N23" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A12:A14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B90F1FC4-6CED-43A6-9F75-8078CCE7F8EB}">
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10896,16 +17455,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18" t="s">
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -10934,7 +17493,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="19">
+      <c r="A3" s="20">
         <v>10</v>
       </c>
       <c r="B3">
@@ -10964,7 +17523,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
+      <c r="A4" s="20"/>
       <c r="B4">
         <v>75</v>
       </c>
@@ -10992,7 +17551,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
+      <c r="A5" s="20"/>
       <c r="B5">
         <v>100</v>
       </c>
@@ -11050,7 +17609,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="19">
+      <c r="A7" s="20">
         <v>20</v>
       </c>
       <c r="B7">
@@ -11080,7 +17639,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
+      <c r="A8" s="20"/>
       <c r="B8">
         <v>75</v>
       </c>
@@ -11108,7 +17667,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
+      <c r="A9" s="20"/>
       <c r="B9">
         <v>100</v>
       </c>
@@ -11166,7 +17725,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="19">
+      <c r="A11" s="20">
         <v>50</v>
       </c>
       <c r="B11">
@@ -11196,7 +17755,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
+      <c r="A12" s="20"/>
       <c r="B12">
         <v>75</v>
       </c>
@@ -11224,7 +17783,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
+      <c r="A13" s="20"/>
       <c r="B13">
         <v>100</v>
       </c>
@@ -11282,7 +17841,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="19">
+      <c r="A15" s="20">
         <v>100</v>
       </c>
       <c r="B15">
@@ -11312,7 +17871,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
+      <c r="A16" s="20"/>
       <c r="B16">
         <v>75</v>
       </c>
@@ -11340,7 +17899,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
+      <c r="A17" s="20"/>
       <c r="B17">
         <v>100</v>
       </c>
@@ -11611,12 +18170,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CDA47AA-D9B0-4A8D-A01C-E20429437D7C}">
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11625,16 +18184,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18" t="s">
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -11663,7 +18222,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="19">
+      <c r="A3" s="20">
         <v>50</v>
       </c>
       <c r="B3">
@@ -11693,7 +18252,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
+      <c r="A4" s="20"/>
       <c r="B4">
         <v>75</v>
       </c>
@@ -11721,7 +18280,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
+      <c r="A5" s="20"/>
       <c r="B5">
         <v>100</v>
       </c>
@@ -11779,7 +18338,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="19">
+      <c r="A7" s="20">
         <v>100</v>
       </c>
       <c r="B7">
@@ -11809,7 +18368,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
+      <c r="A8" s="20"/>
       <c r="B8">
         <v>75</v>
       </c>
@@ -11837,7 +18396,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
+      <c r="A9" s="20"/>
       <c r="B9">
         <v>100</v>
       </c>
@@ -11895,7 +18454,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="19">
+      <c r="A11" s="20">
         <v>200</v>
       </c>
       <c r="B11">
@@ -11925,7 +18484,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
+      <c r="A12" s="20"/>
       <c r="B12">
         <v>75</v>
       </c>
@@ -11953,7 +18512,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
+      <c r="A13" s="20"/>
       <c r="B13">
         <v>100</v>
       </c>
@@ -12035,18 +18594,18 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="20"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
       <c r="J20" t="s">
         <v>9</v>
       </c>
@@ -12059,10 +18618,10 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
       <c r="J21" t="s">
         <v>10</v>
       </c>
@@ -12075,16 +18634,16 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="20"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
       <c r="J23" t="s">
         <v>12</v>
       </c>
@@ -12097,26 +18656,26 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="20"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="20"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
       <c r="L25">
         <f>L23*4</f>
         <v>14.438169924830838</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="20"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
+      <c r="A26" s="21"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -12132,12 +18691,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B3929C0-B96D-4F9B-8D10-24FEEFAD81E6}">
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12146,16 +18705,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18" t="s">
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -12184,7 +18743,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="19">
+      <c r="A3" s="20">
         <v>50</v>
       </c>
       <c r="B3">
@@ -12214,7 +18773,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
+      <c r="A4" s="20"/>
       <c r="B4">
         <v>75</v>
       </c>
@@ -12242,7 +18801,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
+      <c r="A5" s="20"/>
       <c r="B5">
         <v>100</v>
       </c>
@@ -12300,7 +18859,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="19">
+      <c r="A7" s="20">
         <v>100</v>
       </c>
       <c r="B7">
@@ -12330,7 +18889,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
+      <c r="A8" s="20"/>
       <c r="B8">
         <v>75</v>
       </c>
@@ -12358,7 +18917,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
+      <c r="A9" s="20"/>
       <c r="B9">
         <v>100</v>
       </c>
@@ -12416,7 +18975,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="19">
+      <c r="A11" s="20">
         <v>200</v>
       </c>
       <c r="B11">
@@ -12446,7 +19005,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
+      <c r="A12" s="20"/>
       <c r="B12">
         <v>75</v>
       </c>
@@ -12474,7 +19033,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
+      <c r="A13" s="20"/>
       <c r="B13">
         <v>100</v>
       </c>
@@ -12556,18 +19115,18 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="20"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
       <c r="J20" t="s">
         <v>9</v>
       </c>
@@ -12580,10 +19139,10 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
       <c r="J21" t="s">
         <v>10</v>
       </c>
@@ -12596,16 +19155,16 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="20"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
       <c r="J23" t="s">
         <v>12</v>
       </c>
@@ -12618,22 +19177,22 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="20"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="20"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="20"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
+      <c r="A26" s="21"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -12647,644 +19206,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF22B8A3-95C2-4791-94DF-9E76D33A34B1}">
-  <dimension ref="A1:M30"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="8" width="15.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C1" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="19">
-        <v>50</v>
-      </c>
-      <c r="B3">
-        <v>50</v>
-      </c>
-      <c r="C3">
-        <v>0.79</v>
-      </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D20" si="0">RADIANS(C3)</f>
-        <v>1.3788101090755204E-2</v>
-      </c>
-      <c r="E3">
-        <f>(A$3*9.81*COS(D3)*B3)/(1000*1000)</f>
-        <v>2.4522668791823018E-2</v>
-      </c>
-      <c r="F3">
-        <v>0.62</v>
-      </c>
-      <c r="G3">
-        <f>RADIANS(F3)</f>
-        <v>1.0821041362364843E-2</v>
-      </c>
-      <c r="H3">
-        <f>(A$3*9.81*COS(G3)*B3)/(1000*1000)</f>
-        <v>2.4523564137356367E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4">
-        <v>75</v>
-      </c>
-      <c r="C4">
-        <v>1.36</v>
-      </c>
-      <c r="D4">
-        <f t="shared" si="0"/>
-        <v>2.3736477827122883E-2</v>
-      </c>
-      <c r="E4">
-        <f t="shared" ref="E4:E6" si="1">(A$3*9.81*COS(D4)*B4)/(1000*1000)</f>
-        <v>3.6777137072962776E-2</v>
-      </c>
-      <c r="F4">
-        <v>1.19</v>
-      </c>
-      <c r="G4">
-        <f t="shared" ref="G4:G14" si="2">RADIANS(F4)</f>
-        <v>2.076941809873252E-2</v>
-      </c>
-      <c r="H4">
-        <f t="shared" ref="H4:H6" si="3">(A$3*9.81*COS(G4)*B4)/(1000*1000)</f>
-        <v>3.6779565796676489E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
-      <c r="B5">
-        <v>100</v>
-      </c>
-      <c r="C5">
-        <v>1.76</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>3.07177948351002E-2</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="1"/>
-        <v>4.9026860448491472E-2</v>
-      </c>
-      <c r="F5">
-        <v>1.41</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="2"/>
-        <v>2.4609142453120045E-2</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="3"/>
-        <v>4.903514816694933E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0.44</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>7.6794487087750501E-3</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.26</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="2"/>
-        <v>4.5378560551852572E-3</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="19">
-        <v>100</v>
-      </c>
-      <c r="B7">
-        <v>50</v>
-      </c>
-      <c r="C7">
-        <v>1.71</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>2.9845130209103034E-2</v>
-      </c>
-      <c r="E7">
-        <f>(A$7*9.81*COS(D7)*B7)/(1000*1000)</f>
-        <v>4.9028156424143231E-2</v>
-      </c>
-      <c r="F7">
-        <v>1.41</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="2"/>
-        <v>2.4609142453120045E-2</v>
-      </c>
-      <c r="H7">
-        <f>(A$7*9.81*COS(G7)*B7)/(1000*1000)</f>
-        <v>4.903514816694933E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
-      <c r="B8">
-        <v>75</v>
-      </c>
-      <c r="C8">
-        <v>2.68</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>4.6774823953448036E-2</v>
-      </c>
-      <c r="E8">
-        <f t="shared" ref="E8:E10" si="4">(A$7*9.81*COS(D8)*B8)/(1000*1000)</f>
-        <v>7.3494527885192965E-2</v>
-      </c>
-      <c r="F8">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="2"/>
-        <v>3.8397243543875255E-2</v>
-      </c>
-      <c r="H8">
-        <f t="shared" ref="H8:H9" si="5">(A$7*9.81*COS(G8)*B8)/(1000*1000)</f>
-        <v>7.3520769074911452E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
-      <c r="B9">
-        <v>100</v>
-      </c>
-      <c r="C9">
-        <v>3.74</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>6.527531402458793E-2</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="4"/>
-        <v>9.7891078690199168E-2</v>
-      </c>
-      <c r="F9">
-        <v>3.12</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="2"/>
-        <v>5.4454272662223087E-2</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="5"/>
-        <v>9.7954589550933682E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0.92</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
-        <v>1.6057029118347832E-2</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.4</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="2"/>
-        <v>6.9813170079773184E-3</v>
-      </c>
-      <c r="H10">
-        <f>(A$7*9.81*COS(G10)*B10)/(1000*1000)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="19">
-        <v>200</v>
-      </c>
-      <c r="B11">
-        <v>50</v>
-      </c>
-      <c r="C11">
-        <v>3.82</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
-        <v>6.667157742618339E-2</v>
-      </c>
-      <c r="E11">
-        <f>(A$11*9.81*COS(D11)*B11)/(1000*1000)</f>
-        <v>9.7882048635017246E-2</v>
-      </c>
-      <c r="F11">
-        <v>3.03</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="2"/>
-        <v>5.2883476335428184E-2</v>
-      </c>
-      <c r="H11">
-        <f>(A$11*9.81*COS(G11)*B11)/(1000*1000)</f>
-        <v>9.7962855692160053E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
-      <c r="B12">
-        <v>75</v>
-      </c>
-      <c r="C12">
-        <v>5.89</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
-        <v>0.102799892942466</v>
-      </c>
-      <c r="E12">
-        <f t="shared" ref="E12:E14" si="6">(A$11*9.81*COS(D12)*B12)/(1000*1000)</f>
-        <v>0.14637315728080433</v>
-      </c>
-      <c r="F12">
-        <v>5.05</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="2"/>
-        <v>8.813912722571364E-2</v>
-      </c>
-      <c r="H12">
-        <f t="shared" ref="H12:H14" si="7">(A$11*9.81*COS(G12)*B12)/(1000*1000)</f>
-        <v>0.14657880211276461</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
-      <c r="B13">
-        <v>100</v>
-      </c>
-      <c r="C13">
-        <v>8.0399999999999991</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="0"/>
-        <v>0.14032447186034408</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="6"/>
-        <v>0.19427148472285499</v>
-      </c>
-      <c r="F13">
-        <v>7.6</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="2"/>
-        <v>0.13264502315156904</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="7"/>
-        <v>0.19447648899735248</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>2.11</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="0"/>
-        <v>3.6826447217080352E-2</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1.01</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="2"/>
-        <v>1.7627825445142728E-2</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="19">
-        <v>500</v>
-      </c>
-      <c r="B15">
-        <v>50</v>
-      </c>
-      <c r="C15">
-        <v>9.67</v>
-      </c>
-      <c r="D15">
-        <f t="shared" ref="D15:D18" si="8">RADIANS(C15)</f>
-        <v>0.16877333866785166</v>
-      </c>
-      <c r="E15">
-        <f>(A$15*9.81*COS(D15)*B15)/(1000*1000)</f>
-        <v>0.24176537881459353</v>
-      </c>
-      <c r="F15">
-        <v>8.66</v>
-      </c>
-      <c r="G15">
-        <f t="shared" ref="G15:G18" si="9">RADIANS(F15)</f>
-        <v>0.15114551322270894</v>
-      </c>
-      <c r="H15">
-        <f>(A$15*9.81*COS(G15)*B15)/(1000*1000)</f>
-        <v>0.24245396505301486</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
-      <c r="B16">
-        <v>75</v>
-      </c>
-      <c r="C16">
-        <v>14.33</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="8"/>
-        <v>0.25010568181078741</v>
-      </c>
-      <c r="E16">
-        <f>(A$15*9.81*COS(D16)*B16)/(1000*1000)</f>
-        <v>0.35642903665040032</v>
-      </c>
-      <c r="F16">
-        <v>13.72</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="9"/>
-        <v>0.23945917337362202</v>
-      </c>
-      <c r="H16">
-        <f>(A$15*9.81*COS(G16)*B16)/(1000*1000)</f>
-        <v>0.35737819774312474</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
-      <c r="B17">
-        <v>100</v>
-      </c>
-      <c r="C17">
-        <v>20.88</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="8"/>
-        <v>0.36442474781641598</v>
-      </c>
-      <c r="E17">
-        <f>(A$15*9.81*COS(D17)*B17)/(1000*1000)</f>
-        <v>0.45828834627496817</v>
-      </c>
-      <c r="F17">
-        <v>21.11</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="9"/>
-        <v>0.36843900509600297</v>
-      </c>
-      <c r="H17">
-        <f>(A$15*9.81*COS(G17)*B17)/(1000*1000)</f>
-        <v>0.45758288311152356</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>7.12</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="8"/>
-        <v>0.12426744274199626</v>
-      </c>
-      <c r="E18">
-        <f>(A$15*9.81*COS(D18)*B18)/(1000*1000)</f>
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>2.46</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="9"/>
-        <v>4.2935099599060507E-2</v>
-      </c>
-      <c r="H18">
-        <f t="shared" ref="H18" si="10">(A$11*9.81*COS(G18)*B18)/(1000*1000)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20">
-        <v>60</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="0"/>
-        <v>1.0471975511965976</v>
-      </c>
-      <c r="F20">
-        <v>56</v>
-      </c>
-      <c r="G20">
-        <f t="shared" ref="G20" si="11">RADIANS(F20)</f>
-        <v>0.97738438111682457</v>
-      </c>
-      <c r="J20" t="s">
-        <v>9</v>
-      </c>
-      <c r="L20">
-        <f>1/0.6842</f>
-        <v>1.4615609470914936</v>
-      </c>
-      <c r="M20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J21" t="s">
-        <v>10</v>
-      </c>
-      <c r="L21">
-        <f>1/0.7209</f>
-        <v>1.3871549452073797</v>
-      </c>
-      <c r="M21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="J23" t="s">
-        <v>12</v>
-      </c>
-      <c r="L23">
-        <f>AVERAGE(L20,L21)</f>
-        <v>1.4243579461494367</v>
-      </c>
-      <c r="M23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="20"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="20"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="L25">
-        <f>L23*4</f>
-        <v>5.6974317845977467</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="20"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="20"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="20"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="20"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="20"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A23:D30"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A11:A13"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/CAD_Mechanical/AARL_QR-Quadruped/AARL_QR_FR-Frame/InProgress/Haonan/AARL_QR_FR_LE_BI_BL-Back_Left_new/Adjustable Spiral Torsion Spring/3D Printed Torsion Spring Calculations.xlsx
+++ b/CAD_Mechanical/AARL_QR-Quadruped/AARL_QR_FR-Frame/InProgress/Haonan/AARL_QR_FR_LE_BI_BL-Back_Left_new/Adjustable Spiral Torsion Spring/3D Printed Torsion Spring Calculations.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Quadruped_Robot\CAD_Mechanical\AARL_QR-Quadruped\AARL_QR_FR-Frame\InProgress\Haonan\AARL_QR_FR_LE_BI_BL-Back_Left_new\Adjustable Spiral Torsion Spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F749005-36CB-43BA-A16A-55B0D1E76F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A644549-94A4-430D-97C1-4AC09D0C4C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hip Spring Table" sheetId="7" r:id="rId1"/>
     <sheet name="2L6LT4ST" sheetId="8" r:id="rId2"/>
-    <sheet name="3L4LT4ST O1" sheetId="12" r:id="rId3"/>
-    <sheet name="3L4LT4ST M2" sheetId="10" r:id="rId4"/>
+    <sheet name="3L4LT4ST.O1" sheetId="12" r:id="rId3"/>
+    <sheet name="3L4LT4ST.M2" sheetId="10" r:id="rId4"/>
     <sheet name="4L3LT6ST" sheetId="9" r:id="rId5"/>
-    <sheet name="4L3LT6ST+3L4LT4ST" sheetId="11" r:id="rId6"/>
+    <sheet name="4L3LT6ST+3L4LT4ST.M2" sheetId="11" r:id="rId6"/>
     <sheet name="Test Spring 3" sheetId="2" r:id="rId7"/>
     <sheet name="Test Spring 3 FG" sheetId="3" r:id="rId8"/>
     <sheet name="Test Spring 3 FG Set 2" sheetId="4" r:id="rId9"/>
@@ -1231,7 +1231,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'3L4LT4ST O1'!$C$2:$E$2</c:f>
+              <c:f>'3L4LT4ST.O1'!$C$2:$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1314,7 +1314,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>('3L4LT4ST O1'!$D$4:$D$6,'3L4LT4ST O1'!$D$8:$D$10,'3L4LT4ST O1'!$D$12:$D$14,'3L4LT4ST O1'!$D$16:$D$18)</c:f>
+              <c:f>('3L4LT4ST.O1'!$D$4:$D$6,'3L4LT4ST.O1'!$D$8:$D$10,'3L4LT4ST.O1'!$D$12:$D$14,'3L4LT4ST.O1'!$D$16:$D$18)</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1359,7 +1359,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('3L4LT4ST O1'!$E$4:$E$6,'3L4LT4ST O1'!$E$8:$E$10,'3L4LT4ST O1'!$E$12:$E$14,'3L4LT4ST O1'!$E$16:$E$18)</c:f>
+              <c:f>('3L4LT4ST.O1'!$E$4:$E$6,'3L4LT4ST.O1'!$E$8:$E$10,'3L4LT4ST.O1'!$E$12:$E$14,'3L4LT4ST.O1'!$E$16:$E$18)</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1414,7 +1414,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'3L4LT4ST O1'!$F$2:$H$2</c:f>
+              <c:f>'3L4LT4ST.O1'!$F$2:$H$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1497,7 +1497,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>('3L4LT4ST O1'!$G$4:$G$6,'3L4LT4ST O1'!$G$8:$G$10,'3L4LT4ST O1'!$G$12:$G$14,'3L4LT4ST O1'!$G$16:$G$18)</c:f>
+              <c:f>('3L4LT4ST.O1'!$G$4:$G$6,'3L4LT4ST.O1'!$G$8:$G$10,'3L4LT4ST.O1'!$G$12:$G$14,'3L4LT4ST.O1'!$G$16:$G$18)</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1542,7 +1542,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('3L4LT4ST O1'!$H$4:$H$6,'3L4LT4ST O1'!$H$8:$H$10,'3L4LT4ST O1'!$H$12:$H$14,'3L4LT4ST O1'!$H$16:$H$18)</c:f>
+              <c:f>('3L4LT4ST.O1'!$H$4:$H$6,'3L4LT4ST.O1'!$H$8:$H$10,'3L4LT4ST.O1'!$H$12:$H$14,'3L4LT4ST.O1'!$H$16:$H$18)</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1983,7 +1983,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'3L4LT4ST M2'!$C$2:$E$2</c:f>
+              <c:f>'3L4LT4ST.M2'!$C$2:$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2066,7 +2066,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>('3L4LT4ST M2'!$D$4:$D$6,'3L4LT4ST M2'!$D$8:$D$10,'3L4LT4ST M2'!$D$12:$D$14,'3L4LT4ST M2'!$D$16:$D$18)</c:f>
+              <c:f>('3L4LT4ST.M2'!$D$4:$D$6,'3L4LT4ST.M2'!$D$8:$D$10,'3L4LT4ST.M2'!$D$12:$D$14,'3L4LT4ST.M2'!$D$16:$D$18)</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2111,7 +2111,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('3L4LT4ST M2'!$E$4:$E$6,'3L4LT4ST M2'!$E$8:$E$10,'3L4LT4ST M2'!$E$12:$E$14,'3L4LT4ST M2'!$E$16:$E$18)</c:f>
+              <c:f>('3L4LT4ST.M2'!$E$4:$E$6,'3L4LT4ST.M2'!$E$8:$E$10,'3L4LT4ST.M2'!$E$12:$E$14,'3L4LT4ST.M2'!$E$16:$E$18)</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2166,7 +2166,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'3L4LT4ST M2'!$F$2:$H$2</c:f>
+              <c:f>'3L4LT4ST.M2'!$F$2:$H$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2249,7 +2249,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>('3L4LT4ST M2'!$G$4:$G$6,'3L4LT4ST M2'!$G$8:$G$10,'3L4LT4ST M2'!$G$12:$G$14,'3L4LT4ST M2'!$G$16:$G$18)</c:f>
+              <c:f>('3L4LT4ST.M2'!$G$4:$G$6,'3L4LT4ST.M2'!$G$8:$G$10,'3L4LT4ST.M2'!$G$12:$G$14,'3L4LT4ST.M2'!$G$16:$G$18)</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2294,7 +2294,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('3L4LT4ST M2'!$H$4:$H$6,'3L4LT4ST M2'!$H$8:$H$10,'3L4LT4ST M2'!$H$12:$H$14,'3L4LT4ST M2'!$H$16:$H$18)</c:f>
+              <c:f>('3L4LT4ST.M2'!$H$4:$H$6,'3L4LT4ST.M2'!$H$8:$H$10,'3L4LT4ST.M2'!$H$12:$H$14,'3L4LT4ST.M2'!$H$16:$H$18)</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="12"/>
@@ -3485,7 +3485,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'4L3LT6ST+3L4LT4ST'!$C$2:$E$2</c:f>
+              <c:f>'4L3LT6ST+3L4LT4ST.M2'!$C$2:$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3568,7 +3568,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>('4L3LT6ST+3L4LT4ST'!$D$4:$D$6,'4L3LT6ST+3L4LT4ST'!$D$8:$D$10,'4L3LT6ST+3L4LT4ST'!$D$12:$D$14,'4L3LT6ST+3L4LT4ST'!$D$16:$D$18)</c:f>
+              <c:f>('4L3LT6ST+3L4LT4ST.M2'!$D$4:$D$6,'4L3LT6ST+3L4LT4ST.M2'!$D$8:$D$10,'4L3LT6ST+3L4LT4ST.M2'!$D$12:$D$14,'4L3LT6ST+3L4LT4ST.M2'!$D$16:$D$18)</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="12"/>
@@ -3613,7 +3613,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('4L3LT6ST+3L4LT4ST'!$E$4:$E$6,'4L3LT6ST+3L4LT4ST'!$E$8:$E$10,'4L3LT6ST+3L4LT4ST'!$E$12:$E$14,'4L3LT6ST+3L4LT4ST'!$E$16:$E$18)</c:f>
+              <c:f>('4L3LT6ST+3L4LT4ST.M2'!$E$4:$E$6,'4L3LT6ST+3L4LT4ST.M2'!$E$8:$E$10,'4L3LT6ST+3L4LT4ST.M2'!$E$12:$E$14,'4L3LT6ST+3L4LT4ST.M2'!$E$16:$E$18)</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="12"/>
@@ -3668,7 +3668,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'4L3LT6ST+3L4LT4ST'!$F$2:$H$2</c:f>
+              <c:f>'4L3LT6ST+3L4LT4ST.M2'!$F$2:$H$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3751,7 +3751,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>('4L3LT6ST+3L4LT4ST'!$G$4:$G$6,'4L3LT6ST+3L4LT4ST'!$G$8:$G$10,'4L3LT6ST+3L4LT4ST'!$G$12:$G$14,'4L3LT6ST+3L4LT4ST'!$G$16:$G$18)</c:f>
+              <c:f>('4L3LT6ST+3L4LT4ST.M2'!$G$4:$G$6,'4L3LT6ST+3L4LT4ST.M2'!$G$8:$G$10,'4L3LT6ST+3L4LT4ST.M2'!$G$12:$G$14,'4L3LT6ST+3L4LT4ST.M2'!$G$16:$G$18)</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="12"/>
@@ -3796,7 +3796,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('4L3LT6ST+3L4LT4ST'!$H$4:$H$6,'4L3LT6ST+3L4LT4ST'!$H$8:$H$10,'4L3LT6ST+3L4LT4ST'!$H$12:$H$14,'4L3LT6ST+3L4LT4ST'!$H$16:$H$18)</c:f>
+              <c:f>('4L3LT6ST+3L4LT4ST.M2'!$H$4:$H$6,'4L3LT6ST+3L4LT4ST.M2'!$H$8:$H$10,'4L3LT6ST+3L4LT4ST.M2'!$H$12:$H$14,'4L3LT6ST+3L4LT4ST.M2'!$H$16:$H$18)</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="12"/>
@@ -12588,9 +12588,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -12628,7 +12628,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -12734,7 +12734,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -12876,7 +12876,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -12886,8 +12886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21CEBFFD-D877-4251-A7C8-DAFF0369D5AB}">
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14444,10 +14444,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFA74A3D-8B14-45D1-B319-AB4200826715}">
-  <dimension ref="A1:N30"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15023,18 +15023,6 @@
       </c>
       <c r="N23" s="13" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G29">
-        <f>2*5*(4^3)</f>
-        <v>640</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G30">
-        <f>4*6*(3^3)</f>
-        <v>648</v>
       </c>
     </row>
   </sheetData>
@@ -15654,8 +15642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1E6D04F-DDA3-4D38-BAAD-DF6A01F783DA}">
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16852,7 +16840,7 @@
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/CAD_Mechanical/AARL_QR-Quadruped/AARL_QR_FR-Frame/InProgress/Haonan/AARL_QR_FR_LE_BI_BL-Back_Left_new/Adjustable Spiral Torsion Spring/3D Printed Torsion Spring Calculations.xlsx
+++ b/CAD_Mechanical/AARL_QR-Quadruped/AARL_QR_FR-Frame/InProgress/Haonan/AARL_QR_FR_LE_BI_BL-Back_Left_new/Adjustable Spiral Torsion Spring/3D Printed Torsion Spring Calculations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Quadruped_Robot\CAD_Mechanical\AARL_QR-Quadruped\AARL_QR_FR-Frame\InProgress\Haonan\AARL_QR_FR_LE_BI_BL-Back_Left_new\Adjustable Spiral Torsion Spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A644549-94A4-430D-97C1-4AC09D0C4C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{429734A8-6CD4-401F-8BD7-ED9DB2EC56CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hip Spring Table" sheetId="7" r:id="rId1"/>
@@ -18,11 +18,12 @@
     <sheet name="3L4LT4ST.O1" sheetId="12" r:id="rId3"/>
     <sheet name="3L4LT4ST.M2" sheetId="10" r:id="rId4"/>
     <sheet name="4L3LT6ST" sheetId="9" r:id="rId5"/>
-    <sheet name="4L3LT6ST+3L4LT4ST.M2" sheetId="11" r:id="rId6"/>
-    <sheet name="Test Spring 3" sheetId="2" r:id="rId7"/>
-    <sheet name="Test Spring 3 FG" sheetId="3" r:id="rId8"/>
-    <sheet name="Test Spring 3 FG Set 2" sheetId="4" r:id="rId9"/>
-    <sheet name="Test Spring 3 Kevlar" sheetId="6" r:id="rId10"/>
+    <sheet name="2L5LT12ST" sheetId="13" r:id="rId6"/>
+    <sheet name="4L3LT6ST+3L4LT4ST.M2" sheetId="11" r:id="rId7"/>
+    <sheet name="Test Spring 3" sheetId="2" r:id="rId8"/>
+    <sheet name="Test Spring 3 FG" sheetId="3" r:id="rId9"/>
+    <sheet name="Test Spring 3 FG Set 2" sheetId="4" r:id="rId10"/>
+    <sheet name="Test Spring 3 Kevlar" sheetId="6" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="68">
   <si>
     <t>unloaded</t>
   </si>
@@ -253,6 +254,15 @@
   <si>
     <t>2 Leg - 6mm Leg Thickness - 4mm Spring Thickness</t>
   </si>
+  <si>
+    <t>4 Leg - 3mm Leg Thickness - 6mm Spring Thickness (Corrected for play in spring)</t>
+  </si>
+  <si>
+    <t>+- 2.3° play in spring</t>
+  </si>
+  <si>
+    <t>*seems like 5mm leg thickness is the maximum that we can do without surface cracking</t>
+  </si>
 </sst>
 </file>
 
@@ -261,7 +271,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,6 +289,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -321,10 +338,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -383,9 +401,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1078,6 +1099,1528 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Test</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Spring 3 with Fiberglass Inlay Set 2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Clockwise Torque</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.17314583280010334"/>
+                  <c:y val="6.0513371790263233E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Test Spring 3 FG Set 2'!$E$3:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2.4523786387935651E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6781322802909036E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9031351220950155E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.9030152323672402E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.3496911689523339E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.7910698515983899E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.7896625562990211E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.14643005939253601</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.19433324716438419</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Test Spring 3 FG Set 2'!$D$3:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>9.948376736367677E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8325957145940461E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7576202181510408E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.9813170079773184E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8448866807507571E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.6076692252650299E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.2133721370998131E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.53588974175501E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.4402649398590764E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.896016858807849E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.13805554383275148</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.07177948351002E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-28E3-4536-AB97-F4E14DF8A737}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Counter-Clockwise Torque</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.17501739569872377"/>
+                  <c:y val="-7.1581499113116911E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Test Spring 3 FG Set 2'!$H$3:$H$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2.4523169690922587E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6779023461117152E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9030152323672402E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.9031351220950155E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.3504411655450311E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.7896625562990211E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.7901009383595805E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1464750099192639</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.19433324716438419</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Test Spring 3 FG Set 2'!$G$3:$G$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.2217304763960306E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1467549799530253E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8448866807507571E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.4105206811824215E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.7576202181510408E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.3807764225057666E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.4402649398590764E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.250245035569947E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.3704517697793034E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.5818575934488698E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.13805554383275148</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.1467549799530253E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-28E3-4536-AB97-F4E14DF8A737}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1382923647"/>
+        <c:axId val="2116997007"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1382923647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Torque (N-m)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2116997007"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2116997007"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Deflection (rad)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.0555555555555555E-2"/>
+              <c:y val="0.37907771945173518"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1382923647"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Test</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Spring 3 with Fiberglass Inlay</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Clockwise Torque</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.17314583280010334"/>
+                  <c:y val="6.0513371790263233E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Test Spring 3 Kevlar'!$E$3:$E$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>2.4522668791823018E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6777137072962776E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9026860448491472E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.9028156424143231E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.3494527885192965E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.7891078690199168E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.7882048635017246E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.14637315728080433</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.19427148472285499</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.24176537881459353</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.35642903665040032</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.45828834627496817</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Test Spring 3 Kevlar'!$D$3:$D$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1.3788101090755204E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3736477827122883E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.07177948351002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.6794487087750501E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9845130209103034E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.6774823953448036E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.527531402458793E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6057029118347832E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.667157742618339E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.102799892942466</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.14032447186034408</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.6826447217080352E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.16877333866785166</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.25010568181078741</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.36442474781641598</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.12426744274199626</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-40C3-4F13-97CA-A456D014F5BC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Counter-Clockwise Torque</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.17501739569872377"/>
+                  <c:y val="-7.1581499113116911E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Test Spring 3 Kevlar'!$H$3:$H$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>2.4523564137356367E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6779565796676489E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.903514816694933E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.903514816694933E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.3520769074911452E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.7954589550933682E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.7962855692160053E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.14657880211276461</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.19447648899735248</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.24245396505301486</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.35737819774312474</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.45758288311152356</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Test Spring 3 Kevlar'!$G$3:$G$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1.0821041362364843E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.076941809873252E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4609142453120045E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5378560551852572E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4609142453120045E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.8397243543875255E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.4454272662223087E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.9813170079773184E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.2883476335428184E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.813912722571364E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.13264502315156904</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.7627825445142728E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.15114551322270894</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.23945917337362202</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.36843900509600297</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.2935099599060507E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-40C3-4F13-97CA-A456D014F5BC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1382923647"/>
+        <c:axId val="2116997007"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1382923647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Torque (N-m)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2116997007"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2116997007"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Deflection (rad)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.0555555555555555E-2"/>
+              <c:y val="0.37907771945173518"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1382923647"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3485,7 +5028,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'4L3LT6ST+3L4LT4ST.M2'!$C$2:$E$2</c:f>
+              <c:f>'2L5LT12ST'!$C$2:$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3532,8 +5075,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.35133284120734909"/>
-                  <c:y val="0.38918061152004058"/>
+                  <c:x val="-5.0118110236220474E-2"/>
+                  <c:y val="0.36995317613688844"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -3568,90 +5111,108 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>('4L3LT6ST+3L4LT4ST.M2'!$D$4:$D$6,'4L3LT6ST+3L4LT4ST.M2'!$D$8:$D$10,'4L3LT6ST+3L4LT4ST.M2'!$D$12:$D$14,'4L3LT6ST+3L4LT4ST.M2'!$D$16:$D$18)</c:f>
+              <c:f>('2L5LT12ST'!$D$4:$D$6,'2L5LT12ST'!$D$8:$D$10,'2L5LT12ST'!$D$12:$D$14,'2L5LT12ST'!$D$16:$D$18,'2L5LT12ST'!$D$20:$D$22)</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>3.1415926535897929E-3</c:v>
+                  <c:v>4.0666171571467881E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.8397243543875251E-3</c:v>
+                  <c:v>4.2935099599060507E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.948376736367677E-3</c:v>
+                  <c:v>4.6076692252650299E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.250245035569947E-3</c:v>
+                  <c:v>5.2185344634630454E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.8448866807507571E-2</c:v>
+                  <c:v>5.2185344634630454E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.1312680008633288E-2</c:v>
+                  <c:v>5.8293997016610602E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.4505895925855403E-2</c:v>
+                  <c:v>5.5152404363020817E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>6.597344572538566E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.5870199198121014E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>8.674286382411818E-2</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.14416419621473162</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.17034413499464657</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.26005405854715513</c:v>
+                  <c:v>0.10890854532444617</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.35534903570604548</c:v>
+                  <c:v>0.12810716709638378</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.12740903539558607</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.17331119472303691</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.20629791758572977</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('4L3LT6ST+3L4LT4ST.M2'!$E$4:$E$6,'4L3LT6ST+3L4LT4ST.M2'!$E$8:$E$10,'4L3LT6ST+3L4LT4ST.M2'!$E$12:$E$14,'4L3LT6ST+3L4LT4ST.M2'!$E$16:$E$18)</c:f>
+              <c:f>('2L5LT12ST'!$E$4:$E$6,'2L5LT12ST'!$E$8:$E$10,'2L5LT12ST'!$E$12:$E$14,'2L5LT12ST'!$E$16:$E$18,'2L5LT12ST'!$E$20:$E$22)</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>2.4524878974075574E-2</c:v>
+                  <c:v>2.4504723838298687E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.6787228812390591E-2</c:v>
+                  <c:v>3.6753597750779798E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.9047572775871302E-2</c:v>
+                  <c:v>4.89979411263489E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.9047901483474043E-2</c:v>
+                  <c:v>4.8983225973405847E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.354522848550861E-2</c:v>
+                  <c:v>7.3474838960108771E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.7970880119778184E-2</c:v>
+                  <c:v>9.7933365972035738E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.8002859033544873E-2</c:v>
+                  <c:v>9.795083812861731E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.14659674486695054</c:v>
+                  <c:v>0.14682988127546251</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.19416468546717078</c:v>
+                  <c:v>0.19547708527838739</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.24170037093259616</c:v>
+                  <c:v>0.24432790811158425</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.355505600180334</c:v>
+                  <c:v>0.3656954597929577</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.45985606658176659</c:v>
+                  <c:v>0.48648059433968621</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.48652422409040957</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.72472785377998183</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.96019882355464536</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3659,7 +5220,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A2BA-4B44-82A4-A753B74E08D0}"/>
+              <c16:uniqueId val="{00000001-7D37-46D4-B7BE-FA548D807A98}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3668,7 +5229,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'4L3LT6ST+3L4LT4ST.M2'!$F$2:$H$2</c:f>
+              <c:f>'2L5LT12ST'!$F$2:$H$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3715,8 +5276,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.46863270997375328"/>
-                  <c:y val="0.27476268392463915"/>
+                  <c:x val="-0.51726644520997378"/>
+                  <c:y val="0.31568148678039271"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -3751,90 +5312,108 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>('4L3LT6ST+3L4LT4ST.M2'!$G$4:$G$6,'4L3LT6ST+3L4LT4ST.M2'!$G$8:$G$10,'4L3LT6ST+3L4LT4ST.M2'!$G$12:$G$14,'4L3LT6ST+3L4LT4ST.M2'!$G$16:$G$18)</c:f>
+              <c:f>('2L5LT12ST'!$G$4:$G$6,'2L5LT12ST'!$G$8:$G$10,'2L5LT12ST'!$G$12:$G$14,'2L5LT12ST'!$G$16:$G$18,'2L5LT12ST'!$G$20:$G$22)</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>6.9813170079773186E-4</c:v>
+                  <c:v>4.2935099599060507E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0821041362364843E-2</c:v>
+                  <c:v>5.2883476335428184E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4660765716752368E-2</c:v>
+                  <c:v>5.1312680008633288E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.6794487087750501E-3</c:v>
+                  <c:v>5.0614548307835558E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.7576202181510408E-2</c:v>
+                  <c:v>5.8992128717408339E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.8345620280242932E-2</c:v>
+                  <c:v>6.4402649398590764E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.9095375244672985E-2</c:v>
+                  <c:v>6.4402649398590764E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.9761546816140866E-2</c:v>
+                  <c:v>7.52236907609556E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.13124875974997358</c:v>
+                  <c:v>8.674286382411818E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.13508848410436111</c:v>
+                  <c:v>9.2851516206098342E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.21781709064889235</c:v>
+                  <c:v>0.11903145498601328</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.35744343080843871</c:v>
+                  <c:v>0.14643312424232427</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.14119713648634125</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.18797196043978928</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.23474678439323732</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('4L3LT6ST+3L4LT4ST.M2'!$H$4:$H$6,'4L3LT6ST+3L4LT4ST.M2'!$H$8:$H$10,'4L3LT6ST+3L4LT4ST.M2'!$H$12:$H$14,'4L3LT6ST+3L4LT4ST.M2'!$H$16:$H$18)</c:f>
+              <c:f>('2L5LT12ST'!$H$4:$H$6,'2L5LT12ST'!$H$8:$H$10,'2L5LT12ST'!$H$12:$H$14,'2L5LT12ST'!$H$16:$H$18,'2L5LT12ST'!$H$20:$H$22)</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>2.4524994023406466E-2</c:v>
+                  <c:v>2.4502398500519867E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.6785346206034554E-2</c:v>
+                  <c:v>3.6736070884560018E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.9044728738706612E-2</c:v>
+                  <c:v>4.8985440059889092E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.9048553671414148E-2</c:v>
+                  <c:v>4.8987184469884336E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.3547026831425236E-2</c:v>
+                  <c:v>7.34470140020268E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.7985377812172592E-2</c:v>
+                  <c:v>9.7896625562990211E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.8025039156215799E-2</c:v>
+                  <c:v>9.7896625562990211E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.14668217098994463</c:v>
+                  <c:v>0.14673386452066961</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.19451253064003743</c:v>
+                  <c:v>0.1954623264892674</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.24301562981902858</c:v>
+                  <c:v>0.24419355965414355</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.35918266531122112</c:v>
+                  <c:v>0.36527195947904639</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.4594976422215985</c:v>
+                  <c:v>0.48525057786199838</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.48561865904269624</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.72278993201696839</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.95409437750895576</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3842,7 +5421,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-A2BA-4B44-82A4-A753B74E08D0}"/>
+              <c16:uniqueId val="{00000003-7D37-46D4-B7BE-FA548D807A98}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4191,6 +5770,1544 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
+              <a:t>4L3LT6ST</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2L5LT12ST'!$C$2:$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Clockwise Torque</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.4720103346456693E-2"/>
+                  <c:y val="0.33418275147681981"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('2L5LT12ST'!$D$35:$D$37,'2L5LT12ST'!$D$39:$D$41,'2L5LT12ST'!$D$43:$D$45,'2L5LT12ST'!$D$47:$D$49,'2L5LT12ST'!$D$51:$D$53)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>5.2359877559830326E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7925268031909296E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.9341194567807259E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2042771838760881E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2042771838760881E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8151424220741029E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.500983156715124E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5830872929516076E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.5727626402251434E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.66002910282486E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.8765972528576594E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.7964594300514204E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.7266462599716474E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.13316862192716733</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.16615534478986016</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('2L5LT12ST'!$E$4:$E$6,'2L5LT12ST'!$E$8:$E$10,'2L5LT12ST'!$E$12:$E$14,'2L5LT12ST'!$E$16:$E$18,'2L5LT12ST'!$E$20:$E$22)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2.4504723838298687E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6753597750779798E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.89979411263489E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.8983225973405847E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.3474838960108771E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.7933365972035738E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.795083812861731E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14682988127546251</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.19547708527838739</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.24432790811158425</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.3656954597929577</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.48648059433968621</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.48652422409040957</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.72472785377998183</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.96019882355464536</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CF42-4EF2-A9C2-7864CF553E99}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2L5LT12ST'!$F$2:$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Counter-Clockwise Torque</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.37505474901574803"/>
+                  <c:y val="0.14949075130928463"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('2L5LT12ST'!$G$35:$G$37,'2L5LT12ST'!$G$39:$G$41,'2L5LT12ST'!$G$43:$G$45,'2L5LT12ST'!$G$47:$G$49,'2L5LT12ST'!$G$51:$G$53)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2.7925268031909296E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2740903539558606E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1170107212763711E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0471975511965978E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8849555921538759E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4260076602721184E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4260076602721184E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.508111796508602E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.66002910282486E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.2708943410228762E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.88888821901437E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.10629055144645468</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.10105456369047168</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.1478293876439197</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.19460421159736771</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('2L5LT12ST'!$H$4:$H$6,'2L5LT12ST'!$H$8:$H$10,'2L5LT12ST'!$H$12:$H$14,'2L5LT12ST'!$H$16:$H$18,'2L5LT12ST'!$H$20:$H$22)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2.4502398500519867E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6736070884560018E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8985440059889092E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.8987184469884336E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.34470140020268E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.7896625562990211E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.7896625562990211E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14673386452066961</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1954623264892674</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.24419355965414355</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.36527195947904639</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.48525057786199838</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.48561865904269624</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.72278993201696839</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.95409437750895576</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-CF42-4EF2-A9C2-7864CF553E99}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="369439439"/>
+        <c:axId val="285172559"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="369439439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Deflection</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (rad)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="285172559"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="285172559"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Torque</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (N-m)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="369439439"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>4L3LT6ST</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'4L3LT6ST+3L4LT4ST.M2'!$C$2:$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Clockwise Torque</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.35133284120734909"/>
+                  <c:y val="0.38918061152004058"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('4L3LT6ST+3L4LT4ST.M2'!$D$4:$D$6,'4L3LT6ST+3L4LT4ST.M2'!$D$8:$D$10,'4L3LT6ST+3L4LT4ST.M2'!$D$12:$D$14,'4L3LT6ST+3L4LT4ST.M2'!$D$16:$D$18)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>3.1415926535897929E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8397243543875251E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.948376736367677E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.250245035569947E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8448866807507571E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.1312680008633288E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.4505895925855403E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.674286382411818E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.14416419621473162</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.17034413499464657</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.26005405854715513</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.35534903570604548</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('4L3LT6ST+3L4LT4ST.M2'!$E$4:$E$6,'4L3LT6ST+3L4LT4ST.M2'!$E$8:$E$10,'4L3LT6ST+3L4LT4ST.M2'!$E$12:$E$14,'4L3LT6ST+3L4LT4ST.M2'!$E$16:$E$18)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2.4524878974075574E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6787228812390591E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9047572775871302E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9047901483474043E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.354522848550861E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.7970880119778184E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.8002859033544873E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14659674486695054</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.19416468546717078</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.24170037093259616</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.355505600180334</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.45985606658176659</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A2BA-4B44-82A4-A753B74E08D0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'4L3LT6ST+3L4LT4ST.M2'!$F$2:$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Counter-Clockwise Torque</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.46863270997375328"/>
+                  <c:y val="0.27476268392463915"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('4L3LT6ST+3L4LT4ST.M2'!$G$4:$G$6,'4L3LT6ST+3L4LT4ST.M2'!$G$8:$G$10,'4L3LT6ST+3L4LT4ST.M2'!$G$12:$G$14,'4L3LT6ST+3L4LT4ST.M2'!$G$16:$G$18)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>6.9813170079773186E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0821041362364843E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4660765716752368E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.6794487087750501E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.7576202181510408E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.8345620280242932E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.9095375244672985E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.9761546816140866E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.13124875974997358</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.13508848410436111</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.21781709064889235</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.35744343080843871</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('4L3LT6ST+3L4LT4ST.M2'!$H$4:$H$6,'4L3LT6ST+3L4LT4ST.M2'!$H$8:$H$10,'4L3LT6ST+3L4LT4ST.M2'!$H$12:$H$14,'4L3LT6ST+3L4LT4ST.M2'!$H$16:$H$18)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2.4524994023406466E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6785346206034554E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9044728738706612E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9048553671414148E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.3547026831425236E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.7985377812172592E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.8025039156215799E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14668217098994463</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.19451253064003743</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.24301562981902858</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.35918266531122112</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.4594976422215985</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A2BA-4B44-82A4-A753B74E08D0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="369439439"/>
+        <c:axId val="285172559"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="369439439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Deflection</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (rad)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="285172559"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="285172559"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Torque</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (N-m)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="369439439"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>Test</a:t>
             </a:r>
             <a:r>
@@ -4630,1480 +7747,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000C-23D4-4E5C-8615-4FD854B8D82C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1382923647"/>
-        <c:axId val="2116997007"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1382923647"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Torque (N-m)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2116997007"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2116997007"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Deflection (rad)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="3.0555555555555555E-2"/>
-              <c:y val="0.37907771945173518"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1382923647"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Test</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Spring 3 with Fiberglass Inlay</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Clockwise Torque</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.17314583280010334"/>
-                  <c:y val="6.0513371790263233E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Test Spring 3 FG'!$E$3:$E$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>2.4524819208260391E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.678660351457471E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.9047128274712734E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.9047128274712734E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.356445641979964E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9.8068587205565744E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.8066830279794764E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.14702413071252554</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.1958213970319678</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Test Spring 3 FG'!$D$3:$D$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>3.8397243543875251E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.9813170079773184E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0821041362364843E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.1415926535897929E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.0821041362364843E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.6929693744344994E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.5307274153917779E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.1415926535897929E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.6005405854715509E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.1364303272265611E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6.2133721370998131E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.2217304763960306E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8BC4-4D2F-A7DB-05B476D456D9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Counter-Clockwise Torque</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.17501739569872377"/>
-                  <c:y val="-7.1581499113116911E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Test Spring 3 FG'!$H$3:$H$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>2.4524641031712015E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.6786209063294606E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.9046339381845175E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.9046339381845175E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.3559131593352978E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9.8056312848286462E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.807029633389866E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.14699968214162956</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.19582985450533863</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Test Spring 3 FG'!$G$3:$G$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>5.4105206811824215E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.377580409572781E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.2217304763960306E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.5378560551852572E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.2217304763960306E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.076941809873252E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.9845130209103034E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.6794487087750501E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.4609142453120045E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.5204027626653133E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6.1435589670200401E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.1519173063162575E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-8BC4-4D2F-A7DB-05B476D456D9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1382923647"/>
-        <c:axId val="2116997007"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1382923647"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Torque (N-m)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2116997007"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2116997007"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Deflection (rad)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="3.0555555555555555E-2"/>
-              <c:y val="0.37907771945173518"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1382923647"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Test</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Spring 3 with Fiberglass Inlay Set 2</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Clockwise Torque</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.17314583280010334"/>
-                  <c:y val="6.0513371790263233E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Test Spring 3 FG Set 2'!$E$3:$E$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>2.4523786387935651E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.6781322802909036E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.9031351220950155E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.9030152323672402E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.3496911689523339E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9.7910698515983899E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.7896625562990211E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.14643005939253601</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.19433324716438419</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Test Spring 3 FG Set 2'!$D$3:$D$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>9.948376736367677E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.8325957145940461E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.7576202181510408E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.9813170079773184E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.8448866807507571E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.6076692252650299E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.2133721370998131E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.53588974175501E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.4402649398590764E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.896016858807849E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.13805554383275148</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.07177948351002E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-28E3-4536-AB97-F4E14DF8A737}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Counter-Clockwise Torque</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.17501739569872377"/>
-                  <c:y val="-7.1581499113116911E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Test Spring 3 FG Set 2'!$H$3:$H$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>2.4523169690922587E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.6779023461117152E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.9030152323672402E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.9031351220950155E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.3504411655450311E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9.7896625562990211E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.7901009383595805E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.1464750099192639</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.19433324716438419</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Test Spring 3 FG Set 2'!$G$3:$G$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1.2217304763960306E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.1467549799530253E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.8448866807507571E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.4105206811824215E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.7576202181510408E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.3807764225057666E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.4402649398590764E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9.250245035569947E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.3704517697793034E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.5818575934488698E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.13805554383275148</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.1467549799530253E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-28E3-4536-AB97-F4E14DF8A737}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6574,56 +8217,44 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Test Spring 3 Kevlar'!$E$3:$E$18</c:f>
+              <c:f>'Test Spring 3 FG'!$E$3:$E$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>2.4522668791823018E-2</c:v>
+                  <c:v>2.4524819208260391E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.6777137072962776E-2</c:v>
+                  <c:v>3.678660351457471E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.9026860448491472E-2</c:v>
+                  <c:v>4.9047128274712734E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.9028156424143231E-2</c:v>
+                  <c:v>4.9047128274712734E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.3494527885192965E-2</c:v>
+                  <c:v>7.356445641979964E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.7891078690199168E-2</c:v>
+                  <c:v>9.8068587205565744E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.7882048635017246E-2</c:v>
+                  <c:v>9.8066830279794764E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.14637315728080433</c:v>
+                  <c:v>0.14702413071252554</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.19427148472285499</c:v>
+                  <c:v>0.1958213970319678</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.24176537881459353</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.35642903665040032</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.45828834627496817</c:v>
-                </c:pt>
-                <c:pt idx="15">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -6631,57 +8262,45 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Test Spring 3 Kevlar'!$D$3:$D$18</c:f>
+              <c:f>'Test Spring 3 FG'!$D$3:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1.3788101090755204E-2</c:v>
+                  <c:v>3.8397243543875251E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.3736477827122883E-2</c:v>
+                  <c:v>6.9813170079773184E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.07177948351002E-2</c:v>
+                  <c:v>1.0821041362364843E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.6794487087750501E-3</c:v>
+                  <c:v>3.1415926535897929E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.9845130209103034E-2</c:v>
+                  <c:v>1.0821041362364843E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.6774823953448036E-2</c:v>
+                  <c:v>1.6929693744344994E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.527531402458793E-2</c:v>
+                  <c:v>2.5307274153917779E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.6057029118347832E-2</c:v>
+                  <c:v>3.1415926535897929E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.667157742618339E-2</c:v>
+                  <c:v>2.6005405854715509E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.102799892942466</c:v>
+                  <c:v>4.1364303272265611E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.14032447186034408</c:v>
+                  <c:v>6.2133721370998131E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.6826447217080352E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.16877333866785166</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.25010568181078741</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.36442474781641598</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.12426744274199626</c:v>
+                  <c:v>1.2217304763960306E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6689,7 +8308,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-40C3-4F13-97CA-A456D014F5BC}"/>
+              <c16:uniqueId val="{00000001-8BC4-4D2F-A7DB-05B476D456D9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6773,56 +8392,44 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Test Spring 3 Kevlar'!$H$3:$H$18</c:f>
+              <c:f>'Test Spring 3 FG'!$H$3:$H$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>2.4523564137356367E-2</c:v>
+                  <c:v>2.4524641031712015E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.6779565796676489E-2</c:v>
+                  <c:v>3.6786209063294606E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.903514816694933E-2</c:v>
+                  <c:v>4.9046339381845175E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.903514816694933E-2</c:v>
+                  <c:v>4.9046339381845175E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.3520769074911452E-2</c:v>
+                  <c:v>7.3559131593352978E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.7954589550933682E-2</c:v>
+                  <c:v>9.8056312848286462E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.7962855692160053E-2</c:v>
+                  <c:v>9.807029633389866E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.14657880211276461</c:v>
+                  <c:v>0.14699968214162956</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.19447648899735248</c:v>
+                  <c:v>0.19582985450533863</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.24245396505301486</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.35737819774312474</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.45758288311152356</c:v>
-                </c:pt>
-                <c:pt idx="15">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -6830,57 +8437,45 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Test Spring 3 Kevlar'!$G$3:$G$18</c:f>
+              <c:f>'Test Spring 3 FG'!$G$3:$G$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1.0821041362364843E-2</c:v>
+                  <c:v>5.4105206811824215E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.076941809873252E-2</c:v>
+                  <c:v>8.377580409572781E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.4609142453120045E-2</c:v>
+                  <c:v>1.2217304763960306E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>4.5378560551852572E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>1.2217304763960306E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.076941809873252E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.9845130209103034E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.6794487087750501E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>2.4609142453120045E-2</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.8397243543875255E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.4454272662223087E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.9813170079773184E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.2883476335428184E-2</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.813912722571364E-2</c:v>
+                  <c:v>4.5204027626653133E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.13264502315156904</c:v>
+                  <c:v>6.1435589670200401E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.7627825445142728E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.15114551322270894</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.23945917337362202</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.36843900509600297</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.2935099599060507E-2</c:v>
+                  <c:v>1.1519173063162575E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6888,7 +8483,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-40C3-4F13-97CA-A456D014F5BC}"/>
+              <c16:uniqueId val="{00000003-8BC4-4D2F-A7DB-05B476D456D9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7201,6 +8796,86 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -8076,6 +9751,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -12229,6 +14936,49 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8D610C9-1D01-4640-BA20-C71292B54847}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -12394,6 +15144,87 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F367E764-E0ED-4D99-A1EF-C9FFA806B883}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>14286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0E9896E-8428-41D6-869C-8F98B0D3F42B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>14286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76505583-DF74-4FAA-B069-39F82B1950AE}"/>
             </a:ext>
           </a:extLst>
@@ -12417,7 +15248,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -12458,7 +15289,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -12501,7 +15332,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -12522,49 +15353,6 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA41B248-4575-4BB4-875C-0A66A91A89DD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>4761</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8D610C9-1D01-4640-BA20-C71292B54847}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12886,7 +15674,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21CEBFFD-D877-4251-A7C8-DAFF0369D5AB}">
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -13803,6 +16591,523 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B3929C0-B96D-4F9B-8D10-24FEEFAD81E6}">
+  <dimension ref="A1:M26"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P23" sqref="P23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="8" width="15.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C1" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="20">
+        <v>50</v>
+      </c>
+      <c r="B3">
+        <v>50</v>
+      </c>
+      <c r="C3">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D16" si="0">RADIANS(C3)</f>
+        <v>9.948376736367677E-3</v>
+      </c>
+      <c r="E3">
+        <f>(A$3*9.81*COS(D3)*B3)/(1000*1000)</f>
+        <v>2.4523786387935651E-2</v>
+      </c>
+      <c r="F3">
+        <v>0.7</v>
+      </c>
+      <c r="G3">
+        <f>RADIANS(F3)</f>
+        <v>1.2217304763960306E-2</v>
+      </c>
+      <c r="H3">
+        <f>(A$3*9.81*COS(G3)*B3)/(1000*1000)</f>
+        <v>2.4523169690922587E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="20"/>
+      <c r="B4">
+        <v>75</v>
+      </c>
+      <c r="C4">
+        <v>1.05</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>1.8325957145940461E-2</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E6" si="1">(A$3*9.81*COS(D4)*B4)/(1000*1000)</f>
+        <v>3.6781322802909036E-2</v>
+      </c>
+      <c r="F4">
+        <v>1.23</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G14" si="2">RADIANS(F4)</f>
+        <v>2.1467549799530253E-2</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H6" si="3">(A$3*9.81*COS(G4)*B4)/(1000*1000)</f>
+        <v>3.6779023461117152E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="20"/>
+      <c r="B5">
+        <v>100</v>
+      </c>
+      <c r="C5">
+        <v>1.58</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>2.7576202181510408E-2</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>4.9031351220950155E-2</v>
+      </c>
+      <c r="F5">
+        <v>1.63</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>2.8448866807507571E-2</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="3"/>
+        <v>4.9030152323672402E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0.4</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>6.9813170079773184E-3</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.31</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>5.4105206811824215E-3</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="20">
+        <v>100</v>
+      </c>
+      <c r="B7">
+        <v>50</v>
+      </c>
+      <c r="C7">
+        <v>1.63</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>2.8448866807507571E-2</v>
+      </c>
+      <c r="E7">
+        <f>(A$7*9.81*COS(D7)*B7)/(1000*1000)</f>
+        <v>4.9030152323672402E-2</v>
+      </c>
+      <c r="F7">
+        <v>1.58</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>2.7576202181510408E-2</v>
+      </c>
+      <c r="H7">
+        <f>(A$7*9.81*COS(G7)*B7)/(1000*1000)</f>
+        <v>4.9031351220950155E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="20"/>
+      <c r="B8">
+        <v>75</v>
+      </c>
+      <c r="C8">
+        <v>2.64</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>4.6076692252650299E-2</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ref="E8:E10" si="4">(A$7*9.81*COS(D8)*B8)/(1000*1000)</f>
+        <v>7.3496911689523339E-2</v>
+      </c>
+      <c r="F8">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>4.3807764225057666E-2</v>
+      </c>
+      <c r="H8">
+        <f t="shared" ref="H8:H9" si="5">(A$7*9.81*COS(G8)*B8)/(1000*1000)</f>
+        <v>7.3504411655450311E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="20"/>
+      <c r="B9">
+        <v>100</v>
+      </c>
+      <c r="C9">
+        <v>3.56</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>6.2133721370998131E-2</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="4"/>
+        <v>9.7910698515983899E-2</v>
+      </c>
+      <c r="F9">
+        <v>3.69</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>6.4402649398590764E-2</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="5"/>
+        <v>9.7896625562990211E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0.88</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>1.53588974175501E-2</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0.53</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>9.250245035569947E-3</v>
+      </c>
+      <c r="H10">
+        <f>(A$7*9.81*COS(G10)*B10)/(1000*1000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="20">
+        <v>200</v>
+      </c>
+      <c r="B11">
+        <v>50</v>
+      </c>
+      <c r="C11">
+        <v>3.69</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>6.4402649398590764E-2</v>
+      </c>
+      <c r="E11">
+        <f>(A$11*9.81*COS(D11)*B11)/(1000*1000)</f>
+        <v>9.7896625562990211E-2</v>
+      </c>
+      <c r="F11">
+        <v>3.65</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>6.3704517697793034E-2</v>
+      </c>
+      <c r="H11">
+        <f>(A$11*9.81*COS(G11)*B11)/(1000*1000)</f>
+        <v>9.7901009383595805E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="20"/>
+      <c r="B12">
+        <v>75</v>
+      </c>
+      <c r="C12">
+        <v>5.67</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>9.896016858807849E-2</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ref="E12:E14" si="6">(A$11*9.81*COS(D12)*B12)/(1000*1000)</f>
+        <v>0.14643005939253601</v>
+      </c>
+      <c r="F12">
+        <v>5.49</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>9.5818575934488698E-2</v>
+      </c>
+      <c r="H12">
+        <f t="shared" ref="H12:H14" si="7">(A$11*9.81*COS(G12)*B12)/(1000*1000)</f>
+        <v>0.1464750099192639</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="20"/>
+      <c r="B13">
+        <v>100</v>
+      </c>
+      <c r="C13">
+        <v>7.91</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>0.13805554383275148</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="6"/>
+        <v>0.19433324716438419</v>
+      </c>
+      <c r="F13">
+        <v>7.91</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>0.13805554383275148</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="7"/>
+        <v>0.19433324716438419</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>1.76</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>3.07177948351002E-2</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1.23</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>2.1467549799530253E-2</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>60</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>1.0471975511965976</v>
+      </c>
+      <c r="F16">
+        <v>56</v>
+      </c>
+      <c r="G16">
+        <f t="shared" ref="G16" si="8">RADIANS(F16)</f>
+        <v>0.97738438111682457</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="J20" t="s">
+        <v>9</v>
+      </c>
+      <c r="L20">
+        <f>1/0.6234</f>
+        <v>1.6041065126724416</v>
+      </c>
+      <c r="M20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="J21" t="s">
+        <v>10</v>
+      </c>
+      <c r="L21">
+        <f>1/0.6399</f>
+        <v>1.5627441787779339</v>
+      </c>
+      <c r="M21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="J23" t="s">
+        <v>12</v>
+      </c>
+      <c r="L23">
+        <f>AVERAGE(L20,L21)</f>
+        <v>1.5834253457251877</v>
+      </c>
+      <c r="M23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="21"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A19:D26"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A11:A13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF22B8A3-95C2-4791-94DF-9E76D33A34B1}">
   <dimension ref="A1:M30"/>
   <sheetViews>
@@ -14444,10 +17749,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFA74A3D-8B14-45D1-B319-AB4200826715}">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14886,7 +18191,7 @@
         <v>0.22826326061013963</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="16"/>
       <c r="B17" s="3">
         <v>75</v>
@@ -14914,7 +18219,7 @@
         <v>0.31739464422754232</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="16"/>
       <c r="B18" s="3">
         <v>100</v>
@@ -14942,7 +18247,7 @@
         <v>0.38285463499208666</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>0</v>
       </c>
@@ -14972,7 +18277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>13</v>
       </c>
@@ -15001,8 +18306,12 @@
       <c r="N21" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P21" s="23">
+        <f>ABS(M21-M22)/M23</f>
+        <v>0.1957374254049446</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="L22" s="14" t="s">
         <v>58</v>
       </c>
@@ -15012,8 +18321,9 @@
       <c r="N22" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P22" s="23"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="L23" s="12" t="s">
         <v>59</v>
       </c>
@@ -15640,10 +18950,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1E6D04F-DDA3-4D38-BAAD-DF6A01F783DA}">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16220,6 +19530,12 @@
       </c>
       <c r="N23" s="13" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G33">
+        <f>0.8175/0.5865</f>
+        <v>1.3938618925831201</v>
       </c>
     </row>
   </sheetData>
@@ -16242,7 +19558,7 @@
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16836,6 +20152,1452 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B415D6B-E848-4B07-9099-31D65C6117F4}">
+  <dimension ref="A1:N56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="8" width="17.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="16">
+        <v>50</v>
+      </c>
+      <c r="B4" s="3">
+        <v>50</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2.33</v>
+      </c>
+      <c r="D4" s="7">
+        <f>RADIANS(C4)</f>
+        <v>4.0666171571467881E-2</v>
+      </c>
+      <c r="E4" s="7">
+        <f>(A$4*9.81*COS(D4)*B4)/(1000*1000)</f>
+        <v>2.4504723838298687E-2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2.46</v>
+      </c>
+      <c r="G4" s="7">
+        <f>RADIANS(F4)</f>
+        <v>4.2935099599060507E-2</v>
+      </c>
+      <c r="H4" s="7">
+        <f>(A$4*9.81*COS(G4)*B4)/(1000*1000)</f>
+        <v>2.4502398500519867E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="16"/>
+      <c r="B5" s="3">
+        <v>75</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2.46</v>
+      </c>
+      <c r="D5" s="7">
+        <f t="shared" ref="D5:D25" si="0">RADIANS(C5)</f>
+        <v>4.2935099599060507E-2</v>
+      </c>
+      <c r="E5" s="7">
+        <f t="shared" ref="E5:E6" si="1">(A$4*9.81*COS(D5)*B5)/(1000*1000)</f>
+        <v>3.6753597750779798E-2</v>
+      </c>
+      <c r="F5" s="2">
+        <v>3.03</v>
+      </c>
+      <c r="G5" s="7">
+        <f t="shared" ref="G5:G25" si="2">RADIANS(F5)</f>
+        <v>5.2883476335428184E-2</v>
+      </c>
+      <c r="H5" s="7">
+        <f>(A$4*9.81*COS(G5)*B5)/(1000*1000)</f>
+        <v>3.6736070884560018E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="16"/>
+      <c r="B6" s="3">
+        <v>100</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2.64</v>
+      </c>
+      <c r="D6" s="7">
+        <f t="shared" si="0"/>
+        <v>4.6076692252650299E-2</v>
+      </c>
+      <c r="E6" s="7">
+        <f t="shared" si="1"/>
+        <v>4.89979411263489E-2</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2.94</v>
+      </c>
+      <c r="G6" s="7">
+        <f t="shared" si="2"/>
+        <v>5.1312680008633288E-2</v>
+      </c>
+      <c r="H6" s="7">
+        <f>(A$4*9.81*COS(G6)*B6)/(1000*1000)</f>
+        <v>4.8985440059889092E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="D7" s="7">
+        <f t="shared" si="0"/>
+        <v>3.1415926535897934E-2</v>
+      </c>
+      <c r="E7" s="7">
+        <f>(A$4*9.81*COS(D7)*B7)/(1000*1000)</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="G7" s="7">
+        <f t="shared" si="2"/>
+        <v>8.377580409572781E-3</v>
+      </c>
+      <c r="H7" s="7">
+        <f>(A$4*9.81*COS(G7)*B7)/(1000*1000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="16">
+        <v>100</v>
+      </c>
+      <c r="B8" s="3">
+        <v>50</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2.99</v>
+      </c>
+      <c r="D8" s="7">
+        <f t="shared" si="0"/>
+        <v>5.2185344634630454E-2</v>
+      </c>
+      <c r="E8" s="7">
+        <f>(A$8*9.81*COS(D8)*B8)/(1000*1000)</f>
+        <v>4.8983225973405847E-2</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="G8" s="7">
+        <f t="shared" si="2"/>
+        <v>5.0614548307835558E-2</v>
+      </c>
+      <c r="H8" s="7">
+        <f>(A$8*9.81*COS(G8)*B8)/(1000*1000)</f>
+        <v>4.8987184469884336E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="16"/>
+      <c r="B9" s="3">
+        <v>75</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2.99</v>
+      </c>
+      <c r="D9" s="7">
+        <f t="shared" si="0"/>
+        <v>5.2185344634630454E-2</v>
+      </c>
+      <c r="E9" s="7">
+        <f t="shared" ref="E9:E11" si="3">(A$8*9.81*COS(D9)*B9)/(1000*1000)</f>
+        <v>7.3474838960108771E-2</v>
+      </c>
+      <c r="F9" s="2">
+        <v>3.38</v>
+      </c>
+      <c r="G9" s="7">
+        <f t="shared" si="2"/>
+        <v>5.8992128717408339E-2</v>
+      </c>
+      <c r="H9" s="7">
+        <f t="shared" ref="H9:H11" si="4">(A$8*9.81*COS(G9)*B9)/(1000*1000)</f>
+        <v>7.34470140020268E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="16"/>
+      <c r="B10" s="3">
+        <v>100</v>
+      </c>
+      <c r="C10" s="2">
+        <v>3.34</v>
+      </c>
+      <c r="D10" s="7">
+        <f t="shared" si="0"/>
+        <v>5.8293997016610602E-2</v>
+      </c>
+      <c r="E10" s="7">
+        <f t="shared" si="3"/>
+        <v>9.7933365972035738E-2</v>
+      </c>
+      <c r="F10" s="2">
+        <v>3.69</v>
+      </c>
+      <c r="G10" s="7">
+        <f t="shared" si="2"/>
+        <v>6.4402649398590764E-2</v>
+      </c>
+      <c r="H10" s="7">
+        <f t="shared" si="4"/>
+        <v>9.7896625562990211E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="D11" s="7">
+        <f t="shared" si="0"/>
+        <v>3.1415926535897929E-3</v>
+      </c>
+      <c r="E11" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.62</v>
+      </c>
+      <c r="G11" s="7">
+        <f t="shared" si="2"/>
+        <v>1.0821041362364843E-2</v>
+      </c>
+      <c r="H11" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="16">
+        <v>200</v>
+      </c>
+      <c r="B12" s="3">
+        <v>50</v>
+      </c>
+      <c r="C12" s="2">
+        <v>3.16</v>
+      </c>
+      <c r="D12" s="7">
+        <f t="shared" si="0"/>
+        <v>5.5152404363020817E-2</v>
+      </c>
+      <c r="E12" s="7">
+        <f>(A$12*9.81*COS(D12)*B12)/(1000*1000)</f>
+        <v>9.795083812861731E-2</v>
+      </c>
+      <c r="F12" s="2">
+        <v>3.69</v>
+      </c>
+      <c r="G12" s="7">
+        <f t="shared" si="2"/>
+        <v>6.4402649398590764E-2</v>
+      </c>
+      <c r="H12" s="7">
+        <f>(A$12*9.81*COS(G12)*B12)/(1000*1000)</f>
+        <v>9.7896625562990211E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="16"/>
+      <c r="B13" s="3">
+        <v>75</v>
+      </c>
+      <c r="C13" s="2">
+        <v>3.78</v>
+      </c>
+      <c r="D13" s="7">
+        <f t="shared" si="0"/>
+        <v>6.597344572538566E-2</v>
+      </c>
+      <c r="E13" s="7">
+        <f t="shared" ref="E13:E15" si="5">(A$12*9.81*COS(D13)*B13)/(1000*1000)</f>
+        <v>0.14682988127546251</v>
+      </c>
+      <c r="F13" s="2">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="G13" s="7">
+        <f t="shared" si="2"/>
+        <v>7.52236907609556E-2</v>
+      </c>
+      <c r="H13" s="7">
+        <f t="shared" ref="H13:H14" si="6">(A$12*9.81*COS(G13)*B13)/(1000*1000)</f>
+        <v>0.14673386452066961</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="16"/>
+      <c r="B14" s="3">
+        <v>100</v>
+      </c>
+      <c r="C14" s="2">
+        <v>4.92</v>
+      </c>
+      <c r="D14" s="7">
+        <f t="shared" si="0"/>
+        <v>8.5870199198121014E-2</v>
+      </c>
+      <c r="E14" s="7">
+        <f t="shared" si="5"/>
+        <v>0.19547708527838739</v>
+      </c>
+      <c r="F14" s="2">
+        <v>4.97</v>
+      </c>
+      <c r="G14" s="7">
+        <f t="shared" si="2"/>
+        <v>8.674286382411818E-2</v>
+      </c>
+      <c r="H14" s="7">
+        <f t="shared" si="6"/>
+        <v>0.1954623264892674</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="D15" s="7">
+        <f t="shared" si="0"/>
+        <v>1.2217304763960306E-2</v>
+      </c>
+      <c r="E15" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="G15" s="7">
+        <f t="shared" si="2"/>
+        <v>3.8397243543875251E-3</v>
+      </c>
+      <c r="H15" s="7">
+        <f>(A$12*9.81*COS(G15)*B15)/(1000*1000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="16">
+        <v>500</v>
+      </c>
+      <c r="B16" s="3">
+        <v>50</v>
+      </c>
+      <c r="C16" s="2">
+        <v>4.97</v>
+      </c>
+      <c r="D16" s="7">
+        <f t="shared" si="0"/>
+        <v>8.674286382411818E-2</v>
+      </c>
+      <c r="E16" s="7">
+        <f>(A$16*9.81*COS(D16)*B16)/(1000*1000)</f>
+        <v>0.24432790811158425</v>
+      </c>
+      <c r="F16" s="2">
+        <v>5.32</v>
+      </c>
+      <c r="G16" s="7">
+        <f t="shared" si="2"/>
+        <v>9.2851516206098342E-2</v>
+      </c>
+      <c r="H16" s="7">
+        <f>(A$16*9.81*COS(G16)*B16)/(1000*1000)</f>
+        <v>0.24419355965414355</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="16"/>
+      <c r="B17" s="3">
+        <v>75</v>
+      </c>
+      <c r="C17" s="2">
+        <v>6.24</v>
+      </c>
+      <c r="D17" s="7">
+        <f t="shared" si="0"/>
+        <v>0.10890854532444617</v>
+      </c>
+      <c r="E17" s="7">
+        <f t="shared" ref="E17:E19" si="7">(A$16*9.81*COS(D17)*B17)/(1000*1000)</f>
+        <v>0.3656954597929577</v>
+      </c>
+      <c r="F17" s="2">
+        <v>6.82</v>
+      </c>
+      <c r="G17" s="7">
+        <f t="shared" si="2"/>
+        <v>0.11903145498601328</v>
+      </c>
+      <c r="H17" s="7">
+        <f t="shared" ref="H17:H19" si="8">(A$16*9.81*COS(G17)*B17)/(1000*1000)</f>
+        <v>0.36527195947904639</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="16"/>
+      <c r="B18" s="3">
+        <v>100</v>
+      </c>
+      <c r="C18" s="2">
+        <v>7.34</v>
+      </c>
+      <c r="D18" s="7">
+        <f t="shared" si="0"/>
+        <v>0.12810716709638378</v>
+      </c>
+      <c r="E18" s="7">
+        <f t="shared" si="7"/>
+        <v>0.48648059433968621</v>
+      </c>
+      <c r="F18" s="2">
+        <v>8.39</v>
+      </c>
+      <c r="G18" s="7">
+        <f t="shared" si="2"/>
+        <v>0.14643312424232427</v>
+      </c>
+      <c r="H18" s="7">
+        <f t="shared" si="8"/>
+        <v>0.48525057786199838</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="D19" s="7">
+        <f t="shared" si="0"/>
+        <v>8.377580409572781E-3</v>
+      </c>
+      <c r="E19" s="7">
+        <f>(A$16*9.81*COS(D19)*B19)/(1000*1000)</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
+        <v>-2.99</v>
+      </c>
+      <c r="G19" s="7">
+        <f t="shared" si="2"/>
+        <v>-5.2185344634630454E-2</v>
+      </c>
+      <c r="H19" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="16">
+        <v>1000</v>
+      </c>
+      <c r="B20" s="3">
+        <v>50</v>
+      </c>
+      <c r="C20" s="2">
+        <v>7.3</v>
+      </c>
+      <c r="D20" s="7">
+        <f t="shared" ref="D20:D23" si="9">RADIANS(C20)</f>
+        <v>0.12740903539558607</v>
+      </c>
+      <c r="E20" s="7">
+        <f>(A$20*9.81*COS(D20)*B20)/(1000*1000)</f>
+        <v>0.48652422409040957</v>
+      </c>
+      <c r="F20" s="2">
+        <v>8.09</v>
+      </c>
+      <c r="G20" s="7">
+        <f t="shared" ref="G20:G23" si="10">RADIANS(F20)</f>
+        <v>0.14119713648634125</v>
+      </c>
+      <c r="H20" s="7">
+        <f>(A$20*9.81*COS(G20)*B20)/(1000*1000)</f>
+        <v>0.48561865904269624</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="16"/>
+      <c r="B21" s="3">
+        <v>75</v>
+      </c>
+      <c r="C21" s="2">
+        <v>9.93</v>
+      </c>
+      <c r="D21" s="7">
+        <f t="shared" si="9"/>
+        <v>0.17331119472303691</v>
+      </c>
+      <c r="E21" s="7">
+        <f t="shared" ref="E21:E23" si="11">(A$20*9.81*COS(D21)*B21)/(1000*1000)</f>
+        <v>0.72472785377998183</v>
+      </c>
+      <c r="F21" s="2">
+        <v>10.77</v>
+      </c>
+      <c r="G21" s="7">
+        <f t="shared" si="10"/>
+        <v>0.18797196043978928</v>
+      </c>
+      <c r="H21" s="7">
+        <f t="shared" ref="H21:H23" si="12">(A$20*9.81*COS(G21)*B21)/(1000*1000)</f>
+        <v>0.72278993201696839</v>
+      </c>
+      <c r="L21" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="M21">
+        <v>4.9318999999999997</v>
+      </c>
+      <c r="N21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="16"/>
+      <c r="B22" s="3">
+        <v>100</v>
+      </c>
+      <c r="C22" s="2">
+        <v>11.82</v>
+      </c>
+      <c r="D22" s="7">
+        <f t="shared" si="9"/>
+        <v>0.20629791758572977</v>
+      </c>
+      <c r="E22" s="7">
+        <f t="shared" si="11"/>
+        <v>0.96019882355464536</v>
+      </c>
+      <c r="F22" s="2">
+        <v>13.45</v>
+      </c>
+      <c r="G22" s="7">
+        <f t="shared" si="10"/>
+        <v>0.23474678439323732</v>
+      </c>
+      <c r="H22" s="7">
+        <f t="shared" si="12"/>
+        <v>0.95409437750895576</v>
+      </c>
+      <c r="L22" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="M22">
+        <v>5.5605000000000002</v>
+      </c>
+      <c r="N22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="3">
+        <v>0</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.92</v>
+      </c>
+      <c r="D23" s="7">
+        <f t="shared" si="9"/>
+        <v>1.6057029118347832E-2</v>
+      </c>
+      <c r="E23" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="2">
+        <v>-4.3</v>
+      </c>
+      <c r="G23" s="7">
+        <f t="shared" si="10"/>
+        <v>-7.5049157835756164E-2</v>
+      </c>
+      <c r="H23" s="7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="M23" s="13">
+        <f>AVERAGE(M21:M22)</f>
+        <v>5.2462</v>
+      </c>
+      <c r="N23" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C29" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="16">
+        <v>50</v>
+      </c>
+      <c r="B35" s="3">
+        <v>50</v>
+      </c>
+      <c r="C35" s="2">
+        <f>C4-2.3</f>
+        <v>3.0000000000000249E-2</v>
+      </c>
+      <c r="D35" s="7">
+        <f>RADIANS(C35)</f>
+        <v>5.2359877559830326E-4</v>
+      </c>
+      <c r="E35" s="7">
+        <f>(A$4*9.81*COS(D35)*B35)/(1000*1000)</f>
+        <v>2.4524996638166079E-2</v>
+      </c>
+      <c r="F35" s="2">
+        <f>F4-2.3</f>
+        <v>0.16000000000000014</v>
+      </c>
+      <c r="G35" s="7">
+        <f>RADIANS(F35)</f>
+        <v>2.7925268031909296E-3</v>
+      </c>
+      <c r="H35" s="7">
+        <f>(A$4*9.81*COS(G35)*B35)/(1000*1000)</f>
+        <v>2.4524904374561722E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="16"/>
+      <c r="B36" s="3">
+        <v>75</v>
+      </c>
+      <c r="C36" s="2">
+        <f t="shared" ref="C36:C54" si="13">C5-2.3</f>
+        <v>0.16000000000000014</v>
+      </c>
+      <c r="D36" s="7">
+        <f t="shared" ref="D36:D56" si="14">RADIANS(C36)</f>
+        <v>2.7925268031909296E-3</v>
+      </c>
+      <c r="E36" s="7">
+        <f t="shared" ref="E36:E37" si="15">(A$4*9.81*COS(D36)*B36)/(1000*1000)</f>
+        <v>3.6787356561842587E-2</v>
+      </c>
+      <c r="F36" s="2">
+        <f t="shared" ref="F36:F54" si="16">F5-2.3</f>
+        <v>0.73</v>
+      </c>
+      <c r="G36" s="7">
+        <f t="shared" ref="G36:G56" si="17">RADIANS(F36)</f>
+        <v>1.2740903539558606E-2</v>
+      </c>
+      <c r="H36" s="7">
+        <f>(A$4*9.81*COS(G36)*B36)/(1000*1000)</f>
+        <v>3.6784514171494399E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="16"/>
+      <c r="B37" s="3">
+        <v>100</v>
+      </c>
+      <c r="C37" s="2">
+        <f t="shared" si="13"/>
+        <v>0.3400000000000003</v>
+      </c>
+      <c r="D37" s="7">
+        <f t="shared" si="14"/>
+        <v>5.9341194567807259E-3</v>
+      </c>
+      <c r="E37" s="7">
+        <f t="shared" si="15"/>
+        <v>4.9049136384733606E-2</v>
+      </c>
+      <c r="F37" s="2">
+        <f t="shared" si="16"/>
+        <v>0.64000000000000012</v>
+      </c>
+      <c r="G37" s="7">
+        <f t="shared" si="17"/>
+        <v>1.1170107212763711E-2</v>
+      </c>
+      <c r="H37" s="7">
+        <f>(A$4*9.81*COS(G37)*B37)/(1000*1000)</f>
+        <v>4.9046940015803286E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="3">
+        <v>0</v>
+      </c>
+      <c r="C38" s="2">
+        <f t="shared" si="13"/>
+        <v>-0.49999999999999978</v>
+      </c>
+      <c r="D38" s="7">
+        <f t="shared" si="14"/>
+        <v>-8.7266462599716443E-3</v>
+      </c>
+      <c r="E38" s="7">
+        <f>(A$4*9.81*COS(D38)*B38)/(1000*1000)</f>
+        <v>0</v>
+      </c>
+      <c r="F38" s="2">
+        <f t="shared" si="16"/>
+        <v>-1.8199999999999998</v>
+      </c>
+      <c r="G38" s="7">
+        <f t="shared" si="17"/>
+        <v>-3.1764992386296792E-2</v>
+      </c>
+      <c r="H38" s="7">
+        <f>(A$4*9.81*COS(G38)*B38)/(1000*1000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="16">
+        <v>100</v>
+      </c>
+      <c r="B39" s="3">
+        <v>50</v>
+      </c>
+      <c r="C39" s="2">
+        <f t="shared" si="13"/>
+        <v>0.69000000000000039</v>
+      </c>
+      <c r="D39" s="7">
+        <f t="shared" si="14"/>
+        <v>1.2042771838760881E-2</v>
+      </c>
+      <c r="E39" s="7">
+        <f>(A$8*9.81*COS(D39)*B39)/(1000*1000)</f>
+        <v>4.9046443222615373E-2</v>
+      </c>
+      <c r="F39" s="2">
+        <f t="shared" si="16"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="G39" s="7">
+        <f t="shared" si="17"/>
+        <v>1.0471975511965978E-2</v>
+      </c>
+      <c r="H39" s="7">
+        <f>(A$8*9.81*COS(G39)*B39)/(1000*1000)</f>
+        <v>4.9047310557378369E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="16"/>
+      <c r="B40" s="3">
+        <v>75</v>
+      </c>
+      <c r="C40" s="2">
+        <f t="shared" si="13"/>
+        <v>0.69000000000000039</v>
+      </c>
+      <c r="D40" s="7">
+        <f t="shared" si="14"/>
+        <v>1.2042771838760881E-2</v>
+      </c>
+      <c r="E40" s="7">
+        <f t="shared" ref="E40:E42" si="18">(A$8*9.81*COS(D40)*B40)/(1000*1000)</f>
+        <v>7.3569664833923062E-2</v>
+      </c>
+      <c r="F40" s="2">
+        <f t="shared" si="16"/>
+        <v>1.08</v>
+      </c>
+      <c r="G40" s="7">
+        <f t="shared" si="17"/>
+        <v>1.8849555921538759E-2</v>
+      </c>
+      <c r="H40" s="7">
+        <f t="shared" ref="H40:H42" si="19">(A$8*9.81*COS(G40)*B40)/(1000*1000)</f>
+        <v>7.3561929576418023E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="16"/>
+      <c r="B41" s="3">
+        <v>100</v>
+      </c>
+      <c r="C41" s="2">
+        <f t="shared" si="13"/>
+        <v>1.04</v>
+      </c>
+      <c r="D41" s="7">
+        <f t="shared" si="14"/>
+        <v>1.8151424220741029E-2</v>
+      </c>
+      <c r="E41" s="7">
+        <f t="shared" si="18"/>
+        <v>9.8083839734135647E-2</v>
+      </c>
+      <c r="F41" s="2">
+        <f t="shared" si="16"/>
+        <v>1.3900000000000001</v>
+      </c>
+      <c r="G41" s="7">
+        <f t="shared" si="17"/>
+        <v>2.4260076602721184E-2</v>
+      </c>
+      <c r="H41" s="7">
+        <f t="shared" si="19"/>
+        <v>9.8071132973764616E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" s="3">
+        <v>0</v>
+      </c>
+      <c r="C42" s="2">
+        <f t="shared" si="13"/>
+        <v>-2.1199999999999997</v>
+      </c>
+      <c r="D42" s="7">
+        <f t="shared" si="14"/>
+        <v>-3.7000980142279781E-2</v>
+      </c>
+      <c r="E42" s="7">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="F42" s="2">
+        <f t="shared" si="16"/>
+        <v>-1.6799999999999997</v>
+      </c>
+      <c r="G42" s="7">
+        <f t="shared" si="17"/>
+        <v>-2.932153143350473E-2</v>
+      </c>
+      <c r="H42" s="7">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="16">
+        <v>200</v>
+      </c>
+      <c r="B43" s="3">
+        <v>50</v>
+      </c>
+      <c r="C43" s="2">
+        <f t="shared" si="13"/>
+        <v>0.86000000000000032</v>
+      </c>
+      <c r="D43" s="7">
+        <f t="shared" si="14"/>
+        <v>1.500983156715124E-2</v>
+      </c>
+      <c r="E43" s="7">
+        <f>(A$12*9.81*COS(D43)*B43)/(1000*1000)</f>
+        <v>9.8088949485578961E-2</v>
+      </c>
+      <c r="F43" s="2">
+        <f t="shared" si="16"/>
+        <v>1.3900000000000001</v>
+      </c>
+      <c r="G43" s="7">
+        <f t="shared" si="17"/>
+        <v>2.4260076602721184E-2</v>
+      </c>
+      <c r="H43" s="7">
+        <f>(A$12*9.81*COS(G43)*B43)/(1000*1000)</f>
+        <v>9.8071132973764616E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="16"/>
+      <c r="B44" s="3">
+        <v>75</v>
+      </c>
+      <c r="C44" s="2">
+        <f t="shared" si="13"/>
+        <v>1.48</v>
+      </c>
+      <c r="D44" s="7">
+        <f t="shared" si="14"/>
+        <v>2.5830872929516076E-2</v>
+      </c>
+      <c r="E44" s="7">
+        <f t="shared" ref="E44:E46" si="20">(A$12*9.81*COS(D44)*B44)/(1000*1000)</f>
+        <v>0.14710091098830136</v>
+      </c>
+      <c r="F44" s="2">
+        <f t="shared" si="16"/>
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="G44" s="7">
+        <f t="shared" si="17"/>
+        <v>3.508111796508602E-2</v>
+      </c>
+      <c r="H44" s="7">
+        <f t="shared" ref="H44:H45" si="21">(A$12*9.81*COS(G44)*B44)/(1000*1000)</f>
+        <v>0.14705946164898706</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="16"/>
+      <c r="B45" s="3">
+        <v>100</v>
+      </c>
+      <c r="C45" s="2">
+        <f t="shared" si="13"/>
+        <v>2.62</v>
+      </c>
+      <c r="D45" s="7">
+        <f t="shared" si="14"/>
+        <v>4.5727626402251434E-2</v>
+      </c>
+      <c r="E45" s="7">
+        <f t="shared" si="20"/>
+        <v>0.19599490708985937</v>
+      </c>
+      <c r="F45" s="2">
+        <f t="shared" si="16"/>
+        <v>2.67</v>
+      </c>
+      <c r="G45" s="7">
+        <f t="shared" si="17"/>
+        <v>4.66002910282486E-2</v>
+      </c>
+      <c r="H45" s="7">
+        <f t="shared" si="21"/>
+        <v>0.19598700585194165</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="3">
+        <v>0</v>
+      </c>
+      <c r="C46" s="2">
+        <f t="shared" si="13"/>
+        <v>-1.5999999999999999</v>
+      </c>
+      <c r="D46" s="7">
+        <f t="shared" si="14"/>
+        <v>-2.792526803190927E-2</v>
+      </c>
+      <c r="E46" s="7">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="F46" s="2">
+        <f t="shared" si="16"/>
+        <v>-2.0799999999999996</v>
+      </c>
+      <c r="G46" s="7">
+        <f t="shared" si="17"/>
+        <v>-3.6302848441482051E-2</v>
+      </c>
+      <c r="H46" s="7">
+        <f>(A$12*9.81*COS(G46)*B46)/(1000*1000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="16">
+        <v>500</v>
+      </c>
+      <c r="B47" s="3">
+        <v>50</v>
+      </c>
+      <c r="C47" s="2">
+        <f t="shared" si="13"/>
+        <v>2.67</v>
+      </c>
+      <c r="D47" s="7">
+        <f t="shared" si="14"/>
+        <v>4.66002910282486E-2</v>
+      </c>
+      <c r="E47" s="7">
+        <f>(A$16*9.81*COS(D47)*B47)/(1000*1000)</f>
+        <v>0.24498375731492705</v>
+      </c>
+      <c r="F47" s="2">
+        <f t="shared" si="16"/>
+        <v>3.0200000000000005</v>
+      </c>
+      <c r="G47" s="7">
+        <f t="shared" si="17"/>
+        <v>5.2708943410228762E-2</v>
+      </c>
+      <c r="H47" s="7">
+        <f>(A$16*9.81*COS(G47)*B47)/(1000*1000)</f>
+        <v>0.24490939808017623</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="16"/>
+      <c r="B48" s="3">
+        <v>75</v>
+      </c>
+      <c r="C48" s="2">
+        <f t="shared" si="13"/>
+        <v>3.9400000000000004</v>
+      </c>
+      <c r="D48" s="7">
+        <f t="shared" si="14"/>
+        <v>6.8765972528576594E-2</v>
+      </c>
+      <c r="E48" s="7">
+        <f t="shared" ref="E48:E50" si="22">(A$16*9.81*COS(D48)*B48)/(1000*1000)</f>
+        <v>0.36700554659617668</v>
+      </c>
+      <c r="F48" s="2">
+        <f t="shared" si="16"/>
+        <v>4.5200000000000005</v>
+      </c>
+      <c r="G48" s="7">
+        <f t="shared" si="17"/>
+        <v>7.88888821901437E-2</v>
+      </c>
+      <c r="H48" s="7">
+        <f t="shared" ref="H48:H50" si="23">(A$16*9.81*COS(G48)*B48)/(1000*1000)</f>
+        <v>0.36673086666768828</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" s="16"/>
+      <c r="B49" s="3">
+        <v>100</v>
+      </c>
+      <c r="C49" s="2">
+        <f t="shared" si="13"/>
+        <v>5.04</v>
+      </c>
+      <c r="D49" s="7">
+        <f t="shared" si="14"/>
+        <v>8.7964594300514204E-2</v>
+      </c>
+      <c r="E49" s="7">
+        <f t="shared" si="22"/>
+        <v>0.48860353528472611</v>
+      </c>
+      <c r="F49" s="2">
+        <f t="shared" si="16"/>
+        <v>6.0900000000000007</v>
+      </c>
+      <c r="G49" s="7">
+        <f t="shared" si="17"/>
+        <v>0.10629055144645468</v>
+      </c>
+      <c r="H49" s="7">
+        <f t="shared" si="23"/>
+        <v>0.48773185126595264</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="3">
+        <v>0</v>
+      </c>
+      <c r="C50" s="2">
+        <f t="shared" si="13"/>
+        <v>-1.8199999999999998</v>
+      </c>
+      <c r="D50" s="7">
+        <f t="shared" si="14"/>
+        <v>-3.1764992386296792E-2</v>
+      </c>
+      <c r="E50" s="7">
+        <f>(A$16*9.81*COS(D50)*B50)/(1000*1000)</f>
+        <v>0</v>
+      </c>
+      <c r="F50" s="2">
+        <f t="shared" si="16"/>
+        <v>-5.29</v>
+      </c>
+      <c r="G50" s="7">
+        <f t="shared" si="17"/>
+        <v>-9.2327917430500034E-2</v>
+      </c>
+      <c r="H50" s="7">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" s="16">
+        <v>1000</v>
+      </c>
+      <c r="B51" s="3">
+        <v>50</v>
+      </c>
+      <c r="C51" s="2">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="D51" s="7">
+        <f t="shared" si="14"/>
+        <v>8.7266462599716474E-2</v>
+      </c>
+      <c r="E51" s="7">
+        <f>(A$20*9.81*COS(D51)*B51)/(1000*1000)</f>
+        <v>0.48863349941400119</v>
+      </c>
+      <c r="F51" s="2">
+        <f t="shared" si="16"/>
+        <v>5.79</v>
+      </c>
+      <c r="G51" s="7">
+        <f t="shared" si="17"/>
+        <v>0.10105456369047168</v>
+      </c>
+      <c r="H51" s="7">
+        <f>(A$20*9.81*COS(G51)*B51)/(1000*1000)</f>
+        <v>0.487997631515872</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" s="16"/>
+      <c r="B52" s="3">
+        <v>75</v>
+      </c>
+      <c r="C52" s="2">
+        <f t="shared" si="13"/>
+        <v>7.63</v>
+      </c>
+      <c r="D52" s="7">
+        <f t="shared" si="14"/>
+        <v>0.13316862192716733</v>
+      </c>
+      <c r="E52" s="7">
+        <f t="shared" ref="E52:E54" si="24">(A$20*9.81*COS(D52)*B52)/(1000*1000)</f>
+        <v>0.7292357836126333</v>
+      </c>
+      <c r="F52" s="2">
+        <f t="shared" si="16"/>
+        <v>8.4699999999999989</v>
+      </c>
+      <c r="G52" s="7">
+        <f t="shared" si="17"/>
+        <v>0.1478293876439197</v>
+      </c>
+      <c r="H52" s="7">
+        <f t="shared" ref="H52:H54" si="25">(A$20*9.81*COS(G52)*B52)/(1000*1000)</f>
+        <v>0.7277252634909529</v>
+      </c>
+      <c r="L52" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="M52">
+        <v>4.9318999999999997</v>
+      </c>
+      <c r="N52" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" s="16"/>
+      <c r="B53" s="3">
+        <v>100</v>
+      </c>
+      <c r="C53" s="2">
+        <f t="shared" si="13"/>
+        <v>9.52</v>
+      </c>
+      <c r="D53" s="7">
+        <f t="shared" si="14"/>
+        <v>0.16615534478986016</v>
+      </c>
+      <c r="E53" s="7">
+        <f t="shared" si="24"/>
+        <v>0.96748959831716752</v>
+      </c>
+      <c r="F53" s="2">
+        <f t="shared" si="16"/>
+        <v>11.149999999999999</v>
+      </c>
+      <c r="G53" s="7">
+        <f t="shared" si="17"/>
+        <v>0.19460421159736771</v>
+      </c>
+      <c r="H53" s="7">
+        <f t="shared" si="25"/>
+        <v>0.96248292187328166</v>
+      </c>
+      <c r="L53" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="M53">
+        <v>5.5605000000000002</v>
+      </c>
+      <c r="N53" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" s="3">
+        <v>0</v>
+      </c>
+      <c r="C54" s="2">
+        <f t="shared" si="13"/>
+        <v>-1.38</v>
+      </c>
+      <c r="D54" s="7">
+        <f t="shared" si="14"/>
+        <v>-2.4085543677521744E-2</v>
+      </c>
+      <c r="E54" s="7">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="F54" s="2">
+        <f t="shared" si="16"/>
+        <v>-6.6</v>
+      </c>
+      <c r="G54" s="7">
+        <f t="shared" si="17"/>
+        <v>-0.11519173063162574</v>
+      </c>
+      <c r="H54" s="7">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="L54" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="M54" s="13">
+        <f>AVERAGE(M52:M53)</f>
+        <v>5.2462</v>
+      </c>
+      <c r="N54" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2">
+        <v>43</v>
+      </c>
+      <c r="D56" s="8">
+        <f t="shared" ref="D56" si="26">RADIANS(C56)</f>
+        <v>0.75049157835756175</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2">
+        <v>43</v>
+      </c>
+      <c r="G56" s="8">
+        <f t="shared" ref="G56" si="27">RADIANS(F56)</f>
+        <v>0.75049157835756175</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A12:A14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A152C52-9BEF-4539-A232-585D88C97E4C}">
   <dimension ref="A1:N23"/>
   <sheetViews>
@@ -17429,7 +22191,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B90F1FC4-6CED-43A6-9F75-8078CCE7F8EB}">
   <dimension ref="A1:M36"/>
   <sheetViews>
@@ -18158,7 +22920,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CDA47AA-D9B0-4A8D-A01C-E20429437D7C}">
   <dimension ref="A1:M26"/>
   <sheetViews>
@@ -18677,521 +23439,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B3929C0-B96D-4F9B-8D10-24FEEFAD81E6}">
-  <dimension ref="A1:M26"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="8" width="15.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C1" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="20">
-        <v>50</v>
-      </c>
-      <c r="B3">
-        <v>50</v>
-      </c>
-      <c r="C3">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D16" si="0">RADIANS(C3)</f>
-        <v>9.948376736367677E-3</v>
-      </c>
-      <c r="E3">
-        <f>(A$3*9.81*COS(D3)*B3)/(1000*1000)</f>
-        <v>2.4523786387935651E-2</v>
-      </c>
-      <c r="F3">
-        <v>0.7</v>
-      </c>
-      <c r="G3">
-        <f>RADIANS(F3)</f>
-        <v>1.2217304763960306E-2</v>
-      </c>
-      <c r="H3">
-        <f>(A$3*9.81*COS(G3)*B3)/(1000*1000)</f>
-        <v>2.4523169690922587E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
-      <c r="B4">
-        <v>75</v>
-      </c>
-      <c r="C4">
-        <v>1.05</v>
-      </c>
-      <c r="D4">
-        <f t="shared" si="0"/>
-        <v>1.8325957145940461E-2</v>
-      </c>
-      <c r="E4">
-        <f t="shared" ref="E4:E6" si="1">(A$3*9.81*COS(D4)*B4)/(1000*1000)</f>
-        <v>3.6781322802909036E-2</v>
-      </c>
-      <c r="F4">
-        <v>1.23</v>
-      </c>
-      <c r="G4">
-        <f t="shared" ref="G4:G14" si="2">RADIANS(F4)</f>
-        <v>2.1467549799530253E-2</v>
-      </c>
-      <c r="H4">
-        <f t="shared" ref="H4:H6" si="3">(A$3*9.81*COS(G4)*B4)/(1000*1000)</f>
-        <v>3.6779023461117152E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
-      <c r="B5">
-        <v>100</v>
-      </c>
-      <c r="C5">
-        <v>1.58</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>2.7576202181510408E-2</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="1"/>
-        <v>4.9031351220950155E-2</v>
-      </c>
-      <c r="F5">
-        <v>1.63</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="2"/>
-        <v>2.8448866807507571E-2</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="3"/>
-        <v>4.9030152323672402E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0.4</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>6.9813170079773184E-3</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.31</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="2"/>
-        <v>5.4105206811824215E-3</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="20">
-        <v>100</v>
-      </c>
-      <c r="B7">
-        <v>50</v>
-      </c>
-      <c r="C7">
-        <v>1.63</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>2.8448866807507571E-2</v>
-      </c>
-      <c r="E7">
-        <f>(A$7*9.81*COS(D7)*B7)/(1000*1000)</f>
-        <v>4.9030152323672402E-2</v>
-      </c>
-      <c r="F7">
-        <v>1.58</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="2"/>
-        <v>2.7576202181510408E-2</v>
-      </c>
-      <c r="H7">
-        <f>(A$7*9.81*COS(G7)*B7)/(1000*1000)</f>
-        <v>4.9031351220950155E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
-      <c r="B8">
-        <v>75</v>
-      </c>
-      <c r="C8">
-        <v>2.64</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>4.6076692252650299E-2</v>
-      </c>
-      <c r="E8">
-        <f t="shared" ref="E8:E10" si="4">(A$7*9.81*COS(D8)*B8)/(1000*1000)</f>
-        <v>7.3496911689523339E-2</v>
-      </c>
-      <c r="F8">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="2"/>
-        <v>4.3807764225057666E-2</v>
-      </c>
-      <c r="H8">
-        <f t="shared" ref="H8:H9" si="5">(A$7*9.81*COS(G8)*B8)/(1000*1000)</f>
-        <v>7.3504411655450311E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
-      <c r="B9">
-        <v>100</v>
-      </c>
-      <c r="C9">
-        <v>3.56</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>6.2133721370998131E-2</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="4"/>
-        <v>9.7910698515983899E-2</v>
-      </c>
-      <c r="F9">
-        <v>3.69</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="2"/>
-        <v>6.4402649398590764E-2</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="5"/>
-        <v>9.7896625562990211E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0.88</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
-        <v>1.53588974175501E-2</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.53</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="2"/>
-        <v>9.250245035569947E-3</v>
-      </c>
-      <c r="H10">
-        <f>(A$7*9.81*COS(G10)*B10)/(1000*1000)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="20">
-        <v>200</v>
-      </c>
-      <c r="B11">
-        <v>50</v>
-      </c>
-      <c r="C11">
-        <v>3.69</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
-        <v>6.4402649398590764E-2</v>
-      </c>
-      <c r="E11">
-        <f>(A$11*9.81*COS(D11)*B11)/(1000*1000)</f>
-        <v>9.7896625562990211E-2</v>
-      </c>
-      <c r="F11">
-        <v>3.65</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="2"/>
-        <v>6.3704517697793034E-2</v>
-      </c>
-      <c r="H11">
-        <f>(A$11*9.81*COS(G11)*B11)/(1000*1000)</f>
-        <v>9.7901009383595805E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
-      <c r="B12">
-        <v>75</v>
-      </c>
-      <c r="C12">
-        <v>5.67</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
-        <v>9.896016858807849E-2</v>
-      </c>
-      <c r="E12">
-        <f t="shared" ref="E12:E14" si="6">(A$11*9.81*COS(D12)*B12)/(1000*1000)</f>
-        <v>0.14643005939253601</v>
-      </c>
-      <c r="F12">
-        <v>5.49</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="2"/>
-        <v>9.5818575934488698E-2</v>
-      </c>
-      <c r="H12">
-        <f t="shared" ref="H12:H14" si="7">(A$11*9.81*COS(G12)*B12)/(1000*1000)</f>
-        <v>0.1464750099192639</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
-      <c r="B13">
-        <v>100</v>
-      </c>
-      <c r="C13">
-        <v>7.91</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="0"/>
-        <v>0.13805554383275148</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="6"/>
-        <v>0.19433324716438419</v>
-      </c>
-      <c r="F13">
-        <v>7.91</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="2"/>
-        <v>0.13805554383275148</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="7"/>
-        <v>0.19433324716438419</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>1.76</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="0"/>
-        <v>3.07177948351002E-2</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1.23</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="2"/>
-        <v>2.1467549799530253E-2</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16">
-        <v>60</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="0"/>
-        <v>1.0471975511965976</v>
-      </c>
-      <c r="F16">
-        <v>56</v>
-      </c>
-      <c r="G16">
-        <f t="shared" ref="G16" si="8">RADIANS(F16)</f>
-        <v>0.97738438111682457</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="21"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="J20" t="s">
-        <v>9</v>
-      </c>
-      <c r="L20">
-        <f>1/0.6234</f>
-        <v>1.6041065126724416</v>
-      </c>
-      <c r="M20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="21"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="J21" t="s">
-        <v>10</v>
-      </c>
-      <c r="L21">
-        <f>1/0.6399</f>
-        <v>1.5627441787779339</v>
-      </c>
-      <c r="M21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="21"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="21"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="J23" t="s">
-        <v>12</v>
-      </c>
-      <c r="L23">
-        <f>AVERAGE(L20,L21)</f>
-        <v>1.5834253457251877</v>
-      </c>
-      <c r="M23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="21"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="21"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="21"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A19:D26"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A11:A13"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/CAD_Mechanical/AARL_QR-Quadruped/AARL_QR_FR-Frame/InProgress/Haonan/AARL_QR_FR_LE_BI_BL-Back_Left_new/Adjustable Spiral Torsion Spring/3D Printed Torsion Spring Calculations.xlsx
+++ b/CAD_Mechanical/AARL_QR-Quadruped/AARL_QR_FR-Frame/InProgress/Haonan/AARL_QR_FR_LE_BI_BL-Back_Left_new/Adjustable Spiral Torsion Spring/3D Printed Torsion Spring Calculations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Quadruped_Robot\CAD_Mechanical\AARL_QR-Quadruped\AARL_QR_FR-Frame\InProgress\Haonan\AARL_QR_FR_LE_BI_BL-Back_Left_new\Adjustable Spiral Torsion Spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{429734A8-6CD4-401F-8BD7-ED9DB2EC56CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FAA3CE9-C631-47EF-8383-89914ED5DB9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,11 +19,12 @@
     <sheet name="3L4LT4ST.M2" sheetId="10" r:id="rId4"/>
     <sheet name="4L3LT6ST" sheetId="9" r:id="rId5"/>
     <sheet name="2L5LT12ST" sheetId="13" r:id="rId6"/>
-    <sheet name="4L3LT6ST+3L4LT4ST.M2" sheetId="11" r:id="rId7"/>
-    <sheet name="Test Spring 3" sheetId="2" r:id="rId8"/>
-    <sheet name="Test Spring 3 FG" sheetId="3" r:id="rId9"/>
-    <sheet name="Test Spring 3 FG Set 2" sheetId="4" r:id="rId10"/>
-    <sheet name="Test Spring 3 Kevlar" sheetId="6" r:id="rId11"/>
+    <sheet name="2L5LT12ST.100infill" sheetId="14" r:id="rId7"/>
+    <sheet name="4L3LT6ST+3L4LT4ST.M2" sheetId="11" r:id="rId8"/>
+    <sheet name="Test Spring 3" sheetId="2" r:id="rId9"/>
+    <sheet name="Test Spring 3 FG" sheetId="3" r:id="rId10"/>
+    <sheet name="Test Spring 3 FG Set 2" sheetId="4" r:id="rId11"/>
+    <sheet name="Test Spring 3 Kevlar" sheetId="6" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="70">
   <si>
     <t>unloaded</t>
   </si>
@@ -255,13 +256,19 @@
     <t>2 Leg - 6mm Leg Thickness - 4mm Spring Thickness</t>
   </si>
   <si>
-    <t>4 Leg - 3mm Leg Thickness - 6mm Spring Thickness (Corrected for play in spring)</t>
-  </si>
-  <si>
     <t>+- 2.3° play in spring</t>
   </si>
   <si>
     <t>*seems like 5mm leg thickness is the maximum that we can do without surface cracking</t>
+  </si>
+  <si>
+    <t>2 Leg - 5mm Leg Thickness - 12mm Spring Thickness</t>
+  </si>
+  <si>
+    <t>2 Leg - 5mm Leg Thickness - 12mm Spring Thickness (Corrected for play in spring)</t>
+  </si>
+  <si>
+    <t>2 Leg - 5mm Leg Thickness - 12mm Spring Thickness - 100% Infill</t>
   </si>
 </sst>
 </file>
@@ -383,6 +390,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -401,8 +410,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1211,6 +1218,743 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Spring 3 with Fiberglass Inlay</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Clockwise Torque</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.17314583280010334"/>
+                  <c:y val="6.0513371790263233E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Test Spring 3 FG'!$E$3:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2.4524819208260391E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.678660351457471E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9047128274712734E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.9047128274712734E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.356445641979964E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.8068587205565744E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.8066830279794764E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.14702413071252554</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1958213970319678</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Test Spring 3 FG'!$D$3:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>3.8397243543875251E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.9813170079773184E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0821041362364843E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1415926535897929E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0821041362364843E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6929693744344994E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5307274153917779E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.1415926535897929E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.6005405854715509E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.1364303272265611E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.2133721370998131E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.2217304763960306E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8BC4-4D2F-A7DB-05B476D456D9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Counter-Clockwise Torque</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.17501739569872377"/>
+                  <c:y val="-7.1581499113116911E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Test Spring 3 FG'!$H$3:$H$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2.4524641031712015E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6786209063294606E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9046339381845175E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.9046339381845175E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.3559131593352978E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.8056312848286462E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.807029633389866E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.14699968214162956</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.19582985450533863</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Test Spring 3 FG'!$G$3:$G$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>5.4105206811824215E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.377580409572781E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2217304763960306E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5378560551852572E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2217304763960306E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.076941809873252E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.9845130209103034E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.6794487087750501E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.4609142453120045E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5204027626653133E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.1435589670200401E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1519173063162575E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8BC4-4D2F-A7DB-05B476D456D9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1382923647"/>
+        <c:axId val="2116997007"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1382923647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Torque (N-m)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2116997007"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2116997007"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Deflection (rad)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.0555555555555555E-2"/>
+              <c:y val="0.37907771945173518"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1382923647"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Test</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
               <a:t> Spring 3 with Fiberglass Inlay Set 2</a:t>
             </a:r>
           </a:p>
@@ -1909,7 +2653,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4983,7 +5727,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>4L3LT6ST</a:t>
+              <a:t>2L5LT12ST</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5755,13 +6499,27 @@
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  </a:sysClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -5769,8 +6527,15 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>4L3LT6ST</a:t>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>2L5LT12ST</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5787,13 +6552,27 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:sysClr val="windowText" lastClr="000000">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
-                </a:schemeClr>
+                </a:sysClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -6556,8 +7335,15 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>4L3LT6ST</a:t>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>2L5LT12ST</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -6602,7 +7388,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'4L3LT6ST+3L4LT4ST.M2'!$C$2:$E$2</c:f>
+              <c:f>'2L5LT12ST.100infill'!$C$2:$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6649,8 +7435,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.35133284120734909"/>
-                  <c:y val="0.38918061152004058"/>
+                  <c:x val="-0.17353100393700788"/>
+                  <c:y val="0.35511577263257393"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -6685,90 +7471,108 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>('4L3LT6ST+3L4LT4ST.M2'!$D$4:$D$6,'4L3LT6ST+3L4LT4ST.M2'!$D$8:$D$10,'4L3LT6ST+3L4LT4ST.M2'!$D$12:$D$14,'4L3LT6ST+3L4LT4ST.M2'!$D$16:$D$18)</c:f>
+              <c:f>('2L5LT12ST.100infill'!$D$4:$D$6,'2L5LT12ST.100infill'!$D$8:$D$10,'2L5LT12ST.100infill'!$D$12:$D$14,'2L5LT12ST.100infill'!$D$16:$D$18,'2L5LT12ST.100infill'!$D$20:$D$22)</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>1.5707963267948964E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>3.1415926535897929E-3</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.8397243543875251E-3</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.948376736367677E-3</c:v>
+                  <c:v>4.5378560551852572E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.250245035569947E-3</c:v>
+                  <c:v>4.5378560551852572E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.8448866807507571E-2</c:v>
+                  <c:v>6.9813170079773184E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.1312680008633288E-2</c:v>
+                  <c:v>8.377580409572781E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.4505895925855403E-2</c:v>
+                  <c:v>7.6794487087750501E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.674286382411818E-2</c:v>
+                  <c:v>1.0821041362364843E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.14416419621473162</c:v>
+                  <c:v>1.4660765716752368E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.17034413499464657</c:v>
+                  <c:v>1.53588974175501E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.26005405854715513</c:v>
+                  <c:v>2.3736477827122883E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.35534903570604548</c:v>
+                  <c:v>3.368485456349056E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.1415926535897934E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.7595865315812872E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.592182246175333E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('4L3LT6ST+3L4LT4ST.M2'!$E$4:$E$6,'4L3LT6ST+3L4LT4ST.M2'!$E$8:$E$10,'4L3LT6ST+3L4LT4ST.M2'!$E$12:$E$14,'4L3LT6ST+3L4LT4ST.M2'!$E$16:$E$18)</c:f>
+              <c:f>('2L5LT12ST.100infill'!$E$4:$E$6,'2L5LT12ST.100infill'!$E$8:$E$10,'2L5LT12ST.100infill'!$E$12:$E$14,'2L5LT12ST.100infill'!$E$16:$E$18,'2L5LT12ST.100infill'!$E$20:$E$22)</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>2.4524878974075574E-2</c:v>
+                  <c:v>2.4524969743500227E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.6787228812390591E-2</c:v>
+                  <c:v>3.6787318461113362E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.9047572775871302E-2</c:v>
+                  <c:v>4.9049494978692529E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.9047901483474043E-2</c:v>
+                  <c:v>4.9049494978692529E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.354522848550861E-2</c:v>
+                  <c:v>7.3573207029149421E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.7970880119778184E-2</c:v>
+                  <c:v>9.8096557502118945E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.8002859033544873E-2</c:v>
+                  <c:v>9.8097107342828296E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.14659674486695054</c:v>
+                  <c:v>0.14714138482413822</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.19416468546717078</c:v>
+                  <c:v>0.19617891495482645</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.24170037093259616</c:v>
+                  <c:v>0.24522107385475933</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.355505600180334</c:v>
+                  <c:v>0.36777137072962773</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.45985606658176659</c:v>
+                  <c:v>0.49022174863480644</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.49025796785939135</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.7345299915737713</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.97817405542242108</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6776,7 +7580,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A2BA-4B44-82A4-A753B74E08D0}"/>
+              <c16:uniqueId val="{00000001-2562-4673-8CC4-241B73275AEA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6785,7 +7589,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'4L3LT6ST+3L4LT4ST.M2'!$F$2:$H$2</c:f>
+              <c:f>'2L5LT12ST.100infill'!$F$2:$H$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6832,8 +7636,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.46863270997375328"/>
-                  <c:y val="0.27476268392463915"/>
+                  <c:x val="-0.393176468175853"/>
+                  <c:y val="0.19965949307294742"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -6868,90 +7672,108 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>('4L3LT6ST+3L4LT4ST.M2'!$G$4:$G$6,'4L3LT6ST+3L4LT4ST.M2'!$G$8:$G$10,'4L3LT6ST+3L4LT4ST.M2'!$G$12:$G$14,'4L3LT6ST+3L4LT4ST.M2'!$G$16:$G$18)</c:f>
+              <c:f>('2L5LT12ST.100infill'!$G$4:$G$6,'2L5LT12ST.100infill'!$G$8:$G$10,'2L5LT12ST.100infill'!$G$12:$G$14,'2L5LT12ST.100infill'!$G$16:$G$18,'2L5LT12ST.100infill'!$G$20:$G$22)</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>6.9813170079773186E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0821041362364843E-2</c:v>
+                  <c:v>1.5707963267948964E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4660765716752368E-2</c:v>
+                  <c:v>2.2689280275926286E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.6794487087750501E-3</c:v>
+                  <c:v>1.5707963267948964E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.7576202181510408E-2</c:v>
+                  <c:v>3.8397243543875251E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.8345620280242932E-2</c:v>
+                  <c:v>5.4105206811824215E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.9095375244672985E-2</c:v>
+                  <c:v>6.9813170079773186E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.9761546816140866E-2</c:v>
+                  <c:v>6.9813170079773184E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.13124875974997358</c:v>
+                  <c:v>1.1519173063162575E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.13508848410436111</c:v>
+                  <c:v>9.948376736367677E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.21781709064889235</c:v>
+                  <c:v>2.3736477827122883E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.35744343080843871</c:v>
+                  <c:v>3.4557519189487726E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.9146998508305301E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.0614548307835558E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.749261878854824E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('4L3LT6ST+3L4LT4ST.M2'!$H$4:$H$6,'4L3LT6ST+3L4LT4ST.M2'!$H$8:$H$10,'4L3LT6ST+3L4LT4ST.M2'!$H$12:$H$14,'4L3LT6ST+3L4LT4ST.M2'!$H$16:$H$18)</c:f>
+              <c:f>('2L5LT12ST.100infill'!$H$4:$H$6,'2L5LT12ST.100infill'!$H$8:$H$10,'2L5LT12ST.100infill'!$H$12:$H$14,'2L5LT12ST.100infill'!$H$16:$H$18,'2L5LT12ST.100infill'!$H$20:$H$22)</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>2.4524994023406466E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.6785346206034554E-2</c:v>
+                  <c:v>3.6787454615250341E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.9044728738706612E-2</c:v>
+                  <c:v>4.9049873744510648E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.9048553671414148E-2</c:v>
+                  <c:v>4.9049939487000455E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.3547026831425236E-2</c:v>
+                  <c:v>7.3574457624781181E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.7985377812172592E-2</c:v>
+                  <c:v>9.8098564126848059E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.8025039156215799E-2</c:v>
+                  <c:v>9.8099976093625862E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.14668217098994463</c:v>
+                  <c:v>0.14714641405829884</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.19451253064003743</c:v>
+                  <c:v>0.19618698312269195</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.24301562981902858</c:v>
+                  <c:v>0.24523786387935653</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.35918266531122112</c:v>
+                  <c:v>0.36777137072962773</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.4594976422215985</c:v>
+                  <c:v>0.49020714616811423</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.49029166322017831</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.734807767048265</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.97805596923385196</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6959,7 +7781,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-A2BA-4B44-82A4-A753B74E08D0}"/>
+              <c16:uniqueId val="{00000003-2562-4673-8CC4-241B73275AEA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7308,6 +8130,757 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
+              <a:t>4L3LT6ST</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'4L3LT6ST+3L4LT4ST.M2'!$C$2:$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Clockwise Torque</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.35133284120734909"/>
+                  <c:y val="0.38918061152004058"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('4L3LT6ST+3L4LT4ST.M2'!$D$4:$D$6,'4L3LT6ST+3L4LT4ST.M2'!$D$8:$D$10,'4L3LT6ST+3L4LT4ST.M2'!$D$12:$D$14,'4L3LT6ST+3L4LT4ST.M2'!$D$16:$D$18)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>3.1415926535897929E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8397243543875251E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.948376736367677E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.250245035569947E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8448866807507571E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.1312680008633288E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.4505895925855403E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.674286382411818E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.14416419621473162</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.17034413499464657</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.26005405854715513</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.35534903570604548</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('4L3LT6ST+3L4LT4ST.M2'!$E$4:$E$6,'4L3LT6ST+3L4LT4ST.M2'!$E$8:$E$10,'4L3LT6ST+3L4LT4ST.M2'!$E$12:$E$14,'4L3LT6ST+3L4LT4ST.M2'!$E$16:$E$18)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2.4524878974075574E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6787228812390591E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9047572775871302E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9047901483474043E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.354522848550861E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.7970880119778184E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.8002859033544873E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14659674486695054</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.19416468546717078</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.24170037093259616</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.355505600180334</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.45985606658176659</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A2BA-4B44-82A4-A753B74E08D0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'4L3LT6ST+3L4LT4ST.M2'!$F$2:$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Counter-Clockwise Torque</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.46863270997375328"/>
+                  <c:y val="0.27476268392463915"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('4L3LT6ST+3L4LT4ST.M2'!$G$4:$G$6,'4L3LT6ST+3L4LT4ST.M2'!$G$8:$G$10,'4L3LT6ST+3L4LT4ST.M2'!$G$12:$G$14,'4L3LT6ST+3L4LT4ST.M2'!$G$16:$G$18)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>6.9813170079773186E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0821041362364843E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4660765716752368E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.6794487087750501E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.7576202181510408E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.8345620280242932E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.9095375244672985E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.9761546816140866E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.13124875974997358</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.13508848410436111</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.21781709064889235</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.35744343080843871</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('4L3LT6ST+3L4LT4ST.M2'!$H$4:$H$6,'4L3LT6ST+3L4LT4ST.M2'!$H$8:$H$10,'4L3LT6ST+3L4LT4ST.M2'!$H$12:$H$14,'4L3LT6ST+3L4LT4ST.M2'!$H$16:$H$18)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2.4524994023406466E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6785346206034554E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9044728738706612E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9048553671414148E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.3547026831425236E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.7985377812172592E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.8025039156215799E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14668217098994463</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.19451253064003743</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.24301562981902858</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.35918266531122112</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.4594976422215985</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A2BA-4B44-82A4-A753B74E08D0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="369439439"/>
+        <c:axId val="285172559"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="369439439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Deflection</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (rad)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="285172559"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="285172559"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Torque</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (N-m)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="369439439"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>Test</a:t>
             </a:r>
             <a:r>
@@ -7747,743 +9320,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000C-23D4-4E5C-8615-4FD854B8D82C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1382923647"/>
-        <c:axId val="2116997007"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1382923647"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Torque (N-m)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2116997007"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2116997007"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Deflection (rad)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="3.0555555555555555E-2"/>
-              <c:y val="0.37907771945173518"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1382923647"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Test</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Spring 3 with Fiberglass Inlay</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Clockwise Torque</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.17314583280010334"/>
-                  <c:y val="6.0513371790263233E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Test Spring 3 FG'!$E$3:$E$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>2.4524819208260391E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.678660351457471E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.9047128274712734E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.9047128274712734E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.356445641979964E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9.8068587205565744E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.8066830279794764E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.14702413071252554</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.1958213970319678</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Test Spring 3 FG'!$D$3:$D$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>3.8397243543875251E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.9813170079773184E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0821041362364843E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.1415926535897929E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.0821041362364843E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.6929693744344994E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.5307274153917779E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.1415926535897929E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.6005405854715509E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.1364303272265611E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6.2133721370998131E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.2217304763960306E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8BC4-4D2F-A7DB-05B476D456D9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Counter-Clockwise Torque</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.17501739569872377"/>
-                  <c:y val="-7.1581499113116911E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Test Spring 3 FG'!$H$3:$H$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>2.4524641031712015E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.6786209063294606E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.9046339381845175E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.9046339381845175E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.3559131593352978E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9.8056312848286462E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.807029633389866E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.14699968214162956</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.19582985450533863</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Test Spring 3 FG'!$G$3:$G$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>5.4105206811824215E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.377580409572781E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.2217304763960306E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.5378560551852572E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.2217304763960306E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.076941809873252E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.9845130209103034E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.6794487087750501E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.4609142453120045E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.5204027626653133E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6.1435589670200401E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.1519173063162575E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-8BC4-4D2F-A7DB-05B476D456D9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8915,6 +9751,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -10783,6 +11659,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -14953,6 +16345,49 @@
 </file>
 
 <file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA41B248-4575-4BB4-875C-0A66A91A89DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -15225,6 +16660,49 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4B491BB-84C2-4DF6-974C-D653F6A87B72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>14286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76505583-DF74-4FAA-B069-39F82B1950AE}"/>
             </a:ext>
           </a:extLst>
@@ -15248,7 +16726,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -15289,7 +16767,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -15310,49 +16788,6 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3770B7A0-6EFC-41DD-87F7-13A239920A9C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>4761</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA41B248-4575-4BB4-875C-0A66A91A89DD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16591,11 +18026,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B3929C0-B96D-4F9B-8D10-24FEEFAD81E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CDA47AA-D9B0-4A8D-A01C-E20429437D7C}">
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16604,16 +18039,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19" t="s">
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -16642,89 +18077,89 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="20">
+      <c r="A3" s="22">
         <v>50</v>
       </c>
       <c r="B3">
         <v>50</v>
       </c>
       <c r="C3">
-        <v>0.56999999999999995</v>
+        <v>0.22</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D16" si="0">RADIANS(C3)</f>
-        <v>9.948376736367677E-3</v>
+        <v>3.8397243543875251E-3</v>
       </c>
       <c r="E3">
         <f>(A$3*9.81*COS(D3)*B3)/(1000*1000)</f>
-        <v>2.4523786387935651E-2</v>
+        <v>2.4524819208260391E-2</v>
       </c>
       <c r="F3">
-        <v>0.7</v>
+        <v>0.31</v>
       </c>
       <c r="G3">
         <f>RADIANS(F3)</f>
-        <v>1.2217304763960306E-2</v>
+        <v>5.4105206811824215E-3</v>
       </c>
       <c r="H3">
         <f>(A$3*9.81*COS(G3)*B3)/(1000*1000)</f>
-        <v>2.4523169690922587E-2</v>
+        <v>2.4524641031712015E-2</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
+      <c r="A4" s="22"/>
       <c r="B4">
         <v>75</v>
       </c>
       <c r="C4">
-        <v>1.05</v>
+        <v>0.4</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>1.8325957145940461E-2</v>
+        <v>6.9813170079773184E-3</v>
       </c>
       <c r="E4">
         <f t="shared" ref="E4:E6" si="1">(A$3*9.81*COS(D4)*B4)/(1000*1000)</f>
-        <v>3.6781322802909036E-2</v>
+        <v>3.678660351457471E-2</v>
       </c>
       <c r="F4">
-        <v>1.23</v>
+        <v>0.48</v>
       </c>
       <c r="G4">
         <f t="shared" ref="G4:G14" si="2">RADIANS(F4)</f>
-        <v>2.1467549799530253E-2</v>
+        <v>8.377580409572781E-3</v>
       </c>
       <c r="H4">
         <f t="shared" ref="H4:H6" si="3">(A$3*9.81*COS(G4)*B4)/(1000*1000)</f>
-        <v>3.6779023461117152E-2</v>
+        <v>3.6786209063294606E-2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
+      <c r="A5" s="22"/>
       <c r="B5">
         <v>100</v>
       </c>
       <c r="C5">
-        <v>1.58</v>
+        <v>0.62</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>2.7576202181510408E-2</v>
+        <v>1.0821041362364843E-2</v>
       </c>
       <c r="E5">
         <f t="shared" si="1"/>
-        <v>4.9031351220950155E-2</v>
+        <v>4.9047128274712734E-2</v>
       </c>
       <c r="F5">
-        <v>1.63</v>
+        <v>0.7</v>
       </c>
       <c r="G5">
         <f t="shared" si="2"/>
-        <v>2.8448866807507571E-2</v>
+        <v>1.2217304763960306E-2</v>
       </c>
       <c r="H5">
         <f t="shared" si="3"/>
-        <v>4.9030152323672402E-2</v>
+        <v>4.9046339381845175E-2</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -16735,22 +18170,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.4</v>
+        <v>0.18</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>6.9813170079773184E-3</v>
+        <v>3.1415926535897929E-3</v>
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.31</v>
+        <v>0.26</v>
       </c>
       <c r="G6">
         <f t="shared" si="2"/>
-        <v>5.4105206811824215E-3</v>
+        <v>4.5378560551852572E-3</v>
       </c>
       <c r="H6">
         <f t="shared" si="3"/>
@@ -16758,89 +18193,89 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="20">
+      <c r="A7" s="22">
         <v>100</v>
       </c>
       <c r="B7">
         <v>50</v>
       </c>
       <c r="C7">
-        <v>1.63</v>
+        <v>0.62</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>2.8448866807507571E-2</v>
+        <v>1.0821041362364843E-2</v>
       </c>
       <c r="E7">
         <f>(A$7*9.81*COS(D7)*B7)/(1000*1000)</f>
-        <v>4.9030152323672402E-2</v>
+        <v>4.9047128274712734E-2</v>
       </c>
       <c r="F7">
-        <v>1.58</v>
+        <v>0.7</v>
       </c>
       <c r="G7">
         <f t="shared" si="2"/>
-        <v>2.7576202181510408E-2</v>
+        <v>1.2217304763960306E-2</v>
       </c>
       <c r="H7">
         <f>(A$7*9.81*COS(G7)*B7)/(1000*1000)</f>
-        <v>4.9031351220950155E-2</v>
+        <v>4.9046339381845175E-2</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
+      <c r="A8" s="22"/>
       <c r="B8">
         <v>75</v>
       </c>
       <c r="C8">
-        <v>2.64</v>
+        <v>0.97</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>4.6076692252650299E-2</v>
+        <v>1.6929693744344994E-2</v>
       </c>
       <c r="E8">
         <f t="shared" ref="E8:E10" si="4">(A$7*9.81*COS(D8)*B8)/(1000*1000)</f>
-        <v>7.3496911689523339E-2</v>
+        <v>7.356445641979964E-2</v>
       </c>
       <c r="F8">
-        <v>2.5099999999999998</v>
+        <v>1.19</v>
       </c>
       <c r="G8">
         <f t="shared" si="2"/>
-        <v>4.3807764225057666E-2</v>
+        <v>2.076941809873252E-2</v>
       </c>
       <c r="H8">
         <f t="shared" ref="H8:H9" si="5">(A$7*9.81*COS(G8)*B8)/(1000*1000)</f>
-        <v>7.3504411655450311E-2</v>
+        <v>7.3559131593352978E-2</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
+      <c r="A9" s="22"/>
       <c r="B9">
         <v>100</v>
       </c>
       <c r="C9">
-        <v>3.56</v>
+        <v>1.45</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>6.2133721370998131E-2</v>
+        <v>2.5307274153917779E-2</v>
       </c>
       <c r="E9">
         <f t="shared" si="4"/>
-        <v>9.7910698515983899E-2</v>
+        <v>9.8068587205565744E-2</v>
       </c>
       <c r="F9">
-        <v>3.69</v>
+        <v>1.71</v>
       </c>
       <c r="G9">
         <f t="shared" si="2"/>
-        <v>6.4402649398590764E-2</v>
+        <v>2.9845130209103034E-2</v>
       </c>
       <c r="H9">
         <f t="shared" si="5"/>
-        <v>9.7896625562990211E-2</v>
+        <v>9.8056312848286462E-2</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -16851,22 +18286,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.88</v>
+        <v>0.18</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>1.53588974175501E-2</v>
+        <v>3.1415926535897929E-3</v>
       </c>
       <c r="E10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.53</v>
+        <v>0.44</v>
       </c>
       <c r="G10">
         <f t="shared" si="2"/>
-        <v>9.250245035569947E-3</v>
+        <v>7.6794487087750501E-3</v>
       </c>
       <c r="H10">
         <f>(A$7*9.81*COS(G10)*B10)/(1000*1000)</f>
@@ -16874,89 +18309,89 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="20">
+      <c r="A11" s="22">
         <v>200</v>
       </c>
       <c r="B11">
         <v>50</v>
       </c>
       <c r="C11">
-        <v>3.69</v>
+        <v>1.49</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>6.4402649398590764E-2</v>
+        <v>2.6005405854715509E-2</v>
       </c>
       <c r="E11">
         <f>(A$11*9.81*COS(D11)*B11)/(1000*1000)</f>
-        <v>9.7896625562990211E-2</v>
+        <v>9.8066830279794764E-2</v>
       </c>
       <c r="F11">
-        <v>3.65</v>
+        <v>1.41</v>
       </c>
       <c r="G11">
         <f t="shared" si="2"/>
-        <v>6.3704517697793034E-2</v>
+        <v>2.4609142453120045E-2</v>
       </c>
       <c r="H11">
         <f>(A$11*9.81*COS(G11)*B11)/(1000*1000)</f>
-        <v>9.7901009383595805E-2</v>
+        <v>9.807029633389866E-2</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
+      <c r="A12" s="22"/>
       <c r="B12">
         <v>75</v>
       </c>
       <c r="C12">
-        <v>5.67</v>
+        <v>2.37</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>9.896016858807849E-2</v>
+        <v>4.1364303272265611E-2</v>
       </c>
       <c r="E12">
         <f t="shared" ref="E12:E14" si="6">(A$11*9.81*COS(D12)*B12)/(1000*1000)</f>
-        <v>0.14643005939253601</v>
+        <v>0.14702413071252554</v>
       </c>
       <c r="F12">
-        <v>5.49</v>
+        <v>2.59</v>
       </c>
       <c r="G12">
         <f t="shared" si="2"/>
-        <v>9.5818575934488698E-2</v>
+        <v>4.5204027626653133E-2</v>
       </c>
       <c r="H12">
         <f t="shared" ref="H12:H14" si="7">(A$11*9.81*COS(G12)*B12)/(1000*1000)</f>
-        <v>0.1464750099192639</v>
+        <v>0.14699968214162956</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
+      <c r="A13" s="22"/>
       <c r="B13">
         <v>100</v>
       </c>
       <c r="C13">
-        <v>7.91</v>
+        <v>3.56</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>0.13805554383275148</v>
+        <v>6.2133721370998131E-2</v>
       </c>
       <c r="E13">
         <f t="shared" si="6"/>
-        <v>0.19433324716438419</v>
+        <v>0.1958213970319678</v>
       </c>
       <c r="F13">
-        <v>7.91</v>
+        <v>3.52</v>
       </c>
       <c r="G13">
         <f t="shared" si="2"/>
-        <v>0.13805554383275148</v>
+        <v>6.1435589670200401E-2</v>
       </c>
       <c r="H13">
         <f t="shared" si="7"/>
-        <v>0.19433324716438419</v>
+        <v>0.19582985450533863</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -16967,22 +18402,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>1.76</v>
+        <v>0.7</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>3.07177948351002E-2</v>
+        <v>1.2217304763960306E-2</v>
       </c>
       <c r="E14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.23</v>
+        <v>0.66</v>
       </c>
       <c r="G14">
         <f t="shared" si="2"/>
-        <v>2.1467549799530253E-2</v>
+        <v>1.1519173063162575E-2</v>
       </c>
       <c r="H14">
         <f t="shared" si="7"/>
@@ -17014,84 +18449,88 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
+      <c r="A19" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="21"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
       <c r="J20" t="s">
         <v>9</v>
       </c>
       <c r="L20">
-        <f>1/0.6234</f>
-        <v>1.6041065126724416</v>
+        <f>1/0.2757</f>
+        <v>3.6271309394269133</v>
       </c>
       <c r="M20" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="21"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
       <c r="J21" t="s">
         <v>10</v>
       </c>
       <c r="L21">
-        <f>1/0.6399</f>
-        <v>1.5627441787779339</v>
+        <f>1/0.2784</f>
+        <v>3.5919540229885061</v>
       </c>
       <c r="M21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="21"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="21"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
+      <c r="A23" s="23"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
       <c r="J23" t="s">
         <v>12</v>
       </c>
       <c r="L23">
         <f>AVERAGE(L20,L21)</f>
-        <v>1.5834253457251877</v>
+        <v>3.6095424812077095</v>
       </c>
       <c r="M23" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="21"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
+      <c r="A24" s="23"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="21"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
+      <c r="A25" s="23"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="L25">
+        <f>L23*4</f>
+        <v>14.438169924830838</v>
+      </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="21"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
+      <c r="A26" s="23"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -17108,6 +18547,523 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B3929C0-B96D-4F9B-8D10-24FEEFAD81E6}">
+  <dimension ref="A1:M26"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P23" sqref="P23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="8" width="15.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C1" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="22">
+        <v>50</v>
+      </c>
+      <c r="B3">
+        <v>50</v>
+      </c>
+      <c r="C3">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D16" si="0">RADIANS(C3)</f>
+        <v>9.948376736367677E-3</v>
+      </c>
+      <c r="E3">
+        <f>(A$3*9.81*COS(D3)*B3)/(1000*1000)</f>
+        <v>2.4523786387935651E-2</v>
+      </c>
+      <c r="F3">
+        <v>0.7</v>
+      </c>
+      <c r="G3">
+        <f>RADIANS(F3)</f>
+        <v>1.2217304763960306E-2</v>
+      </c>
+      <c r="H3">
+        <f>(A$3*9.81*COS(G3)*B3)/(1000*1000)</f>
+        <v>2.4523169690922587E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="22"/>
+      <c r="B4">
+        <v>75</v>
+      </c>
+      <c r="C4">
+        <v>1.05</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>1.8325957145940461E-2</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E6" si="1">(A$3*9.81*COS(D4)*B4)/(1000*1000)</f>
+        <v>3.6781322802909036E-2</v>
+      </c>
+      <c r="F4">
+        <v>1.23</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G14" si="2">RADIANS(F4)</f>
+        <v>2.1467549799530253E-2</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H6" si="3">(A$3*9.81*COS(G4)*B4)/(1000*1000)</f>
+        <v>3.6779023461117152E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="22"/>
+      <c r="B5">
+        <v>100</v>
+      </c>
+      <c r="C5">
+        <v>1.58</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>2.7576202181510408E-2</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>4.9031351220950155E-2</v>
+      </c>
+      <c r="F5">
+        <v>1.63</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>2.8448866807507571E-2</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="3"/>
+        <v>4.9030152323672402E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0.4</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>6.9813170079773184E-3</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.31</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>5.4105206811824215E-3</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="22">
+        <v>100</v>
+      </c>
+      <c r="B7">
+        <v>50</v>
+      </c>
+      <c r="C7">
+        <v>1.63</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>2.8448866807507571E-2</v>
+      </c>
+      <c r="E7">
+        <f>(A$7*9.81*COS(D7)*B7)/(1000*1000)</f>
+        <v>4.9030152323672402E-2</v>
+      </c>
+      <c r="F7">
+        <v>1.58</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>2.7576202181510408E-2</v>
+      </c>
+      <c r="H7">
+        <f>(A$7*9.81*COS(G7)*B7)/(1000*1000)</f>
+        <v>4.9031351220950155E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="22"/>
+      <c r="B8">
+        <v>75</v>
+      </c>
+      <c r="C8">
+        <v>2.64</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>4.6076692252650299E-2</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ref="E8:E10" si="4">(A$7*9.81*COS(D8)*B8)/(1000*1000)</f>
+        <v>7.3496911689523339E-2</v>
+      </c>
+      <c r="F8">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>4.3807764225057666E-2</v>
+      </c>
+      <c r="H8">
+        <f t="shared" ref="H8:H9" si="5">(A$7*9.81*COS(G8)*B8)/(1000*1000)</f>
+        <v>7.3504411655450311E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="22"/>
+      <c r="B9">
+        <v>100</v>
+      </c>
+      <c r="C9">
+        <v>3.56</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>6.2133721370998131E-2</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="4"/>
+        <v>9.7910698515983899E-2</v>
+      </c>
+      <c r="F9">
+        <v>3.69</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>6.4402649398590764E-2</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="5"/>
+        <v>9.7896625562990211E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0.88</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>1.53588974175501E-2</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0.53</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>9.250245035569947E-3</v>
+      </c>
+      <c r="H10">
+        <f>(A$7*9.81*COS(G10)*B10)/(1000*1000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="22">
+        <v>200</v>
+      </c>
+      <c r="B11">
+        <v>50</v>
+      </c>
+      <c r="C11">
+        <v>3.69</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>6.4402649398590764E-2</v>
+      </c>
+      <c r="E11">
+        <f>(A$11*9.81*COS(D11)*B11)/(1000*1000)</f>
+        <v>9.7896625562990211E-2</v>
+      </c>
+      <c r="F11">
+        <v>3.65</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>6.3704517697793034E-2</v>
+      </c>
+      <c r="H11">
+        <f>(A$11*9.81*COS(G11)*B11)/(1000*1000)</f>
+        <v>9.7901009383595805E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="22"/>
+      <c r="B12">
+        <v>75</v>
+      </c>
+      <c r="C12">
+        <v>5.67</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>9.896016858807849E-2</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ref="E12:E14" si="6">(A$11*9.81*COS(D12)*B12)/(1000*1000)</f>
+        <v>0.14643005939253601</v>
+      </c>
+      <c r="F12">
+        <v>5.49</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>9.5818575934488698E-2</v>
+      </c>
+      <c r="H12">
+        <f t="shared" ref="H12:H14" si="7">(A$11*9.81*COS(G12)*B12)/(1000*1000)</f>
+        <v>0.1464750099192639</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="22"/>
+      <c r="B13">
+        <v>100</v>
+      </c>
+      <c r="C13">
+        <v>7.91</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>0.13805554383275148</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="6"/>
+        <v>0.19433324716438419</v>
+      </c>
+      <c r="F13">
+        <v>7.91</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>0.13805554383275148</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="7"/>
+        <v>0.19433324716438419</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>1.76</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>3.07177948351002E-2</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1.23</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>2.1467549799530253E-2</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>60</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>1.0471975511965976</v>
+      </c>
+      <c r="F16">
+        <v>56</v>
+      </c>
+      <c r="G16">
+        <f t="shared" ref="G16" si="8">RADIANS(F16)</f>
+        <v>0.97738438111682457</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="J20" t="s">
+        <v>9</v>
+      </c>
+      <c r="L20">
+        <f>1/0.6234</f>
+        <v>1.6041065126724416</v>
+      </c>
+      <c r="M20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="J21" t="s">
+        <v>10</v>
+      </c>
+      <c r="L21">
+        <f>1/0.6399</f>
+        <v>1.5627441787779339</v>
+      </c>
+      <c r="M21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="23"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="J23" t="s">
+        <v>12</v>
+      </c>
+      <c r="L23">
+        <f>AVERAGE(L20,L21)</f>
+        <v>1.5834253457251877</v>
+      </c>
+      <c r="M23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="23"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="23"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="23"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A19:D26"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A11:A13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF22B8A3-95C2-4791-94DF-9E76D33A34B1}">
   <dimension ref="A1:M30"/>
   <sheetViews>
@@ -17121,16 +19077,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19" t="s">
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -17159,7 +19115,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="20">
+      <c r="A3" s="22">
         <v>50</v>
       </c>
       <c r="B3">
@@ -17189,7 +19145,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
+      <c r="A4" s="22"/>
       <c r="B4">
         <v>75</v>
       </c>
@@ -17217,7 +19173,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
+      <c r="A5" s="22"/>
       <c r="B5">
         <v>100</v>
       </c>
@@ -17275,7 +19231,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="20">
+      <c r="A7" s="22">
         <v>100</v>
       </c>
       <c r="B7">
@@ -17305,7 +19261,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
+      <c r="A8" s="22"/>
       <c r="B8">
         <v>75</v>
       </c>
@@ -17333,7 +19289,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
+      <c r="A9" s="22"/>
       <c r="B9">
         <v>100</v>
       </c>
@@ -17391,7 +19347,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="20">
+      <c r="A11" s="22">
         <v>200</v>
       </c>
       <c r="B11">
@@ -17421,7 +19377,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
+      <c r="A12" s="22"/>
       <c r="B12">
         <v>75</v>
       </c>
@@ -17449,7 +19405,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
+      <c r="A13" s="22"/>
       <c r="B13">
         <v>100</v>
       </c>
@@ -17507,7 +19463,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="20">
+      <c r="A15" s="22">
         <v>500</v>
       </c>
       <c r="B15">
@@ -17537,7 +19493,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
+      <c r="A16" s="22"/>
       <c r="B16">
         <v>75</v>
       </c>
@@ -17565,7 +19521,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
+      <c r="A17" s="22"/>
       <c r="B17">
         <v>100</v>
       </c>
@@ -17669,12 +19625,12 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
       <c r="J23" t="s">
         <v>12</v>
       </c>
@@ -17687,50 +19643,50 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="21"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
+      <c r="A24" s="23"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="21"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
+      <c r="A25" s="23"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
       <c r="L25">
         <f>L23*4</f>
         <v>5.6974317845977467</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="21"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
+      <c r="A26" s="23"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="21"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
+      <c r="A27" s="23"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="21"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
+      <c r="A28" s="23"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="21"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
+      <c r="A29" s="23"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="21"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
+      <c r="A30" s="23"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -17762,30 +19718,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18" t="s">
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
@@ -17814,7 +19770,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="16">
+      <c r="A4" s="18">
         <v>50</v>
       </c>
       <c r="B4" s="3">
@@ -17844,7 +19800,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="3">
         <v>75</v>
       </c>
@@ -17872,7 +19828,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="3">
         <v>100</v>
       </c>
@@ -17930,7 +19886,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="16">
+      <c r="A8" s="18">
         <v>100</v>
       </c>
       <c r="B8" s="3">
@@ -17960,7 +19916,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
+      <c r="A9" s="18"/>
       <c r="B9" s="3">
         <v>75</v>
       </c>
@@ -17988,7 +19944,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="3">
         <v>100</v>
       </c>
@@ -18046,7 +20002,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="16">
+      <c r="A12" s="18">
         <v>200</v>
       </c>
       <c r="B12" s="3">
@@ -18076,7 +20032,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="3">
         <v>75</v>
       </c>
@@ -18104,7 +20060,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="3">
         <v>100</v>
       </c>
@@ -18162,7 +20118,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="16">
+      <c r="A16" s="18">
         <v>500</v>
       </c>
       <c r="B16" s="3">
@@ -18192,7 +20148,7 @@
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
+      <c r="A17" s="18"/>
       <c r="B17" s="3">
         <v>75</v>
       </c>
@@ -18220,7 +20176,7 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
+      <c r="A18" s="18"/>
       <c r="B18" s="3">
         <v>100</v>
       </c>
@@ -18306,7 +20262,7 @@
       <c r="N21" t="s">
         <v>60</v>
       </c>
-      <c r="P21" s="23">
+      <c r="P21" s="17">
         <f>ABS(M21-M22)/M23</f>
         <v>0.1957374254049446</v>
       </c>
@@ -18321,7 +20277,7 @@
       <c r="N22" t="s">
         <v>60</v>
       </c>
-      <c r="P22" s="23"/>
+      <c r="P22" s="17"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="L23" s="12" t="s">
@@ -18365,30 +20321,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18" t="s">
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
@@ -18417,7 +20373,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="16">
+      <c r="A4" s="18">
         <v>50</v>
       </c>
       <c r="B4" s="3">
@@ -18447,7 +20403,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="3">
         <v>75</v>
       </c>
@@ -18475,7 +20431,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="3">
         <v>100</v>
       </c>
@@ -18533,7 +20489,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="16">
+      <c r="A8" s="18">
         <v>100</v>
       </c>
       <c r="B8" s="3">
@@ -18563,7 +20519,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
+      <c r="A9" s="18"/>
       <c r="B9" s="3">
         <v>75</v>
       </c>
@@ -18591,7 +20547,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="3">
         <v>100</v>
       </c>
@@ -18649,7 +20605,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="16">
+      <c r="A12" s="18">
         <v>200</v>
       </c>
       <c r="B12" s="3">
@@ -18679,7 +20635,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="3">
         <v>75</v>
       </c>
@@ -18707,7 +20663,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="3">
         <v>100</v>
       </c>
@@ -18765,7 +20721,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="16">
+      <c r="A16" s="18">
         <v>500</v>
       </c>
       <c r="B16" s="3">
@@ -18795,7 +20751,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
+      <c r="A17" s="18"/>
       <c r="B17" s="3">
         <v>75</v>
       </c>
@@ -18823,7 +20779,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
+      <c r="A18" s="18"/>
       <c r="B18" s="3">
         <v>100</v>
       </c>
@@ -18963,30 +20919,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18" t="s">
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
@@ -19015,7 +20971,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="16">
+      <c r="A4" s="18">
         <v>50</v>
       </c>
       <c r="B4" s="3">
@@ -19045,7 +21001,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="3">
         <v>75</v>
       </c>
@@ -19073,7 +21029,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="3">
         <v>100</v>
       </c>
@@ -19131,7 +21087,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="16">
+      <c r="A8" s="18">
         <v>100</v>
       </c>
       <c r="B8" s="3">
@@ -19161,7 +21117,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
+      <c r="A9" s="18"/>
       <c r="B9" s="3">
         <v>75</v>
       </c>
@@ -19189,7 +21145,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="3">
         <v>100</v>
       </c>
@@ -19247,7 +21203,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="16">
+      <c r="A12" s="18">
         <v>200</v>
       </c>
       <c r="B12" s="3">
@@ -19277,7 +21233,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="3">
         <v>75</v>
       </c>
@@ -19305,7 +21261,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="3">
         <v>100</v>
       </c>
@@ -19363,7 +21319,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="16">
+      <c r="A16" s="18">
         <v>500</v>
       </c>
       <c r="B16" s="3">
@@ -19393,7 +21349,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
+      <c r="A17" s="18"/>
       <c r="B17" s="3">
         <v>75</v>
       </c>
@@ -19421,7 +21377,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
+      <c r="A18" s="18"/>
       <c r="B18" s="3">
         <v>100</v>
       </c>
@@ -19568,30 +21524,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18" t="s">
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
@@ -19620,7 +21576,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="16">
+      <c r="A4" s="18">
         <v>50</v>
       </c>
       <c r="B4" s="3">
@@ -19650,7 +21606,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="3">
         <v>75</v>
       </c>
@@ -19678,7 +21634,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="3">
         <v>100</v>
       </c>
@@ -19736,7 +21692,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="16">
+      <c r="A8" s="18">
         <v>100</v>
       </c>
       <c r="B8" s="3">
@@ -19766,7 +21722,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
+      <c r="A9" s="18"/>
       <c r="B9" s="3">
         <v>75</v>
       </c>
@@ -19794,7 +21750,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="3">
         <v>100</v>
       </c>
@@ -19852,7 +21808,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="16">
+      <c r="A12" s="18">
         <v>200</v>
       </c>
       <c r="B12" s="3">
@@ -19882,7 +21838,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="3">
         <v>75</v>
       </c>
@@ -19910,7 +21866,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="3">
         <v>100</v>
       </c>
@@ -19968,7 +21924,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="16">
+      <c r="A16" s="18">
         <v>500</v>
       </c>
       <c r="B16" s="3">
@@ -19998,7 +21954,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
+      <c r="A17" s="18"/>
       <c r="B17" s="3">
         <v>75</v>
       </c>
@@ -20026,7 +21982,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
+      <c r="A18" s="18"/>
       <c r="B18" s="3">
         <v>100</v>
       </c>
@@ -20156,7 +22112,7 @@
   <dimension ref="A1:N56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20166,30 +22122,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
+      <c r="A1" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18" t="s">
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
@@ -20218,7 +22174,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="16">
+      <c r="A4" s="18">
         <v>50</v>
       </c>
       <c r="B4" s="3">
@@ -20248,7 +22204,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="3">
         <v>75</v>
       </c>
@@ -20276,7 +22232,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="3">
         <v>100</v>
       </c>
@@ -20334,7 +22290,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="16">
+      <c r="A8" s="18">
         <v>100</v>
       </c>
       <c r="B8" s="3">
@@ -20364,7 +22320,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
+      <c r="A9" s="18"/>
       <c r="B9" s="3">
         <v>75</v>
       </c>
@@ -20392,7 +22348,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="3">
         <v>100</v>
       </c>
@@ -20450,7 +22406,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="16">
+      <c r="A12" s="18">
         <v>200</v>
       </c>
       <c r="B12" s="3">
@@ -20480,7 +22436,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="3">
         <v>75</v>
       </c>
@@ -20508,7 +22464,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="3">
         <v>100</v>
       </c>
@@ -20566,7 +22522,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="16">
+      <c r="A16" s="18">
         <v>500</v>
       </c>
       <c r="B16" s="3">
@@ -20596,7 +22552,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
+      <c r="A17" s="18"/>
       <c r="B17" s="3">
         <v>75</v>
       </c>
@@ -20608,7 +22564,7 @@
         <v>0.10890854532444617</v>
       </c>
       <c r="E17" s="7">
-        <f t="shared" ref="E17:E19" si="7">(A$16*9.81*COS(D17)*B17)/(1000*1000)</f>
+        <f t="shared" ref="E17:E18" si="7">(A$16*9.81*COS(D17)*B17)/(1000*1000)</f>
         <v>0.3656954597929577</v>
       </c>
       <c r="F17" s="2">
@@ -20624,7 +22580,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
+      <c r="A18" s="18"/>
       <c r="B18" s="3">
         <v>100</v>
       </c>
@@ -20682,7 +22638,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="16">
+      <c r="A20" s="18">
         <v>1000</v>
       </c>
       <c r="B20" s="3">
@@ -20712,7 +22668,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
+      <c r="A21" s="18"/>
       <c r="B21" s="3">
         <v>75</v>
       </c>
@@ -20749,7 +22705,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
+      <c r="A22" s="18"/>
       <c r="B22" s="3">
         <v>100</v>
       </c>
@@ -20844,39 +22800,39 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C29" s="22" t="s">
-        <v>66</v>
+      <c r="C29" s="16" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
+      <c r="A32" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18" t="s">
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
@@ -20905,7 +22861,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="16">
+      <c r="A35" s="18">
         <v>50</v>
       </c>
       <c r="B35" s="3">
@@ -20937,7 +22893,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="16"/>
+      <c r="A36" s="18"/>
       <c r="B36" s="3">
         <v>75</v>
       </c>
@@ -20946,7 +22902,7 @@
         <v>0.16000000000000014</v>
       </c>
       <c r="D36" s="7">
-        <f t="shared" ref="D36:D56" si="14">RADIANS(C36)</f>
+        <f t="shared" ref="D36:D54" si="14">RADIANS(C36)</f>
         <v>2.7925268031909296E-3</v>
       </c>
       <c r="E36" s="7">
@@ -20958,7 +22914,7 @@
         <v>0.73</v>
       </c>
       <c r="G36" s="7">
-        <f t="shared" ref="G36:G56" si="17">RADIANS(F36)</f>
+        <f t="shared" ref="G36:G54" si="17">RADIANS(F36)</f>
         <v>1.2740903539558606E-2</v>
       </c>
       <c r="H36" s="7">
@@ -20967,7 +22923,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="16"/>
+      <c r="A37" s="18"/>
       <c r="B37" s="3">
         <v>100</v>
       </c>
@@ -21029,7 +22985,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="16">
+      <c r="A39" s="18">
         <v>100</v>
       </c>
       <c r="B39" s="3">
@@ -21061,7 +23017,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="16"/>
+      <c r="A40" s="18"/>
       <c r="B40" s="3">
         <v>75</v>
       </c>
@@ -21091,7 +23047,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="16"/>
+      <c r="A41" s="18"/>
       <c r="B41" s="3">
         <v>100</v>
       </c>
@@ -21153,7 +23109,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="16">
+      <c r="A43" s="18">
         <v>200</v>
       </c>
       <c r="B43" s="3">
@@ -21185,7 +23141,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="16"/>
+      <c r="A44" s="18"/>
       <c r="B44" s="3">
         <v>75</v>
       </c>
@@ -21215,7 +23171,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="16"/>
+      <c r="A45" s="18"/>
       <c r="B45" s="3">
         <v>100</v>
       </c>
@@ -21277,7 +23233,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="16">
+      <c r="A47" s="18">
         <v>500</v>
       </c>
       <c r="B47" s="3">
@@ -21309,7 +23265,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="16"/>
+      <c r="A48" s="18"/>
       <c r="B48" s="3">
         <v>75</v>
       </c>
@@ -21322,7 +23278,7 @@
         <v>6.8765972528576594E-2</v>
       </c>
       <c r="E48" s="7">
-        <f t="shared" ref="E48:E50" si="22">(A$16*9.81*COS(D48)*B48)/(1000*1000)</f>
+        <f t="shared" ref="E48:E49" si="22">(A$16*9.81*COS(D48)*B48)/(1000*1000)</f>
         <v>0.36700554659617668</v>
       </c>
       <c r="F48" s="2">
@@ -21339,7 +23295,7 @@
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="16"/>
+      <c r="A49" s="18"/>
       <c r="B49" s="3">
         <v>100</v>
       </c>
@@ -21401,7 +23357,7 @@
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="16">
+      <c r="A51" s="18">
         <v>1000</v>
       </c>
       <c r="B51" s="3">
@@ -21433,7 +23389,7 @@
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="16"/>
+      <c r="A52" s="18"/>
       <c r="B52" s="3">
         <v>75</v>
       </c>
@@ -21472,7 +23428,7 @@
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="16"/>
+      <c r="A53" s="18"/>
       <c r="B53" s="3">
         <v>100</v>
       </c>
@@ -21575,6 +23531,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A8:A10"/>
     <mergeCell ref="A39:A41"/>
     <mergeCell ref="A43:A45"/>
     <mergeCell ref="A47:A49"/>
@@ -21585,6 +23547,715 @@
     <mergeCell ref="C33:E33"/>
     <mergeCell ref="F33:H33"/>
     <mergeCell ref="A35:A37"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85DCC684-7664-4E92-8F50-059672B70BA9}">
+  <dimension ref="A1:P25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G38" sqref="F38:G38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="8" width="17.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="18">
+        <v>50</v>
+      </c>
+      <c r="B4" s="3">
+        <v>50</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="D4" s="7">
+        <f>RADIANS(C4)</f>
+        <v>1.5707963267948964E-3</v>
+      </c>
+      <c r="E4" s="7">
+        <f>(A$4*9.81*COS(D4)*B4)/(1000*1000)</f>
+        <v>2.4524969743500227E-2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="G4" s="7">
+        <f>RADIANS(F4)</f>
+        <v>6.9813170079773186E-4</v>
+      </c>
+      <c r="H4" s="7">
+        <f>(A$4*9.81*COS(G4)*B4)/(1000*1000)</f>
+        <v>2.4524994023406466E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="18"/>
+      <c r="B5" s="3">
+        <v>75</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="D5" s="7">
+        <f t="shared" ref="D5:D25" si="0">RADIANS(C5)</f>
+        <v>3.1415926535897929E-3</v>
+      </c>
+      <c r="E5" s="7">
+        <f t="shared" ref="E5:E6" si="1">(A$4*9.81*COS(D5)*B5)/(1000*1000)</f>
+        <v>3.6787318461113362E-2</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="G5" s="7">
+        <f t="shared" ref="G5:G25" si="2">RADIANS(F5)</f>
+        <v>1.5707963267948964E-3</v>
+      </c>
+      <c r="H5" s="7">
+        <f>(A$4*9.81*COS(G5)*B5)/(1000*1000)</f>
+        <v>3.6787454615250341E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="18"/>
+      <c r="B6" s="3">
+        <v>100</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="D6" s="7">
+        <f t="shared" si="0"/>
+        <v>4.5378560551852572E-3</v>
+      </c>
+      <c r="E6" s="7">
+        <f t="shared" si="1"/>
+        <v>4.9049494978692529E-2</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="G6" s="7">
+        <f t="shared" si="2"/>
+        <v>2.2689280275926286E-3</v>
+      </c>
+      <c r="H6" s="7">
+        <f>(A$4*9.81*COS(G6)*B6)/(1000*1000)</f>
+        <v>4.9049873744510648E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="D7" s="7">
+        <f t="shared" si="0"/>
+        <v>2.2689280275926286E-3</v>
+      </c>
+      <c r="E7" s="7">
+        <f>(A$4*9.81*COS(D7)*B7)/(1000*1000)</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>-0.04</v>
+      </c>
+      <c r="G7" s="7">
+        <f t="shared" si="2"/>
+        <v>-6.9813170079773186E-4</v>
+      </c>
+      <c r="H7" s="7">
+        <f>(A$4*9.81*COS(G7)*B7)/(1000*1000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="18">
+        <v>100</v>
+      </c>
+      <c r="B8" s="3">
+        <v>50</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="D8" s="7">
+        <f t="shared" si="0"/>
+        <v>4.5378560551852572E-3</v>
+      </c>
+      <c r="E8" s="7">
+        <f>(A$8*9.81*COS(D8)*B8)/(1000*1000)</f>
+        <v>4.9049494978692529E-2</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="G8" s="7">
+        <f t="shared" si="2"/>
+        <v>1.5707963267948964E-3</v>
+      </c>
+      <c r="H8" s="7">
+        <f>(A$8*9.81*COS(G8)*B8)/(1000*1000)</f>
+        <v>4.9049939487000455E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="18"/>
+      <c r="B9" s="3">
+        <v>75</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="D9" s="7">
+        <f t="shared" si="0"/>
+        <v>6.9813170079773184E-3</v>
+      </c>
+      <c r="E9" s="7">
+        <f t="shared" ref="E9:E11" si="3">(A$8*9.81*COS(D9)*B9)/(1000*1000)</f>
+        <v>7.3573207029149421E-2</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="G9" s="7">
+        <f t="shared" si="2"/>
+        <v>3.8397243543875251E-3</v>
+      </c>
+      <c r="H9" s="7">
+        <f t="shared" ref="H9:H11" si="4">(A$8*9.81*COS(G9)*B9)/(1000*1000)</f>
+        <v>7.3574457624781181E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="18"/>
+      <c r="B10" s="3">
+        <v>100</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="D10" s="7">
+        <f t="shared" si="0"/>
+        <v>8.377580409572781E-3</v>
+      </c>
+      <c r="E10" s="7">
+        <f t="shared" si="3"/>
+        <v>9.8096557502118945E-2</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="G10" s="7">
+        <f t="shared" si="2"/>
+        <v>5.4105206811824215E-3</v>
+      </c>
+      <c r="H10" s="7">
+        <f t="shared" si="4"/>
+        <v>9.8098564126848059E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="D11" s="7">
+        <f t="shared" si="0"/>
+        <v>3.1415926535897929E-3</v>
+      </c>
+      <c r="E11" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>-0.09</v>
+      </c>
+      <c r="G11" s="7">
+        <f t="shared" si="2"/>
+        <v>-1.5707963267948964E-3</v>
+      </c>
+      <c r="H11" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="18">
+        <v>200</v>
+      </c>
+      <c r="B12" s="3">
+        <v>50</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.44</v>
+      </c>
+      <c r="D12" s="7">
+        <f t="shared" si="0"/>
+        <v>7.6794487087750501E-3</v>
+      </c>
+      <c r="E12" s="7">
+        <f>(A$12*9.81*COS(D12)*B12)/(1000*1000)</f>
+        <v>9.8097107342828296E-2</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="G12" s="7">
+        <f t="shared" si="2"/>
+        <v>6.9813170079773186E-4</v>
+      </c>
+      <c r="H12" s="7">
+        <f>(A$12*9.81*COS(G12)*B12)/(1000*1000)</f>
+        <v>9.8099976093625862E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="18"/>
+      <c r="B13" s="3">
+        <v>75</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.62</v>
+      </c>
+      <c r="D13" s="7">
+        <f t="shared" si="0"/>
+        <v>1.0821041362364843E-2</v>
+      </c>
+      <c r="E13" s="7">
+        <f t="shared" ref="E13:E15" si="5">(A$12*9.81*COS(D13)*B13)/(1000*1000)</f>
+        <v>0.14714138482413822</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="G13" s="7">
+        <f t="shared" si="2"/>
+        <v>6.9813170079773184E-3</v>
+      </c>
+      <c r="H13" s="7">
+        <f t="shared" ref="H13:H14" si="6">(A$12*9.81*COS(G13)*B13)/(1000*1000)</f>
+        <v>0.14714641405829884</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="18"/>
+      <c r="B14" s="3">
+        <v>100</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.84</v>
+      </c>
+      <c r="D14" s="7">
+        <f t="shared" si="0"/>
+        <v>1.4660765716752368E-2</v>
+      </c>
+      <c r="E14" s="7">
+        <f t="shared" si="5"/>
+        <v>0.19617891495482645</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="G14" s="7">
+        <f t="shared" si="2"/>
+        <v>1.1519173063162575E-2</v>
+      </c>
+      <c r="H14" s="7">
+        <f t="shared" si="6"/>
+        <v>0.19618698312269195</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="D15" s="7">
+        <f t="shared" si="0"/>
+        <v>3.8397243543875251E-3</v>
+      </c>
+      <c r="E15" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>-0.22</v>
+      </c>
+      <c r="G15" s="7">
+        <f t="shared" si="2"/>
+        <v>-3.8397243543875251E-3</v>
+      </c>
+      <c r="H15" s="7">
+        <f>(A$12*9.81*COS(G15)*B15)/(1000*1000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="18">
+        <v>500</v>
+      </c>
+      <c r="B16" s="3">
+        <v>50</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.88</v>
+      </c>
+      <c r="D16" s="7">
+        <f t="shared" si="0"/>
+        <v>1.53588974175501E-2</v>
+      </c>
+      <c r="E16" s="7">
+        <f>(A$16*9.81*COS(D16)*B16)/(1000*1000)</f>
+        <v>0.24522107385475933</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G16" s="7">
+        <f t="shared" si="2"/>
+        <v>9.948376736367677E-3</v>
+      </c>
+      <c r="H16" s="7">
+        <f>(A$16*9.81*COS(G16)*B16)/(1000*1000)</f>
+        <v>0.24523786387935653</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="18"/>
+      <c r="B17" s="3">
+        <v>75</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1.36</v>
+      </c>
+      <c r="D17" s="7">
+        <f t="shared" si="0"/>
+        <v>2.3736477827122883E-2</v>
+      </c>
+      <c r="E17" s="7">
+        <f t="shared" ref="E17:E18" si="7">(A$16*9.81*COS(D17)*B17)/(1000*1000)</f>
+        <v>0.36777137072962773</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1.36</v>
+      </c>
+      <c r="G17" s="7">
+        <f t="shared" si="2"/>
+        <v>2.3736477827122883E-2</v>
+      </c>
+      <c r="H17" s="7">
+        <f t="shared" ref="H17:H19" si="8">(A$16*9.81*COS(G17)*B17)/(1000*1000)</f>
+        <v>0.36777137072962773</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="18"/>
+      <c r="B18" s="3">
+        <v>100</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1.93</v>
+      </c>
+      <c r="D18" s="7">
+        <f t="shared" si="0"/>
+        <v>3.368485456349056E-2</v>
+      </c>
+      <c r="E18" s="7">
+        <f t="shared" si="7"/>
+        <v>0.49022174863480644</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1.98</v>
+      </c>
+      <c r="G18" s="7">
+        <f t="shared" si="2"/>
+        <v>3.4557519189487726E-2</v>
+      </c>
+      <c r="H18" s="7">
+        <f t="shared" si="8"/>
+        <v>0.49020714616811423</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.44</v>
+      </c>
+      <c r="D19" s="7">
+        <f t="shared" si="0"/>
+        <v>7.6794487087750501E-3</v>
+      </c>
+      <c r="E19" s="7">
+        <f>(A$16*9.81*COS(D19)*B19)/(1000*1000)</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
+        <v>-0.44</v>
+      </c>
+      <c r="G19" s="7">
+        <f t="shared" si="2"/>
+        <v>-7.6794487087750501E-3</v>
+      </c>
+      <c r="H19" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="18">
+        <v>1000</v>
+      </c>
+      <c r="B20" s="3">
+        <v>50</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="D20" s="7">
+        <f t="shared" si="0"/>
+        <v>3.1415926535897934E-2</v>
+      </c>
+      <c r="E20" s="7">
+        <f>(A$20*9.81*COS(D20)*B20)/(1000*1000)</f>
+        <v>0.49025796785939135</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1.67</v>
+      </c>
+      <c r="G20" s="7">
+        <f t="shared" si="2"/>
+        <v>2.9146998508305301E-2</v>
+      </c>
+      <c r="H20" s="7">
+        <f>(A$20*9.81*COS(G20)*B20)/(1000*1000)</f>
+        <v>0.49029166322017831</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="18"/>
+      <c r="B21" s="3">
+        <v>75</v>
+      </c>
+      <c r="C21" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="D21" s="7">
+        <f t="shared" si="0"/>
+        <v>5.7595865315812872E-2</v>
+      </c>
+      <c r="E21" s="7">
+        <f t="shared" ref="E21:E23" si="9">(A$20*9.81*COS(D21)*B21)/(1000*1000)</f>
+        <v>0.7345299915737713</v>
+      </c>
+      <c r="F21" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="G21" s="7">
+        <f t="shared" si="2"/>
+        <v>5.0614548307835558E-2</v>
+      </c>
+      <c r="H21" s="7">
+        <f t="shared" ref="H21:H23" si="10">(A$20*9.81*COS(G21)*B21)/(1000*1000)</f>
+        <v>0.734807767048265</v>
+      </c>
+      <c r="L21" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="M21">
+        <v>13.185</v>
+      </c>
+      <c r="N21" t="s">
+        <v>60</v>
+      </c>
+      <c r="P21">
+        <f>(M21-M22)/M23</f>
+        <v>3.5350416795307212E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="18"/>
+      <c r="B22" s="3">
+        <v>100</v>
+      </c>
+      <c r="C22" s="2">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="D22" s="7">
+        <f t="shared" si="0"/>
+        <v>7.592182246175333E-2</v>
+      </c>
+      <c r="E22" s="7">
+        <f t="shared" si="9"/>
+        <v>0.97817405542242108</v>
+      </c>
+      <c r="F22" s="2">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="G22" s="7">
+        <f t="shared" si="2"/>
+        <v>7.749261878854824E-2</v>
+      </c>
+      <c r="H22" s="7">
+        <f t="shared" si="10"/>
+        <v>0.97805596923385196</v>
+      </c>
+      <c r="L22" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="M22">
+        <v>12.727</v>
+      </c>
+      <c r="N22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="3">
+        <v>0</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D23" s="7">
+        <f t="shared" si="0"/>
+        <v>9.948376736367677E-3</v>
+      </c>
+      <c r="E23" s="7">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="2">
+        <v>-0.62</v>
+      </c>
+      <c r="G23" s="7">
+        <f t="shared" si="2"/>
+        <v>-1.0821041362364843E-2</v>
+      </c>
+      <c r="H23" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="M23" s="13">
+        <f>AVERAGE(M21:M22)</f>
+        <v>12.956</v>
+      </c>
+      <c r="N23" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2">
+        <v>36</v>
+      </c>
+      <c r="D25" s="8">
+        <f t="shared" si="0"/>
+        <v>0.62831853071795862</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2">
+        <v>36</v>
+      </c>
+      <c r="G25" s="8">
+        <f t="shared" si="2"/>
+        <v>0.62831853071795862</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A20:A22"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:H2"/>
@@ -21597,7 +24268,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A152C52-9BEF-4539-A232-585D88C97E4C}">
   <dimension ref="A1:N23"/>
   <sheetViews>
@@ -21612,30 +24283,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18" t="s">
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
@@ -21664,7 +24335,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="16">
+      <c r="A4" s="18">
         <v>50</v>
       </c>
       <c r="B4" s="3">
@@ -21694,7 +24365,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="3">
         <v>75</v>
       </c>
@@ -21722,7 +24393,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="3">
         <v>100</v>
       </c>
@@ -21780,7 +24451,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="16">
+      <c r="A8" s="18">
         <v>100</v>
       </c>
       <c r="B8" s="3">
@@ -21810,7 +24481,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
+      <c r="A9" s="18"/>
       <c r="B9" s="3">
         <v>75</v>
       </c>
@@ -21838,7 +24509,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="3">
         <v>100</v>
       </c>
@@ -21896,7 +24567,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="16">
+      <c r="A12" s="18">
         <v>200</v>
       </c>
       <c r="B12" s="3">
@@ -21926,7 +24597,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="3">
         <v>75</v>
       </c>
@@ -21954,7 +24625,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="3">
         <v>100</v>
       </c>
@@ -22012,7 +24683,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="16">
+      <c r="A16" s="18">
         <v>500</v>
       </c>
       <c r="B16" s="3">
@@ -22042,7 +24713,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
+      <c r="A17" s="18"/>
       <c r="B17" s="3">
         <v>75</v>
       </c>
@@ -22070,7 +24741,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
+      <c r="A18" s="18"/>
       <c r="B18" s="3">
         <v>100</v>
       </c>
@@ -22191,7 +24862,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B90F1FC4-6CED-43A6-9F75-8078CCE7F8EB}">
   <dimension ref="A1:M36"/>
   <sheetViews>
@@ -22205,16 +24876,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19" t="s">
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -22243,7 +24914,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="20">
+      <c r="A3" s="22">
         <v>10</v>
       </c>
       <c r="B3">
@@ -22273,7 +24944,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
+      <c r="A4" s="22"/>
       <c r="B4">
         <v>75</v>
       </c>
@@ -22301,7 +24972,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
+      <c r="A5" s="22"/>
       <c r="B5">
         <v>100</v>
       </c>
@@ -22359,7 +25030,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="20">
+      <c r="A7" s="22">
         <v>20</v>
       </c>
       <c r="B7">
@@ -22389,7 +25060,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
+      <c r="A8" s="22"/>
       <c r="B8">
         <v>75</v>
       </c>
@@ -22417,7 +25088,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
+      <c r="A9" s="22"/>
       <c r="B9">
         <v>100</v>
       </c>
@@ -22475,7 +25146,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="20">
+      <c r="A11" s="22">
         <v>50</v>
       </c>
       <c r="B11">
@@ -22505,7 +25176,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
+      <c r="A12" s="22"/>
       <c r="B12">
         <v>75</v>
       </c>
@@ -22533,7 +25204,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
+      <c r="A13" s="22"/>
       <c r="B13">
         <v>100</v>
       </c>
@@ -22591,7 +25262,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="20">
+      <c r="A15" s="22">
         <v>100</v>
       </c>
       <c r="B15">
@@ -22621,7 +25292,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
+      <c r="A16" s="22"/>
       <c r="B16">
         <v>75</v>
       </c>
@@ -22649,7 +25320,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
+      <c r="A17" s="22"/>
       <c r="B17">
         <v>100</v>
       </c>
@@ -22918,525 +25589,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CDA47AA-D9B0-4A8D-A01C-E20429437D7C}">
-  <dimension ref="A1:M26"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="8" width="15.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C1" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="20">
-        <v>50</v>
-      </c>
-      <c r="B3">
-        <v>50</v>
-      </c>
-      <c r="C3">
-        <v>0.22</v>
-      </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D16" si="0">RADIANS(C3)</f>
-        <v>3.8397243543875251E-3</v>
-      </c>
-      <c r="E3">
-        <f>(A$3*9.81*COS(D3)*B3)/(1000*1000)</f>
-        <v>2.4524819208260391E-2</v>
-      </c>
-      <c r="F3">
-        <v>0.31</v>
-      </c>
-      <c r="G3">
-        <f>RADIANS(F3)</f>
-        <v>5.4105206811824215E-3</v>
-      </c>
-      <c r="H3">
-        <f>(A$3*9.81*COS(G3)*B3)/(1000*1000)</f>
-        <v>2.4524641031712015E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
-      <c r="B4">
-        <v>75</v>
-      </c>
-      <c r="C4">
-        <v>0.4</v>
-      </c>
-      <c r="D4">
-        <f t="shared" si="0"/>
-        <v>6.9813170079773184E-3</v>
-      </c>
-      <c r="E4">
-        <f t="shared" ref="E4:E6" si="1">(A$3*9.81*COS(D4)*B4)/(1000*1000)</f>
-        <v>3.678660351457471E-2</v>
-      </c>
-      <c r="F4">
-        <v>0.48</v>
-      </c>
-      <c r="G4">
-        <f t="shared" ref="G4:G14" si="2">RADIANS(F4)</f>
-        <v>8.377580409572781E-3</v>
-      </c>
-      <c r="H4">
-        <f t="shared" ref="H4:H6" si="3">(A$3*9.81*COS(G4)*B4)/(1000*1000)</f>
-        <v>3.6786209063294606E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
-      <c r="B5">
-        <v>100</v>
-      </c>
-      <c r="C5">
-        <v>0.62</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>1.0821041362364843E-2</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="1"/>
-        <v>4.9047128274712734E-2</v>
-      </c>
-      <c r="F5">
-        <v>0.7</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="2"/>
-        <v>1.2217304763960306E-2</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="3"/>
-        <v>4.9046339381845175E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0.18</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>3.1415926535897929E-3</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.26</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="2"/>
-        <v>4.5378560551852572E-3</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="20">
-        <v>100</v>
-      </c>
-      <c r="B7">
-        <v>50</v>
-      </c>
-      <c r="C7">
-        <v>0.62</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>1.0821041362364843E-2</v>
-      </c>
-      <c r="E7">
-        <f>(A$7*9.81*COS(D7)*B7)/(1000*1000)</f>
-        <v>4.9047128274712734E-2</v>
-      </c>
-      <c r="F7">
-        <v>0.7</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="2"/>
-        <v>1.2217304763960306E-2</v>
-      </c>
-      <c r="H7">
-        <f>(A$7*9.81*COS(G7)*B7)/(1000*1000)</f>
-        <v>4.9046339381845175E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
-      <c r="B8">
-        <v>75</v>
-      </c>
-      <c r="C8">
-        <v>0.97</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>1.6929693744344994E-2</v>
-      </c>
-      <c r="E8">
-        <f t="shared" ref="E8:E10" si="4">(A$7*9.81*COS(D8)*B8)/(1000*1000)</f>
-        <v>7.356445641979964E-2</v>
-      </c>
-      <c r="F8">
-        <v>1.19</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="2"/>
-        <v>2.076941809873252E-2</v>
-      </c>
-      <c r="H8">
-        <f t="shared" ref="H8:H9" si="5">(A$7*9.81*COS(G8)*B8)/(1000*1000)</f>
-        <v>7.3559131593352978E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
-      <c r="B9">
-        <v>100</v>
-      </c>
-      <c r="C9">
-        <v>1.45</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>2.5307274153917779E-2</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="4"/>
-        <v>9.8068587205565744E-2</v>
-      </c>
-      <c r="F9">
-        <v>1.71</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="2"/>
-        <v>2.9845130209103034E-2</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="5"/>
-        <v>9.8056312848286462E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0.18</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
-        <v>3.1415926535897929E-3</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.44</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="2"/>
-        <v>7.6794487087750501E-3</v>
-      </c>
-      <c r="H10">
-        <f>(A$7*9.81*COS(G10)*B10)/(1000*1000)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="20">
-        <v>200</v>
-      </c>
-      <c r="B11">
-        <v>50</v>
-      </c>
-      <c r="C11">
-        <v>1.49</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
-        <v>2.6005405854715509E-2</v>
-      </c>
-      <c r="E11">
-        <f>(A$11*9.81*COS(D11)*B11)/(1000*1000)</f>
-        <v>9.8066830279794764E-2</v>
-      </c>
-      <c r="F11">
-        <v>1.41</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="2"/>
-        <v>2.4609142453120045E-2</v>
-      </c>
-      <c r="H11">
-        <f>(A$11*9.81*COS(G11)*B11)/(1000*1000)</f>
-        <v>9.807029633389866E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
-      <c r="B12">
-        <v>75</v>
-      </c>
-      <c r="C12">
-        <v>2.37</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
-        <v>4.1364303272265611E-2</v>
-      </c>
-      <c r="E12">
-        <f t="shared" ref="E12:E14" si="6">(A$11*9.81*COS(D12)*B12)/(1000*1000)</f>
-        <v>0.14702413071252554</v>
-      </c>
-      <c r="F12">
-        <v>2.59</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="2"/>
-        <v>4.5204027626653133E-2</v>
-      </c>
-      <c r="H12">
-        <f t="shared" ref="H12:H14" si="7">(A$11*9.81*COS(G12)*B12)/(1000*1000)</f>
-        <v>0.14699968214162956</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
-      <c r="B13">
-        <v>100</v>
-      </c>
-      <c r="C13">
-        <v>3.56</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="0"/>
-        <v>6.2133721370998131E-2</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="6"/>
-        <v>0.1958213970319678</v>
-      </c>
-      <c r="F13">
-        <v>3.52</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="2"/>
-        <v>6.1435589670200401E-2</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="7"/>
-        <v>0.19582985450533863</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0.7</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="0"/>
-        <v>1.2217304763960306E-2</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0.66</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="2"/>
-        <v>1.1519173063162575E-2</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16">
-        <v>60</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="0"/>
-        <v>1.0471975511965976</v>
-      </c>
-      <c r="F16">
-        <v>56</v>
-      </c>
-      <c r="G16">
-        <f t="shared" ref="G16" si="8">RADIANS(F16)</f>
-        <v>0.97738438111682457</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="21"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="J20" t="s">
-        <v>9</v>
-      </c>
-      <c r="L20">
-        <f>1/0.2757</f>
-        <v>3.6271309394269133</v>
-      </c>
-      <c r="M20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="21"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="J21" t="s">
-        <v>10</v>
-      </c>
-      <c r="L21">
-        <f>1/0.2784</f>
-        <v>3.5919540229885061</v>
-      </c>
-      <c r="M21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="21"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="21"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="J23" t="s">
-        <v>12</v>
-      </c>
-      <c r="L23">
-        <f>AVERAGE(L20,L21)</f>
-        <v>3.6095424812077095</v>
-      </c>
-      <c r="M23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="21"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="21"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="L25">
-        <f>L23*4</f>
-        <v>14.438169924830838</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="21"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A19:D26"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A11:A13"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/CAD_Mechanical/AARL_QR-Quadruped/AARL_QR_FR-Frame/InProgress/Haonan/AARL_QR_FR_LE_BI_BL-Back_Left_new/Adjustable Spiral Torsion Spring/3D Printed Torsion Spring Calculations.xlsx
+++ b/CAD_Mechanical/AARL_QR-Quadruped/AARL_QR_FR-Frame/InProgress/Haonan/AARL_QR_FR_LE_BI_BL-Back_Left_new/Adjustable Spiral Torsion Spring/3D Printed Torsion Spring Calculations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Quadruped_Robot\CAD_Mechanical\AARL_QR-Quadruped\AARL_QR_FR-Frame\InProgress\Haonan\AARL_QR_FR_LE_BI_BL-Back_Left_new\Adjustable Spiral Torsion Spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FAA3CE9-C631-47EF-8383-89914ED5DB9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81FD95B1-4726-4857-B010-6C78D65AB81E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-135" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hip Spring Table" sheetId="7" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="79">
   <si>
     <t>unloaded</t>
   </si>
@@ -270,6 +270,33 @@
   <si>
     <t>2 Leg - 5mm Leg Thickness - 12mm Spring Thickness - 100% Infill</t>
   </si>
+  <si>
+    <t>Legs</t>
+  </si>
+  <si>
+    <t>OD (mm)</t>
+  </si>
+  <si>
+    <t>ID (mm)</t>
+  </si>
+  <si>
+    <t>Pitch (mm)</t>
+  </si>
+  <si>
+    <t>Leg Thickness (mm)</t>
+  </si>
+  <si>
+    <t>Infill Type</t>
+  </si>
+  <si>
+    <t>37% Triangular</t>
+  </si>
+  <si>
+    <t>100% Solid</t>
+  </si>
+  <si>
+    <t>Spring Thickness (mm)</t>
+  </si>
 </sst>
 </file>
 
@@ -349,7 +376,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -409,6 +436,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -17107,21 +17137,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21CEBFFD-D877-4251-A7C8-DAFF0369D5AB}">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="9" width="21.85546875" customWidth="1"/>
-    <col min="10" max="12" width="21.28515625" customWidth="1"/>
-    <col min="13" max="14" width="20.140625" customWidth="1"/>
-    <col min="15" max="15" width="60" customWidth="1"/>
+    <col min="1" max="10" width="21.85546875" customWidth="1"/>
+    <col min="11" max="13" width="21.28515625" customWidth="1"/>
+    <col min="14" max="15" width="20.140625" customWidth="1"/>
+    <col min="16" max="16" width="60" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>19</v>
       </c>
@@ -17140,35 +17170,36 @@
       <c r="F1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="5"/>
+      <c r="H1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>54</v>
       </c>
@@ -17189,29 +17220,30 @@
         <v>1</v>
       </c>
       <c r="G2" s="2"/>
-      <c r="H2" s="2">
-        <f>G2</f>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2">
+        <f>H2</f>
         <v>0</v>
       </c>
-      <c r="I2" s="2">
+      <c r="J2" s="2">
         <v>2</v>
       </c>
-      <c r="J2" s="3">
+      <c r="K2" s="3">
         <v>2.4</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2" t="e">
-        <f>C2*((J2*I2*D2^3)/(12*H2))</f>
+      <c r="M2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2" t="e">
+        <f>C2*((K2*J2*D2^3)/(12*I2))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>54</v>
       </c>
@@ -17232,26 +17264,27 @@
         <v>1</v>
       </c>
       <c r="G3" s="2"/>
-      <c r="H3" s="2">
-        <f t="shared" ref="H3:H22" si="1">G3</f>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2">
+        <f t="shared" ref="I3:I22" si="1">H3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="2">
+      <c r="J3" s="2">
         <v>4</v>
       </c>
-      <c r="J3" s="3">
+      <c r="K3" s="3">
         <v>2.4</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="2"/>
+      <c r="M3" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="N3" s="2"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O3" s="2"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>54</v>
       </c>
@@ -17272,26 +17305,27 @@
         <v>1</v>
       </c>
       <c r="G4" s="2"/>
-      <c r="H4" s="2">
+      <c r="H4" s="2"/>
+      <c r="I4" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I4" s="2">
+      <c r="J4" s="2">
         <v>6</v>
       </c>
-      <c r="J4" s="3">
+      <c r="K4" s="3">
         <v>2.4</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="M4" s="2"/>
+      <c r="M4" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="N4" s="2"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O4" s="2"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>54</v>
       </c>
@@ -17312,26 +17346,27 @@
         <v>1</v>
       </c>
       <c r="G5" s="2"/>
-      <c r="H5" s="2">
+      <c r="H5" s="2"/>
+      <c r="I5" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I5" s="2">
+      <c r="J5" s="2">
         <v>2</v>
       </c>
-      <c r="J5" s="3">
+      <c r="K5" s="3">
         <v>2.4</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="M5" s="2"/>
+      <c r="M5" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="N5" s="2"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O5" s="2"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>54</v>
       </c>
@@ -17352,26 +17387,27 @@
         <v>1</v>
       </c>
       <c r="G6" s="2"/>
-      <c r="H6" s="2">
+      <c r="H6" s="2"/>
+      <c r="I6" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I6" s="2">
+      <c r="J6" s="2">
         <v>4</v>
       </c>
-      <c r="J6" s="3">
+      <c r="K6" s="3">
         <v>2.4</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="M6" s="2"/>
+      <c r="M6" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="N6" s="2"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O6" s="2"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>54</v>
       </c>
@@ -17392,26 +17428,27 @@
         <v>1</v>
       </c>
       <c r="G7" s="2"/>
-      <c r="H7" s="2">
+      <c r="H7" s="2"/>
+      <c r="I7" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>6</v>
       </c>
-      <c r="J7" s="3">
+      <c r="K7" s="3">
         <v>2.4</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="M7" s="2"/>
+      <c r="M7" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>54</v>
       </c>
@@ -17432,26 +17469,27 @@
         <v>1</v>
       </c>
       <c r="G8" s="2"/>
-      <c r="H8" s="2">
+      <c r="H8" s="2"/>
+      <c r="I8" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I8" s="2">
+      <c r="J8" s="2">
         <v>2</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2.4</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="M8" s="2"/>
+      <c r="M8" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="N8" s="2"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O8" s="2"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>54</v>
       </c>
@@ -17472,26 +17510,27 @@
         <v>1</v>
       </c>
       <c r="G9" s="2"/>
-      <c r="H9" s="2">
+      <c r="H9" s="2"/>
+      <c r="I9" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I9" s="2">
+      <c r="J9" s="2">
         <v>4</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2.4</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="M9" s="2"/>
+      <c r="M9" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="N9" s="2"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O9" s="2"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>54</v>
       </c>
@@ -17512,26 +17551,27 @@
         <v>1</v>
       </c>
       <c r="G10" s="2"/>
-      <c r="H10" s="2">
+      <c r="H10" s="2"/>
+      <c r="I10" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I10" s="2">
+      <c r="J10" s="2">
         <v>6</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2.4</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="M10" s="2"/>
+      <c r="M10" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="N10" s="2"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O10" s="2"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>54</v>
       </c>
@@ -17552,26 +17592,27 @@
         <v>1</v>
       </c>
       <c r="G11" s="2"/>
-      <c r="H11" s="2">
+      <c r="H11" s="2"/>
+      <c r="I11" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I11" s="2">
+      <c r="J11" s="2">
         <v>2</v>
       </c>
-      <c r="J11" s="3">
+      <c r="K11" s="3">
         <v>2.4</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="M11" s="2"/>
+      <c r="M11" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="N11" s="2"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O11" s="2"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>54</v>
       </c>
@@ -17592,26 +17633,27 @@
         <v>1</v>
       </c>
       <c r="G12" s="2"/>
-      <c r="H12" s="2">
+      <c r="H12" s="2"/>
+      <c r="I12" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I12" s="2">
+      <c r="J12" s="2">
         <v>4</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>2.4</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="M12" s="2"/>
+      <c r="M12" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="N12" s="2"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O12" s="2"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>54</v>
       </c>
@@ -17632,26 +17674,27 @@
         <v>1</v>
       </c>
       <c r="G13" s="2"/>
-      <c r="H13" s="2">
+      <c r="H13" s="2"/>
+      <c r="I13" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I13" s="2">
+      <c r="J13" s="2">
         <v>6</v>
       </c>
-      <c r="J13" s="3">
+      <c r="K13" s="3">
         <v>2.4</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="M13" s="2"/>
+      <c r="M13" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="N13" s="2"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O13" s="2"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>54</v>
       </c>
@@ -17672,26 +17715,27 @@
         <v>1</v>
       </c>
       <c r="G14" s="2"/>
-      <c r="H14" s="2">
+      <c r="H14" s="2"/>
+      <c r="I14" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I14" s="2">
+      <c r="J14" s="2">
         <v>2</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>2.4</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="M14" s="2"/>
+      <c r="M14" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="N14" s="2"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O14" s="2"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>54</v>
       </c>
@@ -17712,26 +17756,27 @@
         <v>1</v>
       </c>
       <c r="G15" s="2"/>
-      <c r="H15" s="2">
+      <c r="H15" s="2"/>
+      <c r="I15" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I15" s="2">
+      <c r="J15" s="2">
         <v>4</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>2.4</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="M15" s="2"/>
+      <c r="M15" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="N15" s="2"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O15" s="2"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>54</v>
       </c>
@@ -17752,26 +17797,27 @@
         <v>1</v>
       </c>
       <c r="G16" s="2"/>
-      <c r="H16" s="2">
+      <c r="H16" s="2"/>
+      <c r="I16" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I16" s="2">
+      <c r="J16" s="2">
         <v>6</v>
       </c>
-      <c r="J16" s="3">
+      <c r="K16" s="3">
         <v>2.4</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="M16" s="2"/>
+      <c r="M16" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="N16" s="2"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O16" s="2"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>54</v>
       </c>
@@ -17792,26 +17838,27 @@
         <v>1</v>
       </c>
       <c r="G17" s="2"/>
-      <c r="H17" s="2">
+      <c r="H17" s="2"/>
+      <c r="I17" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I17" s="2">
+      <c r="J17" s="2">
         <v>2</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2.4</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="M17" s="2"/>
+      <c r="M17" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="N17" s="2"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O17" s="2"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>54</v>
       </c>
@@ -17832,26 +17879,27 @@
         <v>1</v>
       </c>
       <c r="G18" s="2"/>
-      <c r="H18" s="2">
+      <c r="H18" s="2"/>
+      <c r="I18" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I18" s="2">
+      <c r="J18" s="2">
         <v>4</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2.4</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="M18" s="2"/>
+      <c r="M18" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="N18" s="2"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O18" s="2"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>54</v>
       </c>
@@ -17872,26 +17920,27 @@
         <v>1</v>
       </c>
       <c r="G19" s="2"/>
-      <c r="H19" s="2">
+      <c r="H19" s="2"/>
+      <c r="I19" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I19" s="2">
+      <c r="J19" s="2">
         <v>6</v>
       </c>
-      <c r="J19" s="3">
+      <c r="K19" s="3">
         <v>2.4</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="M19" s="2"/>
+      <c r="M19" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="N19" s="2"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O19" s="2"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>54</v>
       </c>
@@ -17912,26 +17961,27 @@
         <v>1</v>
       </c>
       <c r="G20" s="2"/>
-      <c r="H20" s="2">
+      <c r="H20" s="2"/>
+      <c r="I20" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I20" s="2">
+      <c r="J20" s="2">
         <v>2</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2.4</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="M20" s="2"/>
+      <c r="M20" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="N20" s="2"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O20" s="2"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>54</v>
       </c>
@@ -17952,26 +18002,27 @@
         <v>1</v>
       </c>
       <c r="G21" s="2"/>
-      <c r="H21" s="2">
+      <c r="H21" s="2"/>
+      <c r="I21" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I21" s="2">
+      <c r="J21" s="2">
         <v>4</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2.4</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="M21" s="2"/>
+      <c r="M21" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="N21" s="2"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O21" s="2"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>54</v>
       </c>
@@ -17992,33 +18043,286 @@
         <v>1</v>
       </c>
       <c r="G22" s="2"/>
-      <c r="H22" s="2">
+      <c r="H22" s="2"/>
+      <c r="I22" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I22" s="2">
+      <c r="J22" s="2">
         <v>6</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>2.4</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="M22" s="2"/>
+      <c r="M22" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="N22" s="2"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I25" s="2"/>
+      <c r="O22" s="2"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J25" s="2"/>
+    </row>
+    <row r="35" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C35" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C36" s="2">
+        <v>44</v>
+      </c>
+      <c r="D36" s="2">
+        <v>14</v>
+      </c>
+      <c r="E36" s="2">
+        <v>19</v>
+      </c>
+      <c r="F36" s="2">
+        <v>2</v>
+      </c>
+      <c r="G36" s="2">
+        <v>4</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C37" s="2">
+        <v>54</v>
+      </c>
+      <c r="D37" s="2">
+        <v>14</v>
+      </c>
+      <c r="E37" s="2">
+        <v>33</v>
+      </c>
+      <c r="F37" s="2">
+        <v>3</v>
+      </c>
+      <c r="G37" s="2">
+        <v>6</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C38" s="2">
+        <v>54</v>
+      </c>
+      <c r="D38" s="2">
+        <v>14</v>
+      </c>
+      <c r="E38" s="2">
+        <v>20</v>
+      </c>
+      <c r="F38" s="2">
+        <v>4</v>
+      </c>
+      <c r="G38" s="2">
+        <v>3</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C39" s="2">
+        <v>54</v>
+      </c>
+      <c r="D39" s="2">
+        <v>14</v>
+      </c>
+      <c r="E39" s="2">
+        <v>20</v>
+      </c>
+      <c r="F39" s="2">
+        <v>3</v>
+      </c>
+      <c r="G39" s="2">
+        <v>4</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C40" s="2">
+        <v>54</v>
+      </c>
+      <c r="D40" s="2">
+        <v>14</v>
+      </c>
+      <c r="E40" s="2">
+        <v>20</v>
+      </c>
+      <c r="F40" s="2">
+        <v>2</v>
+      </c>
+      <c r="G40" s="2">
+        <v>5</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C41" s="2">
+        <v>54</v>
+      </c>
+      <c r="D41" s="2">
+        <v>14</v>
+      </c>
+      <c r="E41" s="2">
+        <v>20</v>
+      </c>
+      <c r="F41" s="2">
+        <v>2</v>
+      </c>
+      <c r="G41" s="2">
+        <v>5</v>
+      </c>
+      <c r="H41" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+    </row>
+    <row r="43" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+    </row>
+    <row r="44" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C44" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+    </row>
+    <row r="45" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C45" s="2">
+        <v>2</v>
+      </c>
+      <c r="D45" s="2">
+        <v>4</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+    </row>
+    <row r="46" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C46" s="2">
+        <v>3</v>
+      </c>
+      <c r="D46" s="2">
+        <v>4</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+    </row>
+    <row r="47" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C47" s="2">
+        <v>4</v>
+      </c>
+      <c r="D47" s="2">
+        <v>4</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+    </row>
+    <row r="48" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C48" s="2">
+        <v>5</v>
+      </c>
+      <c r="D48" s="2">
+        <v>2</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+    </row>
+    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C49" s="2">
+        <v>5</v>
+      </c>
+      <c r="D49" s="2">
+        <v>4</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+    </row>
+    <row r="50" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C50" s="2">
+        <v>5</v>
+      </c>
+      <c r="D50" s="2">
+        <v>8</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+    </row>
+    <row r="51" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C51" s="2">
+        <v>5</v>
+      </c>
+      <c r="D51" s="2">
+        <v>12</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18030,7 +18334,7 @@
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19068,7 +19372,7 @@
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19708,7 +20012,7 @@
   <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21514,7 +21818,7 @@
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22111,8 +22415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B415D6B-E848-4B07-9099-31D65C6117F4}">
   <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23531,12 +23835,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A8:A10"/>
     <mergeCell ref="A39:A41"/>
     <mergeCell ref="A43:A45"/>
     <mergeCell ref="A47:A49"/>
@@ -23547,6 +23845,12 @@
     <mergeCell ref="C33:E33"/>
     <mergeCell ref="F33:H33"/>
     <mergeCell ref="A35:A37"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A8:A10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -23557,8 +23861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85DCC684-7664-4E92-8F50-059672B70BA9}">
   <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G38" sqref="F38:G38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24867,7 +25171,7 @@
   <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/CAD_Mechanical/AARL_QR-Quadruped/AARL_QR_FR-Frame/InProgress/Haonan/AARL_QR_FR_LE_BI_BL-Back_Left_new/Adjustable Spiral Torsion Spring/3D Printed Torsion Spring Calculations.xlsx
+++ b/CAD_Mechanical/AARL_QR-Quadruped/AARL_QR_FR-Frame/InProgress/Haonan/AARL_QR_FR_LE_BI_BL-Back_Left_new/Adjustable Spiral Torsion Spring/3D Printed Torsion Spring Calculations.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Quadruped_Robot\CAD_Mechanical\AARL_QR-Quadruped\AARL_QR_FR-Frame\InProgress\Haonan\AARL_QR_FR_LE_BI_BL-Back_Left_new\Adjustable Spiral Torsion Spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81FD95B1-4726-4857-B010-6C78D65AB81E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE1F73E-0C80-4178-8AAE-0B11589B46C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-135" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-135" windowWidth="29040" windowHeight="15720" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hip Spring Table" sheetId="7" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="94">
   <si>
     <t>unloaded</t>
   </si>
@@ -297,6 +297,51 @@
   <si>
     <t>Spring Thickness (mm)</t>
   </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Kevlar</t>
+  </si>
+  <si>
+    <t>HSTS Fiberglass (trial 1)</t>
+  </si>
+  <si>
+    <t>HSTS Fiberglass (trial 2)</t>
+  </si>
+  <si>
+    <t>Spring Rate (Nm/rad)</t>
+  </si>
+  <si>
+    <t>Spring No.</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>P6</t>
+  </si>
+  <si>
+    <t>CounterClockwise</t>
+  </si>
+  <si>
+    <t>Range of Motion (º)</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
 </sst>
 </file>
 
@@ -376,7 +421,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -419,6 +464,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -429,6 +477,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -436,9 +487,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5806,7 +5854,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Clockwise Torque</c:v>
+                  <c:v>Clockwise</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6007,7 +6055,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Counter-Clockwise Torque</c:v>
+                  <c:v>Counter-Clockwise</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6628,7 +6676,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Clockwise Torque</c:v>
+                  <c:v>Clockwise</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6829,7 +6877,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Counter-Clockwise Torque</c:v>
+                  <c:v>Counter-Clockwise</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7422,7 +7470,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Clockwise Torque</c:v>
+                  <c:v>Clockwise</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7623,7 +7671,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Counter-Clockwise Torque</c:v>
+                  <c:v>Counter-Clockwise</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -17137,9 +17185,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21CEBFFD-D877-4251-A7C8-DAFF0369D5AB}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
@@ -18208,7 +18257,7 @@
       <c r="G41" s="2">
         <v>5</v>
       </c>
-      <c r="H41" s="24" t="s">
+      <c r="H41" s="18" t="s">
         <v>77</v>
       </c>
     </row>
@@ -18331,10 +18380,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CDA47AA-D9B0-4A8D-A01C-E20429437D7C}">
+  <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18343,16 +18393,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21" t="s">
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -18381,7 +18431,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="22">
+      <c r="A3" s="24">
         <v>50</v>
       </c>
       <c r="B3">
@@ -18411,7 +18461,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
+      <c r="A4" s="24"/>
       <c r="B4">
         <v>75</v>
       </c>
@@ -18439,7 +18489,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
+      <c r="A5" s="24"/>
       <c r="B5">
         <v>100</v>
       </c>
@@ -18497,7 +18547,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="22">
+      <c r="A7" s="24">
         <v>100</v>
       </c>
       <c r="B7">
@@ -18527,7 +18577,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
+      <c r="A8" s="24"/>
       <c r="B8">
         <v>75</v>
       </c>
@@ -18555,7 +18605,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
+      <c r="A9" s="24"/>
       <c r="B9">
         <v>100</v>
       </c>
@@ -18613,7 +18663,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="22">
+      <c r="A11" s="24">
         <v>200</v>
       </c>
       <c r="B11">
@@ -18643,7 +18693,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="22"/>
+      <c r="A12" s="24"/>
       <c r="B12">
         <v>75</v>
       </c>
@@ -18671,7 +18721,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
+      <c r="A13" s="24"/>
       <c r="B13">
         <v>100</v>
       </c>
@@ -18753,18 +18803,18 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="23"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
       <c r="J20" t="s">
         <v>9</v>
       </c>
@@ -18777,10 +18827,10 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="23"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
       <c r="J21" t="s">
         <v>10</v>
       </c>
@@ -18793,16 +18843,16 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="23"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
+      <c r="A22" s="25"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="23"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
+      <c r="A23" s="25"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
       <c r="J23" t="s">
         <v>12</v>
       </c>
@@ -18815,26 +18865,26 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="23"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
+      <c r="A24" s="25"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="23"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
       <c r="L25">
         <f>L23*4</f>
         <v>14.438169924830838</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="23"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
+      <c r="A26" s="25"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -18852,10 +18902,11 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B3929C0-B96D-4F9B-8D10-24FEEFAD81E6}">
+  <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+      <selection activeCell="L20" sqref="L20:L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18864,16 +18915,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21" t="s">
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -18902,7 +18953,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="22">
+      <c r="A3" s="24">
         <v>50</v>
       </c>
       <c r="B3">
@@ -18932,7 +18983,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
+      <c r="A4" s="24"/>
       <c r="B4">
         <v>75</v>
       </c>
@@ -18960,7 +19011,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
+      <c r="A5" s="24"/>
       <c r="B5">
         <v>100</v>
       </c>
@@ -19018,7 +19069,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="22">
+      <c r="A7" s="24">
         <v>100</v>
       </c>
       <c r="B7">
@@ -19048,7 +19099,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
+      <c r="A8" s="24"/>
       <c r="B8">
         <v>75</v>
       </c>
@@ -19076,7 +19127,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
+      <c r="A9" s="24"/>
       <c r="B9">
         <v>100</v>
       </c>
@@ -19134,7 +19185,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="22">
+      <c r="A11" s="24">
         <v>200</v>
       </c>
       <c r="B11">
@@ -19164,7 +19215,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="22"/>
+      <c r="A12" s="24"/>
       <c r="B12">
         <v>75</v>
       </c>
@@ -19192,7 +19243,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
+      <c r="A13" s="24"/>
       <c r="B13">
         <v>100</v>
       </c>
@@ -19274,18 +19325,18 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="23"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
       <c r="J20" t="s">
         <v>9</v>
       </c>
@@ -19298,10 +19349,10 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="23"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
       <c r="J21" t="s">
         <v>10</v>
       </c>
@@ -19314,16 +19365,16 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="23"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
+      <c r="A22" s="25"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="23"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
+      <c r="A23" s="25"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
       <c r="J23" t="s">
         <v>12</v>
       </c>
@@ -19336,22 +19387,22 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="23"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
+      <c r="A24" s="25"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="23"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="23"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
+      <c r="A26" s="25"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -19369,10 +19420,11 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF22B8A3-95C2-4791-94DF-9E76D33A34B1}">
+  <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+      <selection activeCell="L20" sqref="L20:L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19381,16 +19433,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21" t="s">
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -19419,7 +19471,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="22">
+      <c r="A3" s="24">
         <v>50</v>
       </c>
       <c r="B3">
@@ -19449,7 +19501,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
+      <c r="A4" s="24"/>
       <c r="B4">
         <v>75</v>
       </c>
@@ -19477,7 +19529,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
+      <c r="A5" s="24"/>
       <c r="B5">
         <v>100</v>
       </c>
@@ -19535,7 +19587,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="22">
+      <c r="A7" s="24">
         <v>100</v>
       </c>
       <c r="B7">
@@ -19565,7 +19617,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
+      <c r="A8" s="24"/>
       <c r="B8">
         <v>75</v>
       </c>
@@ -19593,7 +19645,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
+      <c r="A9" s="24"/>
       <c r="B9">
         <v>100</v>
       </c>
@@ -19651,7 +19703,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="22">
+      <c r="A11" s="24">
         <v>200</v>
       </c>
       <c r="B11">
@@ -19681,7 +19733,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="22"/>
+      <c r="A12" s="24"/>
       <c r="B12">
         <v>75</v>
       </c>
@@ -19709,7 +19761,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
+      <c r="A13" s="24"/>
       <c r="B13">
         <v>100</v>
       </c>
@@ -19767,7 +19819,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="22">
+      <c r="A15" s="24">
         <v>500</v>
       </c>
       <c r="B15">
@@ -19797,7 +19849,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
+      <c r="A16" s="24"/>
       <c r="B16">
         <v>75</v>
       </c>
@@ -19825,7 +19877,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
+      <c r="A17" s="24"/>
       <c r="B17">
         <v>100</v>
       </c>
@@ -19929,12 +19981,12 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
       <c r="J23" t="s">
         <v>12</v>
       </c>
@@ -19947,50 +19999,50 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="23"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
+      <c r="A24" s="25"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="23"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
       <c r="L25">
         <f>L23*4</f>
         <v>5.6974317845977467</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="23"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
+      <c r="A26" s="25"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="23"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
+      <c r="A27" s="25"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="23"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
+      <c r="A28" s="25"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="23"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
+      <c r="A29" s="25"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="23"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
+      <c r="A30" s="25"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -20009,10 +20061,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFA74A3D-8B14-45D1-B319-AB4200826715}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20022,30 +20075,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20" t="s">
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
@@ -20074,7 +20127,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="18">
+      <c r="A4" s="19">
         <v>50</v>
       </c>
       <c r="B4" s="3">
@@ -20104,7 +20157,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="3">
         <v>75</v>
       </c>
@@ -20132,7 +20185,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="3">
         <v>100</v>
       </c>
@@ -20190,7 +20243,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="18">
+      <c r="A8" s="19">
         <v>100</v>
       </c>
       <c r="B8" s="3">
@@ -20220,7 +20273,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="3">
         <v>75</v>
       </c>
@@ -20248,7 +20301,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="3">
         <v>100</v>
       </c>
@@ -20306,7 +20359,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="18">
+      <c r="A12" s="19">
         <v>200</v>
       </c>
       <c r="B12" s="3">
@@ -20336,7 +20389,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="3">
         <v>75</v>
       </c>
@@ -20364,7 +20417,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="3">
         <v>100</v>
       </c>
@@ -20422,7 +20475,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="18">
+      <c r="A16" s="19">
         <v>500</v>
       </c>
       <c r="B16" s="3">
@@ -20452,7 +20505,7 @@
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
+      <c r="A17" s="19"/>
       <c r="B17" s="3">
         <v>75</v>
       </c>
@@ -20480,7 +20533,7 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
+      <c r="A18" s="19"/>
       <c r="B18" s="3">
         <v>100</v>
       </c>
@@ -20612,6 +20665,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27BFBEE9-465E-4F2C-8228-998CAC6DC9BC}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -20625,30 +20679,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20" t="s">
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
@@ -20677,7 +20731,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="18">
+      <c r="A4" s="19">
         <v>50</v>
       </c>
       <c r="B4" s="3">
@@ -20707,7 +20761,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="3">
         <v>75</v>
       </c>
@@ -20735,7 +20789,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="3">
         <v>100</v>
       </c>
@@ -20793,7 +20847,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="18">
+      <c r="A8" s="19">
         <v>100</v>
       </c>
       <c r="B8" s="3">
@@ -20823,7 +20877,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="3">
         <v>75</v>
       </c>
@@ -20851,7 +20905,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="3">
         <v>100</v>
       </c>
@@ -20909,7 +20963,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="18">
+      <c r="A12" s="19">
         <v>200</v>
       </c>
       <c r="B12" s="3">
@@ -20939,7 +20993,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="3">
         <v>75</v>
       </c>
@@ -20967,7 +21021,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="3">
         <v>100</v>
       </c>
@@ -21025,7 +21079,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="18">
+      <c r="A16" s="19">
         <v>500</v>
       </c>
       <c r="B16" s="3">
@@ -21055,7 +21109,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
+      <c r="A17" s="19"/>
       <c r="B17" s="3">
         <v>75</v>
       </c>
@@ -21083,7 +21137,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
+      <c r="A18" s="19"/>
       <c r="B18" s="3">
         <v>100</v>
       </c>
@@ -21210,6 +21264,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1E6D04F-DDA3-4D38-BAAD-DF6A01F783DA}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -21223,30 +21278,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20" t="s">
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
@@ -21275,7 +21330,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="18">
+      <c r="A4" s="19">
         <v>50</v>
       </c>
       <c r="B4" s="3">
@@ -21305,7 +21360,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="3">
         <v>75</v>
       </c>
@@ -21333,7 +21388,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="3">
         <v>100</v>
       </c>
@@ -21391,7 +21446,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="18">
+      <c r="A8" s="19">
         <v>100</v>
       </c>
       <c r="B8" s="3">
@@ -21421,7 +21476,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="3">
         <v>75</v>
       </c>
@@ -21449,7 +21504,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="3">
         <v>100</v>
       </c>
@@ -21507,7 +21562,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="18">
+      <c r="A12" s="19">
         <v>200</v>
       </c>
       <c r="B12" s="3">
@@ -21537,7 +21592,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="3">
         <v>75</v>
       </c>
@@ -21565,7 +21620,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="3">
         <v>100</v>
       </c>
@@ -21623,7 +21678,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="18">
+      <c r="A16" s="19">
         <v>500</v>
       </c>
       <c r="B16" s="3">
@@ -21653,7 +21708,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
+      <c r="A17" s="19"/>
       <c r="B17" s="3">
         <v>75</v>
       </c>
@@ -21681,7 +21736,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
+      <c r="A18" s="19"/>
       <c r="B18" s="3">
         <v>100</v>
       </c>
@@ -21815,10 +21870,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76B2740F-38F5-465B-9AB1-2A355D2F4BF6}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21828,30 +21884,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20" t="s">
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
@@ -21880,7 +21936,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="18">
+      <c r="A4" s="19">
         <v>50</v>
       </c>
       <c r="B4" s="3">
@@ -21910,7 +21966,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="3">
         <v>75</v>
       </c>
@@ -21938,7 +21994,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="3">
         <v>100</v>
       </c>
@@ -21996,7 +22052,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="18">
+      <c r="A8" s="19">
         <v>100</v>
       </c>
       <c r="B8" s="3">
@@ -22026,7 +22082,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="3">
         <v>75</v>
       </c>
@@ -22054,7 +22110,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="3">
         <v>100</v>
       </c>
@@ -22112,7 +22168,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="18">
+      <c r="A12" s="19">
         <v>200</v>
       </c>
       <c r="B12" s="3">
@@ -22142,7 +22198,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="3">
         <v>75</v>
       </c>
@@ -22170,7 +22226,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="3">
         <v>100</v>
       </c>
@@ -22228,7 +22284,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="18">
+      <c r="A16" s="19">
         <v>500</v>
       </c>
       <c r="B16" s="3">
@@ -22258,7 +22314,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
+      <c r="A17" s="19"/>
       <c r="B17" s="3">
         <v>75</v>
       </c>
@@ -22286,7 +22342,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
+      <c r="A18" s="19"/>
       <c r="B18" s="3">
         <v>100</v>
       </c>
@@ -22413,10 +22469,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B415D6B-E848-4B07-9099-31D65C6117F4}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="I47" sqref="I47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22426,30 +22483,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
-      <c r="C2" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
+      <c r="C2" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
@@ -22478,7 +22535,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="18">
+      <c r="A4" s="19">
         <v>50</v>
       </c>
       <c r="B4" s="3">
@@ -22508,7 +22565,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="3">
         <v>75</v>
       </c>
@@ -22536,7 +22593,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="3">
         <v>100</v>
       </c>
@@ -22594,7 +22651,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="18">
+      <c r="A8" s="19">
         <v>100</v>
       </c>
       <c r="B8" s="3">
@@ -22624,7 +22681,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="3">
         <v>75</v>
       </c>
@@ -22652,7 +22709,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="3">
         <v>100</v>
       </c>
@@ -22710,7 +22767,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="18">
+      <c r="A12" s="19">
         <v>200</v>
       </c>
       <c r="B12" s="3">
@@ -22740,7 +22797,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="3">
         <v>75</v>
       </c>
@@ -22768,7 +22825,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="3">
         <v>100</v>
       </c>
@@ -22826,7 +22883,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="18">
+      <c r="A16" s="19">
         <v>500</v>
       </c>
       <c r="B16" s="3">
@@ -22856,7 +22913,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
+      <c r="A17" s="19"/>
       <c r="B17" s="3">
         <v>75</v>
       </c>
@@ -22884,7 +22941,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
+      <c r="A18" s="19"/>
       <c r="B18" s="3">
         <v>100</v>
       </c>
@@ -22942,7 +22999,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="18">
+      <c r="A20" s="19">
         <v>1000</v>
       </c>
       <c r="B20" s="3">
@@ -22972,7 +23029,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
+      <c r="A21" s="19"/>
       <c r="B21" s="3">
         <v>75</v>
       </c>
@@ -23009,7 +23066,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="18"/>
+      <c r="A22" s="19"/>
       <c r="B22" s="3">
         <v>100</v>
       </c>
@@ -23113,30 +23170,30 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
-      <c r="C33" s="20" t="s">
+      <c r="C33" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20" t="s">
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
@@ -23165,7 +23222,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="18">
+      <c r="A35" s="19">
         <v>50</v>
       </c>
       <c r="B35" s="3">
@@ -23197,7 +23254,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="18"/>
+      <c r="A36" s="19"/>
       <c r="B36" s="3">
         <v>75</v>
       </c>
@@ -23227,7 +23284,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="18"/>
+      <c r="A37" s="19"/>
       <c r="B37" s="3">
         <v>100</v>
       </c>
@@ -23289,7 +23346,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="18">
+      <c r="A39" s="19">
         <v>100</v>
       </c>
       <c r="B39" s="3">
@@ -23321,7 +23378,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="18"/>
+      <c r="A40" s="19"/>
       <c r="B40" s="3">
         <v>75</v>
       </c>
@@ -23351,7 +23408,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="18"/>
+      <c r="A41" s="19"/>
       <c r="B41" s="3">
         <v>100</v>
       </c>
@@ -23413,7 +23470,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="18">
+      <c r="A43" s="19">
         <v>200</v>
       </c>
       <c r="B43" s="3">
@@ -23445,7 +23502,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="18"/>
+      <c r="A44" s="19"/>
       <c r="B44" s="3">
         <v>75</v>
       </c>
@@ -23475,7 +23532,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="18"/>
+      <c r="A45" s="19"/>
       <c r="B45" s="3">
         <v>100</v>
       </c>
@@ -23537,7 +23594,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="18">
+      <c r="A47" s="19">
         <v>500</v>
       </c>
       <c r="B47" s="3">
@@ -23569,7 +23626,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="18"/>
+      <c r="A48" s="19"/>
       <c r="B48" s="3">
         <v>75</v>
       </c>
@@ -23599,7 +23656,7 @@
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="18"/>
+      <c r="A49" s="19"/>
       <c r="B49" s="3">
         <v>100</v>
       </c>
@@ -23661,7 +23718,7 @@
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="18">
+      <c r="A51" s="19">
         <v>1000</v>
       </c>
       <c r="B51" s="3">
@@ -23693,7 +23750,7 @@
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="18"/>
+      <c r="A52" s="19"/>
       <c r="B52" s="3">
         <v>75</v>
       </c>
@@ -23732,7 +23789,7 @@
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="18"/>
+      <c r="A53" s="19"/>
       <c r="B53" s="3">
         <v>100</v>
       </c>
@@ -23835,6 +23892,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A8:A10"/>
     <mergeCell ref="A39:A41"/>
     <mergeCell ref="A43:A45"/>
     <mergeCell ref="A47:A49"/>
@@ -23845,12 +23908,6 @@
     <mergeCell ref="C33:E33"/>
     <mergeCell ref="F33:H33"/>
     <mergeCell ref="A35:A37"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A8:A10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -23859,10 +23916,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85DCC684-7664-4E92-8F50-059672B70BA9}">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23872,30 +23930,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
-      <c r="C2" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
+      <c r="C2" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
@@ -23924,7 +23982,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="18">
+      <c r="A4" s="19">
         <v>50</v>
       </c>
       <c r="B4" s="3">
@@ -23954,7 +24012,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="3">
         <v>75</v>
       </c>
@@ -23982,7 +24040,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="3">
         <v>100</v>
       </c>
@@ -24040,7 +24098,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="18">
+      <c r="A8" s="19">
         <v>100</v>
       </c>
       <c r="B8" s="3">
@@ -24070,7 +24128,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="3">
         <v>75</v>
       </c>
@@ -24098,7 +24156,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="3">
         <v>100</v>
       </c>
@@ -24156,7 +24214,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="18">
+      <c r="A12" s="19">
         <v>200</v>
       </c>
       <c r="B12" s="3">
@@ -24186,7 +24244,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="3">
         <v>75</v>
       </c>
@@ -24214,7 +24272,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="3">
         <v>100</v>
       </c>
@@ -24272,7 +24330,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="18">
+      <c r="A16" s="19">
         <v>500</v>
       </c>
       <c r="B16" s="3">
@@ -24302,7 +24360,7 @@
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
+      <c r="A17" s="19"/>
       <c r="B17" s="3">
         <v>75</v>
       </c>
@@ -24330,7 +24388,7 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
+      <c r="A18" s="19"/>
       <c r="B18" s="3">
         <v>100</v>
       </c>
@@ -24388,7 +24446,7 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="18">
+      <c r="A20" s="19">
         <v>1000</v>
       </c>
       <c r="B20" s="3">
@@ -24418,7 +24476,7 @@
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
+      <c r="A21" s="19"/>
       <c r="B21" s="3">
         <v>75</v>
       </c>
@@ -24459,7 +24517,7 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="18"/>
+      <c r="A22" s="19"/>
       <c r="B22" s="3">
         <v>100</v>
       </c>
@@ -24574,10 +24632,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A152C52-9BEF-4539-A232-585D88C97E4C}">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24587,30 +24646,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20" t="s">
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
@@ -24639,7 +24698,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="18">
+      <c r="A4" s="19">
         <v>50</v>
       </c>
       <c r="B4" s="3">
@@ -24669,7 +24728,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="3">
         <v>75</v>
       </c>
@@ -24677,7 +24736,7 @@
         <v>0.22</v>
       </c>
       <c r="D5" s="7">
-        <f t="shared" ref="D5:D21" si="0">RADIANS(C5)</f>
+        <f t="shared" ref="D5:D19" si="0">RADIANS(C5)</f>
         <v>3.8397243543875251E-3</v>
       </c>
       <c r="E5" s="7">
@@ -24697,7 +24756,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="3">
         <v>100</v>
       </c>
@@ -24755,7 +24814,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="18">
+      <c r="A8" s="19">
         <v>100</v>
       </c>
       <c r="B8" s="3">
@@ -24785,7 +24844,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="3">
         <v>75</v>
       </c>
@@ -24813,7 +24872,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="3">
         <v>100</v>
       </c>
@@ -24871,7 +24930,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="18">
+      <c r="A12" s="19">
         <v>200</v>
       </c>
       <c r="B12" s="3">
@@ -24901,7 +24960,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="3">
         <v>75</v>
       </c>
@@ -24929,7 +24988,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="3">
         <v>100</v>
       </c>
@@ -24987,7 +25046,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="18">
+      <c r="A16" s="19">
         <v>500</v>
       </c>
       <c r="B16" s="3">
@@ -25017,7 +25076,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
+      <c r="A17" s="19"/>
       <c r="B17" s="3">
         <v>75</v>
       </c>
@@ -25045,7 +25104,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
+      <c r="A18" s="19"/>
       <c r="B18" s="3">
         <v>100</v>
       </c>
@@ -25109,7 +25168,7 @@
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="8">
-        <f t="shared" si="0"/>
+        <f>RADIANS(C21)</f>
         <v>0</v>
       </c>
       <c r="E21" s="2"/>
@@ -25168,28 +25227,30 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B90F1FC4-6CED-43A6-9F75-8078CCE7F8EB}">
-  <dimension ref="A1:M36"/>
+  <sheetPr codeName="Sheet9"/>
+  <dimension ref="A1:U51"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+    <sheetView topLeftCell="C28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="T45" sqref="T45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="8" width="15.85546875" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21" t="s">
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -25218,7 +25279,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="22">
+      <c r="A3" s="24">
         <v>10</v>
       </c>
       <c r="B3">
@@ -25248,7 +25309,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
+      <c r="A4" s="24"/>
       <c r="B4">
         <v>75</v>
       </c>
@@ -25276,7 +25337,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
+      <c r="A5" s="24"/>
       <c r="B5">
         <v>100</v>
       </c>
@@ -25334,7 +25395,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="22">
+      <c r="A7" s="24">
         <v>20</v>
       </c>
       <c r="B7">
@@ -25364,7 +25425,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
+      <c r="A8" s="24"/>
       <c r="B8">
         <v>75</v>
       </c>
@@ -25392,7 +25453,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
+      <c r="A9" s="24"/>
       <c r="B9">
         <v>100</v>
       </c>
@@ -25450,7 +25511,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="22">
+      <c r="A11" s="24">
         <v>50</v>
       </c>
       <c r="B11">
@@ -25480,7 +25541,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="22"/>
+      <c r="A12" s="24"/>
       <c r="B12">
         <v>75</v>
       </c>
@@ -25508,7 +25569,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
+      <c r="A13" s="24"/>
       <c r="B13">
         <v>100</v>
       </c>
@@ -25566,7 +25627,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="22">
+      <c r="A15" s="24">
         <v>100</v>
       </c>
       <c r="B15">
@@ -25596,7 +25657,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
+      <c r="A16" s="24"/>
       <c r="B16">
         <v>75</v>
       </c>
@@ -25624,7 +25685,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
+      <c r="A17" s="24"/>
       <c r="B17">
         <v>100</v>
       </c>
@@ -25796,7 +25857,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -25823,7 +25884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -25852,7 +25913,7 @@
         <v>39.793491854802916</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>40</v>
       </c>
@@ -25870,7 +25931,7 @@
         <v>39.793491854802916</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -25881,8 +25942,190 @@
         <v>37</v>
       </c>
     </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="N37" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="O37" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="N38" s="22"/>
+      <c r="O38" t="s">
+        <v>9</v>
+      </c>
+      <c r="P38" t="s">
+        <v>10</v>
+      </c>
+      <c r="T38" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="N39" t="s">
+        <v>79</v>
+      </c>
+      <c r="O39" s="4">
+        <v>1.1040000000000001</v>
+      </c>
+      <c r="P39">
+        <v>0.88800000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="N40" t="s">
+        <v>80</v>
+      </c>
+      <c r="O40">
+        <v>1.462</v>
+      </c>
+      <c r="P40">
+        <v>1.387</v>
+      </c>
+      <c r="T40" s="17">
+        <f>ABS(O40-O$39)/O$39</f>
+        <v>0.32427536231884047</v>
+      </c>
+      <c r="U40" s="17">
+        <f>ABS(P40-P$39)/P$39</f>
+        <v>0.56193693693693691</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="N41" t="s">
+        <v>81</v>
+      </c>
+      <c r="O41">
+        <v>3.6269999999999998</v>
+      </c>
+      <c r="P41">
+        <v>3.5920000000000001</v>
+      </c>
+      <c r="T41" s="17">
+        <f t="shared" ref="T41:T42" si="9">ABS(O41-O$39)/O$39</f>
+        <v>2.2853260869565211</v>
+      </c>
+      <c r="U41" s="17">
+        <f t="shared" ref="U41:U42" si="10">ABS(P41-P$39)/P$39</f>
+        <v>3.045045045045045</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="N42" t="s">
+        <v>82</v>
+      </c>
+      <c r="O42">
+        <v>1.6040000000000001</v>
+      </c>
+      <c r="P42">
+        <v>1.5629999999999999</v>
+      </c>
+      <c r="T42" s="17">
+        <f t="shared" si="9"/>
+        <v>0.45289855072463764</v>
+      </c>
+      <c r="U42" s="17">
+        <f t="shared" si="10"/>
+        <v>0.76013513513513509</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="M44" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="N44" t="s">
+        <v>92</v>
+      </c>
+      <c r="P44" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="M45" s="23"/>
+      <c r="N45" t="s">
+        <v>9</v>
+      </c>
+      <c r="O45" t="s">
+        <v>91</v>
+      </c>
+      <c r="P45" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="M46" t="s">
+        <v>85</v>
+      </c>
+      <c r="N46">
+        <v>60</v>
+      </c>
+      <c r="O46">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="M47" t="s">
+        <v>86</v>
+      </c>
+      <c r="N47">
+        <v>43</v>
+      </c>
+      <c r="O47">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="M48" t="s">
+        <v>87</v>
+      </c>
+      <c r="N48">
+        <v>33</v>
+      </c>
+      <c r="O48">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M49" t="s">
+        <v>88</v>
+      </c>
+      <c r="N49">
+        <v>23</v>
+      </c>
+      <c r="O49">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M50" t="s">
+        <v>89</v>
+      </c>
+      <c r="N50">
+        <v>43</v>
+      </c>
+      <c r="O50">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M51" t="s">
+        <v>90</v>
+      </c>
+      <c r="N51">
+        <v>43</v>
+      </c>
+      <c r="O51">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="N37:N38"/>
+    <mergeCell ref="M44:M45"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A7:A9"/>

--- a/CAD_Mechanical/AARL_QR-Quadruped/AARL_QR_FR-Frame/InProgress/Haonan/AARL_QR_FR_LE_BI_BL-Back_Left_new/Adjustable Spiral Torsion Spring/3D Printed Torsion Spring Calculations.xlsx
+++ b/CAD_Mechanical/AARL_QR-Quadruped/AARL_QR_FR-Frame/InProgress/Haonan/AARL_QR_FR_LE_BI_BL-Back_Left_new/Adjustable Spiral Torsion Spring/3D Printed Torsion Spring Calculations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Quadruped_Robot\CAD_Mechanical\AARL_QR-Quadruped\AARL_QR_FR-Frame\InProgress\Haonan\AARL_QR_FR_LE_BI_BL-Back_Left_new\Adjustable Spiral Torsion Spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE1F73E-0C80-4178-8AAE-0B11589B46C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1453ED43-C85F-4BE1-9C73-FF95C07E050C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-135" windowWidth="29040" windowHeight="15720" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hip Spring Table" sheetId="7" r:id="rId1"/>
@@ -1292,6 +1292,676 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
+              <a:t>Spring Configuration</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> P1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Clockwise</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('Test Spring 3'!$C$3,'Test Spring 3'!$C$4,'Test Spring 3'!$C$5,'Test Spring 3'!$C$7,'Test Spring 3'!$C$8,'Test Spring 3'!$C$9,'Test Spring 3'!$C$11,'Test Spring 3'!$C$12,'Test Spring 3'!$C$13,'Test Spring 3'!$C$15,'Test Spring 3'!$C$16,'Test Spring 3'!$C$17)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.23</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.23</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.68</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.29</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.26</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('Test Spring 3'!$E$3,'Test Spring 3'!$E$4,'Test Spring 3'!$E$5,'Test Spring 3'!$E$7,'Test Spring 3'!$E$8,'Test Spring 3'!$E$9,'Test Spring 3'!$E$11,'Test Spring 3'!$E$12,'Test Spring 3'!$E$13,'Test Spring 3'!$E$15,'Test Spring 3'!$E$16,'Test Spring 3'!$E$17)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>4.904908483692386E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.3573627255385781E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.8095802966948111E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.8095145551742625E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4714271832761392E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9615479179262481E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4519348974078099E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.6763494073820666E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.8996351923461967E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.9010827895743479E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.337172960478093E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.7650006612842608E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2B3E-48B9-A00B-635E472D9942}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Counter-Clockwise</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('Test Spring 3'!$F$3,'Test Spring 3'!$F$4,'Test Spring 3'!$F$5,'Test Spring 3'!$F$7,'Test Spring 3'!$F$8,'Test Spring 3'!$F$9,'Test Spring 3'!$F$11,'Test Spring 3'!$F$12,'Test Spring 3'!$F$13,'Test Spring 3'!$F$15,'Test Spring 3'!$F$16,'Test Spring 3'!$F$17)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.33</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.99</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.81</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.92</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('Test Spring 3'!$H$3,'Test Spring 3'!$H$4,'Test Spring 3'!$H$5,'Test Spring 3'!$H$7,'Test Spring 3'!$H$8,'Test Spring 3'!$H$9,'Test Spring 3'!$H$11,'Test Spring 3'!$H$12,'Test Spring 3'!$H$13,'Test Spring 3'!$H$15,'Test Spring 3'!$H$16,'Test Spring 3'!$H$17)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>4.9049757948151146E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.3572418126589215E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.8095802966948111E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.8097609372199222E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4712529121163618E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9617470759857061E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4516141727185137E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.675708575744803E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.8983225973405847E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.8991022095354816E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.3303906979395261E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.7399742881335558E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2B3E-48B9-A00B-635E472D9942}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1382923647"/>
+        <c:axId val="2116997007"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1382923647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Deflection (º)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2116997007"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2116997007"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Torque</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (N-m)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.7369658222343255E-2"/>
+              <c:y val="0.37907762297342018"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1382923647"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>Test</a:t>
             </a:r>
             <a:r>
@@ -1994,7 +2664,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2731,7 +3401,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -9869,6 +10539,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -11738,6 +12448,522 @@
 </file>
 
 <file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -16842,6 +18068,44 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>414618</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>3898</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>593912</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>180111</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{206122A1-0288-46FA-A096-A4A3D18A278F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -23892,12 +25156,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A8:A10"/>
     <mergeCell ref="A39:A41"/>
     <mergeCell ref="A43:A45"/>
     <mergeCell ref="A47:A49"/>
@@ -23908,6 +25166,12 @@
     <mergeCell ref="C33:E33"/>
     <mergeCell ref="F33:H33"/>
     <mergeCell ref="A35:A37"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A8:A10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -23919,7 +25183,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
@@ -25230,8 +26494,8 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:U51"/>
   <sheetViews>
-    <sheetView topLeftCell="C28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="T45" sqref="T45"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25747,11 +27011,11 @@
         <v>13</v>
       </c>
       <c r="C20">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="D20">
         <f t="shared" si="0"/>
-        <v>0.47123889803846897</v>
+        <v>1.0471975511965976</v>
       </c>
       <c r="F20">
         <v>56</v>
